--- a/data_samples/next-week.xlsx
+++ b/data_samples/next-week.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD848C7-77B6-49A1-9411-58B229804CE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C285594-B948-4D8C-9418-C25197B24FC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23415" yWindow="1365" windowWidth="7095" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -112,13 +112,16 @@
     <t>Home_Team</t>
   </si>
   <si>
-    <t>SCG</t>
+    <t>GMHBA Stadium</t>
   </si>
   <si>
-    <t>Gabba</t>
+    <t>University of Tasmania Stadium</t>
   </si>
   <si>
-    <t>GMHBA Stadium</t>
+    <t>UNSW Canberra Oval</t>
+  </si>
+  <si>
+    <t>Metricon Stadium</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -208,6 +211,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -552,14 +556,14 @@
   <dimension ref="A1:H2278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="4" customWidth="1"/>
     <col min="2" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="4" customWidth="1"/>
@@ -595,200 +599,182 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44304</v>
+        <v>44311</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1.24</v>
+      </c>
+      <c r="H2" s="14">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>44311</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1.76</v>
+      </c>
+      <c r="H3" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>44311</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1.66</v>
+      </c>
+      <c r="H4" s="14">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>44310</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>32</v>
+      <c r="D5" t="s">
+        <v>22</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5">
-        <v>1.03</v>
+      <c r="G5" s="14">
+        <v>1.1000000000000001</v>
       </c>
-      <c r="H2" s="5">
-        <v>12.5</v>
+      <c r="H5" s="14">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>44304</v>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>44310</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5">
-        <v>3.8</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>44304</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5">
-        <v>1.65</v>
-      </c>
-      <c r="H4" s="5">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>44303</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5">
-        <v>1.29</v>
-      </c>
-      <c r="H5" s="5">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>44303</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5">
-        <v>2.1800000000000002</v>
+      <c r="G6" s="14">
+        <v>2.2799999999999998</v>
       </c>
-      <c r="H6" s="5">
-        <v>1.69</v>
+      <c r="H6" s="14">
+        <v>1.75</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>44303</v>
+        <v>44310</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="14">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>44310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2.34</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>44310</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>44309</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5">
-        <v>1.46</v>
-      </c>
-      <c r="H7" s="5">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>44303</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
+      <c r="D10" s="12" t="s">
+        <v>32</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
+      <c r="G10" s="14">
+        <v>3.7</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H8" s="5">
-        <v>6.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>44302</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5">
-        <v>1.33</v>
-      </c>
-      <c r="H9" s="5">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>44301</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5">
-        <v>2.76</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1.45</v>
+      <c r="H10" s="14">
+        <v>1.36</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -823,9 +809,9 @@
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
@@ -833,9 +819,9 @@
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
@@ -843,9 +829,9 @@
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
@@ -853,9 +839,9 @@
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
@@ -863,9 +849,9 @@
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
@@ -873,9 +859,9 @@
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
@@ -883,9 +869,9 @@
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="1"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
@@ -893,9 +879,9 @@
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
@@ -903,9 +889,9 @@
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>

--- a/data_samples/next-week.xlsx
+++ b/data_samples/next-week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C285594-B948-4D8C-9418-C25197B24FC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA1D28-A753-4253-872D-F59A94E6FB03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23415" yWindow="1365" windowWidth="7095" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3640" yWindow="4720" windowWidth="7100" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -112,16 +112,13 @@
     <t>Home_Team</t>
   </si>
   <si>
-    <t>GMHBA Stadium</t>
+    <t>SCG</t>
   </si>
   <si>
-    <t>University of Tasmania Stadium</t>
+    <t>Gabba</t>
   </si>
   <si>
-    <t>UNSW Canberra Oval</t>
-  </si>
-  <si>
-    <t>Metricon Stadium</t>
+    <t>Blundstone Arena</t>
   </si>
 </sst>
 </file>
@@ -553,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2278"/>
+  <dimension ref="A1:H2265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,189 +596,186 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44311</v>
+        <v>44318</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G2" s="14">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
       <c r="H2" s="14">
-        <v>4.7</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <v>44311</v>
+        <v>44318</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="14">
-        <v>1.76</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H3" s="14">
-        <v>2.2999999999999998</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>44311</v>
+        <v>44318</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="14">
+        <v>18</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>44317</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="14">
-        <v>1.66</v>
-      </c>
-      <c r="H4" s="14">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>44310</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="14">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="H5" s="14">
-        <v>10</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>44310</v>
+        <v>44317</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
+      <c r="D6" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="G6" s="14">
-        <v>2.2799999999999998</v>
+        <v>2.74</v>
       </c>
       <c r="H6" s="14">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>44310</v>
+        <v>44317</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="14">
-        <v>2.2799999999999998</v>
+        <v>1.66</v>
       </c>
       <c r="H7" s="14">
-        <v>1.75</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>44310</v>
+        <v>44317</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1.96</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>44317</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="14">
-        <v>2.34</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>44310</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>30</v>
+      <c r="D9" t="s">
+        <v>3</v>
       </c>
       <c r="G9" s="14">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H9" s="14">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>32</v>
+      <c r="D10" t="s">
+        <v>3</v>
       </c>
       <c r="G10" s="14">
-        <v>3.7</v>
+        <v>2.56</v>
       </c>
       <c r="H10" s="14">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
@@ -809,9 +803,9 @@
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
@@ -819,9 +813,9 @@
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
@@ -829,9 +823,9 @@
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
@@ -839,9 +833,9 @@
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
@@ -849,9 +843,9 @@
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
@@ -859,9 +853,9 @@
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
@@ -869,9 +863,9 @@
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
@@ -879,9 +873,9 @@
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
@@ -889,9 +883,9 @@
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
@@ -6221,7 +6215,7 @@
       <c r="A555" s="7"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
-      <c r="D555" s="1"/>
+      <c r="D555" s="4"/>
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
       <c r="G555" s="5"/>
@@ -6231,7 +6225,7 @@
       <c r="A556" s="7"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
-      <c r="D556" s="1"/>
+      <c r="D556" s="4"/>
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
       <c r="G556" s="5"/>
@@ -6241,7 +6235,7 @@
       <c r="A557" s="7"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
-      <c r="D557" s="1"/>
+      <c r="D557" s="4"/>
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
       <c r="G557" s="5"/>
@@ -6251,7 +6245,7 @@
       <c r="A558" s="7"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
-      <c r="D558" s="1"/>
+      <c r="D558" s="4"/>
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
       <c r="G558" s="5"/>
@@ -6261,7 +6255,7 @@
       <c r="A559" s="7"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
-      <c r="D559" s="1"/>
+      <c r="D559" s="4"/>
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
       <c r="G559" s="5"/>
@@ -6271,7 +6265,7 @@
       <c r="A560" s="7"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
-      <c r="D560" s="1"/>
+      <c r="D560" s="4"/>
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
       <c r="G560" s="5"/>
@@ -6281,7 +6275,7 @@
       <c r="A561" s="7"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
-      <c r="D561" s="1"/>
+      <c r="D561" s="4"/>
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
       <c r="G561" s="5"/>
@@ -6291,7 +6285,7 @@
       <c r="A562" s="7"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
-      <c r="D562" s="1"/>
+      <c r="D562" s="4"/>
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
       <c r="G562" s="5"/>
@@ -6301,7 +6295,7 @@
       <c r="A563" s="7"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
-      <c r="D563" s="1"/>
+      <c r="D563" s="4"/>
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
       <c r="G563" s="5"/>
@@ -6311,7 +6305,7 @@
       <c r="A564" s="7"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
-      <c r="D564" s="1"/>
+      <c r="D564" s="4"/>
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
       <c r="G564" s="5"/>
@@ -6321,7 +6315,7 @@
       <c r="A565" s="7"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
-      <c r="D565" s="1"/>
+      <c r="D565" s="4"/>
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
       <c r="G565" s="5"/>
@@ -6331,7 +6325,7 @@
       <c r="A566" s="7"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
-      <c r="D566" s="1"/>
+      <c r="D566" s="4"/>
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
       <c r="G566" s="5"/>
@@ -6341,7 +6335,7 @@
       <c r="A567" s="7"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
-      <c r="D567" s="1"/>
+      <c r="D567" s="4"/>
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
       <c r="G567" s="5"/>
@@ -10407,180 +10401,180 @@
       <c r="G973" s="5"/>
       <c r="H973" s="5"/>
     </row>
-    <row r="974" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A974" s="7"/>
-      <c r="B974" s="4"/>
-      <c r="C974" s="4"/>
-      <c r="D974" s="4"/>
-      <c r="E974" s="4"/>
-      <c r="F974" s="4"/>
       <c r="G974" s="5"/>
       <c r="H974" s="5"/>
     </row>
-    <row r="975" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A975" s="7"/>
-      <c r="B975" s="4"/>
-      <c r="C975" s="4"/>
-      <c r="D975" s="4"/>
-      <c r="E975" s="4"/>
-      <c r="F975" s="4"/>
       <c r="G975" s="5"/>
       <c r="H975" s="5"/>
     </row>
-    <row r="976" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A976" s="7"/>
-      <c r="B976" s="4"/>
-      <c r="C976" s="4"/>
-      <c r="D976" s="4"/>
-      <c r="E976" s="4"/>
-      <c r="F976" s="4"/>
       <c r="G976" s="5"/>
       <c r="H976" s="5"/>
     </row>
-    <row r="977" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A977" s="7"/>
-      <c r="B977" s="4"/>
-      <c r="C977" s="4"/>
-      <c r="D977" s="4"/>
-      <c r="E977" s="4"/>
-      <c r="F977" s="4"/>
       <c r="G977" s="5"/>
       <c r="H977" s="5"/>
     </row>
-    <row r="978" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A978" s="7"/>
-      <c r="B978" s="4"/>
-      <c r="C978" s="4"/>
-      <c r="D978" s="4"/>
-      <c r="E978" s="4"/>
-      <c r="F978" s="4"/>
       <c r="G978" s="5"/>
       <c r="H978" s="5"/>
     </row>
-    <row r="979" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A979" s="7"/>
-      <c r="B979" s="4"/>
-      <c r="C979" s="4"/>
-      <c r="D979" s="4"/>
-      <c r="E979" s="4"/>
-      <c r="F979" s="4"/>
       <c r="G979" s="5"/>
       <c r="H979" s="5"/>
     </row>
-    <row r="980" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A980" s="7"/>
-      <c r="B980" s="4"/>
-      <c r="C980" s="4"/>
-      <c r="D980" s="4"/>
-      <c r="E980" s="4"/>
-      <c r="F980" s="4"/>
       <c r="G980" s="5"/>
       <c r="H980" s="5"/>
     </row>
-    <row r="981" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A981" s="7"/>
-      <c r="B981" s="4"/>
-      <c r="C981" s="4"/>
-      <c r="D981" s="4"/>
-      <c r="E981" s="4"/>
-      <c r="F981" s="4"/>
       <c r="G981" s="5"/>
       <c r="H981" s="5"/>
     </row>
-    <row r="982" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A982" s="7"/>
-      <c r="B982" s="4"/>
-      <c r="C982" s="4"/>
-      <c r="D982" s="4"/>
-      <c r="E982" s="4"/>
-      <c r="F982" s="4"/>
       <c r="G982" s="5"/>
       <c r="H982" s="5"/>
     </row>
     <row r="983" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A983" s="7"/>
-      <c r="B983" s="4"/>
-      <c r="C983" s="4"/>
-      <c r="D983" s="4"/>
-      <c r="E983" s="4"/>
-      <c r="F983" s="4"/>
-      <c r="G983" s="5"/>
-      <c r="H983" s="5"/>
+      <c r="B983" s="6"/>
+      <c r="C983" s="6"/>
+      <c r="D983" s="6"/>
+      <c r="E983" s="6"/>
+      <c r="F983" s="6"/>
+      <c r="G983" s="8"/>
+      <c r="H983" s="8"/>
     </row>
     <row r="984" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A984" s="7"/>
-      <c r="B984" s="4"/>
-      <c r="C984" s="4"/>
-      <c r="D984" s="4"/>
-      <c r="E984" s="4"/>
-      <c r="F984" s="4"/>
-      <c r="G984" s="5"/>
-      <c r="H984" s="5"/>
+      <c r="B984" s="6"/>
+      <c r="C984" s="6"/>
+      <c r="D984" s="6"/>
+      <c r="E984" s="6"/>
+      <c r="F984" s="6"/>
+      <c r="G984" s="8"/>
+      <c r="H984" s="8"/>
     </row>
     <row r="985" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A985" s="7"/>
-      <c r="B985" s="4"/>
-      <c r="C985" s="4"/>
-      <c r="D985" s="4"/>
-      <c r="E985" s="4"/>
-      <c r="F985" s="4"/>
-      <c r="G985" s="5"/>
-      <c r="H985" s="5"/>
+      <c r="B985" s="6"/>
+      <c r="C985" s="6"/>
+      <c r="D985" s="6"/>
+      <c r="E985" s="6"/>
+      <c r="F985" s="6"/>
+      <c r="G985" s="8"/>
+      <c r="H985" s="8"/>
     </row>
     <row r="986" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A986" s="7"/>
-      <c r="B986" s="4"/>
-      <c r="C986" s="4"/>
-      <c r="D986" s="4"/>
-      <c r="E986" s="4"/>
-      <c r="F986" s="4"/>
-      <c r="G986" s="5"/>
-      <c r="H986" s="5"/>
-    </row>
-    <row r="987" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B986" s="6"/>
+      <c r="C986" s="6"/>
+      <c r="D986" s="6"/>
+      <c r="E986" s="6"/>
+      <c r="F986" s="6"/>
+      <c r="G986" s="8"/>
+      <c r="H986" s="8"/>
+    </row>
+    <row r="987" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A987" s="7"/>
-      <c r="G987" s="5"/>
-      <c r="H987" s="5"/>
-    </row>
-    <row r="988" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B987" s="6"/>
+      <c r="C987" s="6"/>
+      <c r="D987" s="6"/>
+      <c r="E987" s="6"/>
+      <c r="F987" s="6"/>
+      <c r="G987" s="8"/>
+      <c r="H987" s="8"/>
+    </row>
+    <row r="988" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A988" s="7"/>
-      <c r="G988" s="5"/>
-      <c r="H988" s="5"/>
-    </row>
-    <row r="989" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B988" s="6"/>
+      <c r="C988" s="6"/>
+      <c r="D988" s="6"/>
+      <c r="E988" s="6"/>
+      <c r="F988" s="6"/>
+      <c r="G988" s="8"/>
+      <c r="H988" s="8"/>
+    </row>
+    <row r="989" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A989" s="7"/>
-      <c r="G989" s="5"/>
-      <c r="H989" s="5"/>
-    </row>
-    <row r="990" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B989" s="6"/>
+      <c r="C989" s="6"/>
+      <c r="D989" s="6"/>
+      <c r="E989" s="6"/>
+      <c r="F989" s="6"/>
+      <c r="G989" s="8"/>
+      <c r="H989" s="8"/>
+    </row>
+    <row r="990" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A990" s="7"/>
-      <c r="G990" s="5"/>
-      <c r="H990" s="5"/>
-    </row>
-    <row r="991" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B990" s="6"/>
+      <c r="C990" s="6"/>
+      <c r="D990" s="6"/>
+      <c r="E990" s="6"/>
+      <c r="F990" s="6"/>
+      <c r="G990" s="8"/>
+      <c r="H990" s="8"/>
+    </row>
+    <row r="991" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A991" s="7"/>
-      <c r="G991" s="5"/>
-      <c r="H991" s="5"/>
-    </row>
-    <row r="992" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B991" s="6"/>
+      <c r="C991" s="6"/>
+      <c r="D991" s="6"/>
+      <c r="E991" s="6"/>
+      <c r="F991" s="6"/>
+      <c r="G991" s="8"/>
+      <c r="H991" s="8"/>
+    </row>
+    <row r="992" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A992" s="7"/>
-      <c r="G992" s="5"/>
-      <c r="H992" s="5"/>
-    </row>
-    <row r="993" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B992" s="6"/>
+      <c r="C992" s="6"/>
+      <c r="D992" s="6"/>
+      <c r="E992" s="6"/>
+      <c r="F992" s="6"/>
+      <c r="G992" s="8"/>
+      <c r="H992" s="8"/>
+    </row>
+    <row r="993" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A993" s="7"/>
-      <c r="G993" s="5"/>
-      <c r="H993" s="5"/>
-    </row>
-    <row r="994" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B993" s="6"/>
+      <c r="C993" s="6"/>
+      <c r="D993" s="6"/>
+      <c r="E993" s="6"/>
+      <c r="F993" s="6"/>
+      <c r="G993" s="8"/>
+      <c r="H993" s="8"/>
+    </row>
+    <row r="994" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A994" s="7"/>
-      <c r="G994" s="5"/>
-      <c r="H994" s="5"/>
-    </row>
-    <row r="995" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B994" s="6"/>
+      <c r="C994" s="6"/>
+      <c r="D994" s="6"/>
+      <c r="E994" s="6"/>
+      <c r="F994" s="6"/>
+      <c r="G994" s="8"/>
+      <c r="H994" s="8"/>
+    </row>
+    <row r="995" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A995" s="7"/>
-      <c r="G995" s="5"/>
-      <c r="H995" s="5"/>
+      <c r="B995" s="6"/>
+      <c r="C995" s="6"/>
+      <c r="D995" s="6"/>
+      <c r="E995" s="6"/>
+      <c r="F995" s="6"/>
+      <c r="G995" s="8"/>
+      <c r="H995" s="8"/>
     </row>
     <row r="996" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A996" s="7"/>
@@ -15842,7 +15836,7 @@
       <c r="G1521" s="8"/>
       <c r="H1521" s="8"/>
     </row>
-    <row r="1522" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1522" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1522" s="7"/>
       <c r="B1522" s="6"/>
       <c r="C1522" s="6"/>
@@ -15852,7 +15846,7 @@
       <c r="G1522" s="8"/>
       <c r="H1522" s="8"/>
     </row>
-    <row r="1523" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1523" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1523" s="7"/>
       <c r="B1523" s="6"/>
       <c r="C1523" s="6"/>
@@ -15862,7 +15856,7 @@
       <c r="G1523" s="8"/>
       <c r="H1523" s="8"/>
     </row>
-    <row r="1524" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1524" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1524" s="7"/>
       <c r="B1524" s="6"/>
       <c r="C1524" s="6"/>
@@ -15872,7 +15866,7 @@
       <c r="G1524" s="8"/>
       <c r="H1524" s="8"/>
     </row>
-    <row r="1525" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1525" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1525" s="7"/>
       <c r="B1525" s="6"/>
       <c r="C1525" s="6"/>
@@ -15882,7 +15876,7 @@
       <c r="G1525" s="8"/>
       <c r="H1525" s="8"/>
     </row>
-    <row r="1526" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1526" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1526" s="7"/>
       <c r="B1526" s="6"/>
       <c r="C1526" s="6"/>
@@ -15892,7 +15886,7 @@
       <c r="G1526" s="8"/>
       <c r="H1526" s="8"/>
     </row>
-    <row r="1527" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1527" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1527" s="7"/>
       <c r="B1527" s="6"/>
       <c r="C1527" s="6"/>
@@ -15902,7 +15896,7 @@
       <c r="G1527" s="8"/>
       <c r="H1527" s="8"/>
     </row>
-    <row r="1528" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1528" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1528" s="7"/>
       <c r="B1528" s="6"/>
       <c r="C1528" s="6"/>
@@ -15912,7 +15906,7 @@
       <c r="G1528" s="8"/>
       <c r="H1528" s="8"/>
     </row>
-    <row r="1529" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1529" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1529" s="7"/>
       <c r="B1529" s="6"/>
       <c r="C1529" s="6"/>
@@ -15922,7 +15916,7 @@
       <c r="G1529" s="8"/>
       <c r="H1529" s="8"/>
     </row>
-    <row r="1530" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1530" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1530" s="7"/>
       <c r="B1530" s="6"/>
       <c r="C1530" s="6"/>
@@ -15972,7 +15966,7 @@
       <c r="G1534" s="8"/>
       <c r="H1534" s="8"/>
     </row>
-    <row r="1535" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1535" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1535" s="7"/>
       <c r="B1535" s="6"/>
       <c r="C1535" s="6"/>
@@ -15982,7 +15976,7 @@
       <c r="G1535" s="8"/>
       <c r="H1535" s="8"/>
     </row>
-    <row r="1536" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1536" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1536" s="7"/>
       <c r="B1536" s="6"/>
       <c r="C1536" s="6"/>
@@ -15992,7 +15986,7 @@
       <c r="G1536" s="8"/>
       <c r="H1536" s="8"/>
     </row>
-    <row r="1537" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1537" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1537" s="7"/>
       <c r="B1537" s="6"/>
       <c r="C1537" s="6"/>
@@ -16002,7 +15996,7 @@
       <c r="G1537" s="8"/>
       <c r="H1537" s="8"/>
     </row>
-    <row r="1538" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1538" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1538" s="7"/>
       <c r="B1538" s="6"/>
       <c r="C1538" s="6"/>
@@ -16012,7 +16006,7 @@
       <c r="G1538" s="8"/>
       <c r="H1538" s="8"/>
     </row>
-    <row r="1539" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1539" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1539" s="7"/>
       <c r="B1539" s="6"/>
       <c r="C1539" s="6"/>
@@ -16022,7 +16016,7 @@
       <c r="G1539" s="8"/>
       <c r="H1539" s="8"/>
     </row>
-    <row r="1540" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1540" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1540" s="7"/>
       <c r="B1540" s="6"/>
       <c r="C1540" s="6"/>
@@ -16032,7 +16026,7 @@
       <c r="G1540" s="8"/>
       <c r="H1540" s="8"/>
     </row>
-    <row r="1541" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1541" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1541" s="7"/>
       <c r="B1541" s="6"/>
       <c r="C1541" s="6"/>
@@ -16042,7 +16036,7 @@
       <c r="G1541" s="8"/>
       <c r="H1541" s="8"/>
     </row>
-    <row r="1542" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1542" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1542" s="7"/>
       <c r="B1542" s="6"/>
       <c r="C1542" s="6"/>
@@ -16052,7 +16046,7 @@
       <c r="G1542" s="8"/>
       <c r="H1542" s="8"/>
     </row>
-    <row r="1543" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1543" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1543" s="7"/>
       <c r="B1543" s="6"/>
       <c r="C1543" s="6"/>
@@ -16473,134 +16467,134 @@
       <c r="H1584" s="8"/>
     </row>
     <row r="1585" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1585" s="7"/>
-      <c r="B1585" s="6"/>
-      <c r="C1585" s="6"/>
-      <c r="D1585" s="6"/>
-      <c r="E1585" s="6"/>
-      <c r="F1585" s="6"/>
-      <c r="G1585" s="8"/>
-      <c r="H1585" s="8"/>
+      <c r="A1585" s="3"/>
+      <c r="B1585" s="4"/>
+      <c r="C1585" s="4"/>
+      <c r="D1585" s="4"/>
+      <c r="E1585" s="4"/>
+      <c r="F1585" s="4"/>
+      <c r="G1585" s="5"/>
+      <c r="H1585" s="5"/>
     </row>
     <row r="1586" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1586" s="7"/>
-      <c r="B1586" s="6"/>
-      <c r="C1586" s="6"/>
-      <c r="D1586" s="6"/>
-      <c r="E1586" s="6"/>
-      <c r="F1586" s="6"/>
-      <c r="G1586" s="8"/>
-      <c r="H1586" s="8"/>
+      <c r="A1586" s="3"/>
+      <c r="B1586" s="4"/>
+      <c r="C1586" s="4"/>
+      <c r="D1586" s="4"/>
+      <c r="E1586" s="4"/>
+      <c r="F1586" s="4"/>
+      <c r="G1586" s="5"/>
+      <c r="H1586" s="5"/>
     </row>
     <row r="1587" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1587" s="7"/>
-      <c r="B1587" s="6"/>
-      <c r="C1587" s="6"/>
-      <c r="D1587" s="6"/>
-      <c r="E1587" s="6"/>
-      <c r="F1587" s="6"/>
-      <c r="G1587" s="8"/>
-      <c r="H1587" s="8"/>
+      <c r="A1587" s="3"/>
+      <c r="B1587" s="4"/>
+      <c r="C1587" s="4"/>
+      <c r="D1587" s="4"/>
+      <c r="E1587" s="4"/>
+      <c r="F1587" s="4"/>
+      <c r="G1587" s="5"/>
+      <c r="H1587" s="5"/>
     </row>
     <row r="1588" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1588" s="7"/>
-      <c r="B1588" s="6"/>
-      <c r="C1588" s="6"/>
-      <c r="D1588" s="6"/>
-      <c r="E1588" s="6"/>
-      <c r="F1588" s="6"/>
-      <c r="G1588" s="8"/>
-      <c r="H1588" s="8"/>
+      <c r="A1588" s="3"/>
+      <c r="B1588" s="4"/>
+      <c r="C1588" s="4"/>
+      <c r="D1588" s="4"/>
+      <c r="E1588" s="4"/>
+      <c r="F1588" s="4"/>
+      <c r="G1588" s="5"/>
+      <c r="H1588" s="5"/>
     </row>
     <row r="1589" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1589" s="7"/>
-      <c r="B1589" s="6"/>
-      <c r="C1589" s="6"/>
-      <c r="D1589" s="6"/>
-      <c r="E1589" s="6"/>
-      <c r="F1589" s="6"/>
-      <c r="G1589" s="8"/>
-      <c r="H1589" s="8"/>
+      <c r="A1589" s="3"/>
+      <c r="B1589" s="4"/>
+      <c r="C1589" s="4"/>
+      <c r="D1589" s="4"/>
+      <c r="E1589" s="4"/>
+      <c r="F1589" s="4"/>
+      <c r="G1589" s="5"/>
+      <c r="H1589" s="5"/>
     </row>
     <row r="1590" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1590" s="7"/>
-      <c r="B1590" s="6"/>
-      <c r="C1590" s="6"/>
-      <c r="D1590" s="6"/>
-      <c r="E1590" s="6"/>
-      <c r="F1590" s="6"/>
-      <c r="G1590" s="8"/>
-      <c r="H1590" s="8"/>
+      <c r="A1590" s="3"/>
+      <c r="B1590" s="4"/>
+      <c r="C1590" s="4"/>
+      <c r="D1590" s="4"/>
+      <c r="E1590" s="4"/>
+      <c r="F1590" s="4"/>
+      <c r="G1590" s="5"/>
+      <c r="H1590" s="5"/>
     </row>
     <row r="1591" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1591" s="7"/>
-      <c r="B1591" s="6"/>
-      <c r="C1591" s="6"/>
-      <c r="D1591" s="6"/>
-      <c r="E1591" s="6"/>
-      <c r="F1591" s="6"/>
-      <c r="G1591" s="8"/>
-      <c r="H1591" s="8"/>
+      <c r="A1591" s="3"/>
+      <c r="B1591" s="4"/>
+      <c r="C1591" s="4"/>
+      <c r="D1591" s="4"/>
+      <c r="E1591" s="4"/>
+      <c r="F1591" s="4"/>
+      <c r="G1591" s="5"/>
+      <c r="H1591" s="5"/>
     </row>
     <row r="1592" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1592" s="7"/>
-      <c r="B1592" s="6"/>
-      <c r="C1592" s="6"/>
-      <c r="D1592" s="6"/>
-      <c r="E1592" s="6"/>
-      <c r="F1592" s="6"/>
-      <c r="G1592" s="8"/>
-      <c r="H1592" s="8"/>
+      <c r="A1592" s="3"/>
+      <c r="B1592" s="4"/>
+      <c r="C1592" s="4"/>
+      <c r="D1592" s="4"/>
+      <c r="E1592" s="4"/>
+      <c r="F1592" s="4"/>
+      <c r="G1592" s="5"/>
+      <c r="H1592" s="5"/>
     </row>
     <row r="1593" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1593" s="7"/>
-      <c r="B1593" s="6"/>
-      <c r="C1593" s="6"/>
-      <c r="D1593" s="6"/>
-      <c r="E1593" s="6"/>
-      <c r="F1593" s="6"/>
-      <c r="G1593" s="8"/>
-      <c r="H1593" s="8"/>
+      <c r="A1593" s="3"/>
+      <c r="B1593" s="4"/>
+      <c r="C1593" s="4"/>
+      <c r="D1593" s="4"/>
+      <c r="E1593" s="4"/>
+      <c r="F1593" s="4"/>
+      <c r="G1593" s="5"/>
+      <c r="H1593" s="5"/>
     </row>
     <row r="1594" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1594" s="7"/>
-      <c r="B1594" s="6"/>
-      <c r="C1594" s="6"/>
-      <c r="D1594" s="6"/>
-      <c r="E1594" s="6"/>
-      <c r="F1594" s="6"/>
-      <c r="G1594" s="8"/>
-      <c r="H1594" s="8"/>
+      <c r="A1594" s="3"/>
+      <c r="B1594" s="4"/>
+      <c r="C1594" s="4"/>
+      <c r="D1594" s="4"/>
+      <c r="E1594" s="4"/>
+      <c r="F1594" s="4"/>
+      <c r="G1594" s="5"/>
+      <c r="H1594" s="5"/>
     </row>
     <row r="1595" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1595" s="7"/>
-      <c r="B1595" s="6"/>
-      <c r="C1595" s="6"/>
-      <c r="D1595" s="6"/>
-      <c r="E1595" s="6"/>
-      <c r="F1595" s="6"/>
-      <c r="G1595" s="8"/>
-      <c r="H1595" s="8"/>
+      <c r="A1595" s="3"/>
+      <c r="B1595" s="4"/>
+      <c r="C1595" s="4"/>
+      <c r="D1595" s="4"/>
+      <c r="E1595" s="4"/>
+      <c r="F1595" s="4"/>
+      <c r="G1595" s="5"/>
+      <c r="H1595" s="5"/>
     </row>
     <row r="1596" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1596" s="7"/>
-      <c r="B1596" s="6"/>
-      <c r="C1596" s="6"/>
-      <c r="D1596" s="6"/>
-      <c r="E1596" s="6"/>
-      <c r="F1596" s="6"/>
-      <c r="G1596" s="8"/>
-      <c r="H1596" s="8"/>
+      <c r="A1596" s="3"/>
+      <c r="B1596" s="4"/>
+      <c r="C1596" s="4"/>
+      <c r="D1596" s="4"/>
+      <c r="E1596" s="4"/>
+      <c r="F1596" s="4"/>
+      <c r="G1596" s="5"/>
+      <c r="H1596" s="5"/>
     </row>
     <row r="1597" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1597" s="7"/>
-      <c r="B1597" s="6"/>
-      <c r="C1597" s="6"/>
-      <c r="D1597" s="6"/>
-      <c r="E1597" s="6"/>
-      <c r="F1597" s="6"/>
-      <c r="G1597" s="8"/>
-      <c r="H1597" s="8"/>
+      <c r="A1597" s="3"/>
+      <c r="B1597" s="4"/>
+      <c r="C1597" s="4"/>
+      <c r="D1597" s="4"/>
+      <c r="E1597" s="4"/>
+      <c r="F1597" s="4"/>
+      <c r="G1597" s="5"/>
+      <c r="H1597" s="5"/>
     </row>
     <row r="1598" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1598" s="3"/>
@@ -18487,7 +18481,7 @@
       <c r="B1786" s="4"/>
       <c r="C1786" s="4"/>
       <c r="D1786" s="4"/>
-      <c r="E1786" s="4"/>
+      <c r="E1786" s="6"/>
       <c r="F1786" s="4"/>
       <c r="G1786" s="5"/>
       <c r="H1786" s="5"/>
@@ -18542,133 +18536,68 @@
       <c r="G1791" s="5"/>
       <c r="H1791" s="5"/>
     </row>
-    <row r="1792" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1792" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1792" s="3"/>
-      <c r="B1792" s="4"/>
-      <c r="C1792" s="4"/>
-      <c r="D1792" s="4"/>
-      <c r="E1792" s="4"/>
-      <c r="F1792" s="4"/>
       <c r="G1792" s="5"/>
       <c r="H1792" s="5"/>
     </row>
-    <row r="1793" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1793" s="3"/>
-      <c r="B1793" s="4"/>
-      <c r="C1793" s="4"/>
-      <c r="D1793" s="4"/>
-      <c r="E1793" s="4"/>
-      <c r="F1793" s="4"/>
       <c r="G1793" s="5"/>
       <c r="H1793" s="5"/>
     </row>
-    <row r="1794" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1794" s="3"/>
-      <c r="B1794" s="4"/>
-      <c r="C1794" s="4"/>
-      <c r="D1794" s="4"/>
-      <c r="E1794" s="4"/>
-      <c r="F1794" s="4"/>
       <c r="G1794" s="5"/>
       <c r="H1794" s="5"/>
     </row>
-    <row r="1795" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1795" s="3"/>
-      <c r="B1795" s="4"/>
-      <c r="C1795" s="4"/>
-      <c r="D1795" s="4"/>
-      <c r="E1795" s="4"/>
-      <c r="F1795" s="4"/>
       <c r="G1795" s="5"/>
       <c r="H1795" s="5"/>
     </row>
-    <row r="1796" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1796" s="3"/>
-      <c r="B1796" s="4"/>
-      <c r="C1796" s="4"/>
-      <c r="D1796" s="4"/>
-      <c r="E1796" s="4"/>
-      <c r="F1796" s="4"/>
       <c r="G1796" s="5"/>
       <c r="H1796" s="5"/>
     </row>
-    <row r="1797" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1797" s="3"/>
-      <c r="B1797" s="4"/>
-      <c r="C1797" s="4"/>
-      <c r="D1797" s="4"/>
-      <c r="E1797" s="4"/>
-      <c r="F1797" s="4"/>
       <c r="G1797" s="5"/>
       <c r="H1797" s="5"/>
     </row>
-    <row r="1798" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1798" s="3"/>
-      <c r="B1798" s="4"/>
-      <c r="C1798" s="4"/>
-      <c r="D1798" s="4"/>
-      <c r="E1798" s="4"/>
-      <c r="F1798" s="4"/>
       <c r="G1798" s="5"/>
       <c r="H1798" s="5"/>
     </row>
-    <row r="1799" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1799" s="3"/>
-      <c r="B1799" s="4"/>
-      <c r="C1799" s="4"/>
-      <c r="D1799" s="4"/>
-      <c r="E1799" s="6"/>
-      <c r="F1799" s="4"/>
       <c r="G1799" s="5"/>
       <c r="H1799" s="5"/>
     </row>
-    <row r="1800" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1800" s="3"/>
-      <c r="B1800" s="4"/>
-      <c r="C1800" s="4"/>
-      <c r="D1800" s="4"/>
-      <c r="E1800" s="4"/>
-      <c r="F1800" s="4"/>
       <c r="G1800" s="5"/>
       <c r="H1800" s="5"/>
     </row>
-    <row r="1801" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1801" s="3"/>
-      <c r="B1801" s="4"/>
-      <c r="C1801" s="4"/>
-      <c r="D1801" s="4"/>
-      <c r="E1801" s="4"/>
-      <c r="F1801" s="4"/>
       <c r="G1801" s="5"/>
       <c r="H1801" s="5"/>
     </row>
-    <row r="1802" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1802" s="3"/>
-      <c r="B1802" s="4"/>
-      <c r="C1802" s="4"/>
-      <c r="D1802" s="4"/>
-      <c r="E1802" s="4"/>
-      <c r="F1802" s="4"/>
       <c r="G1802" s="5"/>
       <c r="H1802" s="5"/>
     </row>
-    <row r="1803" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1803" s="3"/>
-      <c r="B1803" s="4"/>
-      <c r="C1803" s="4"/>
-      <c r="D1803" s="4"/>
-      <c r="E1803" s="4"/>
-      <c r="F1803" s="4"/>
       <c r="G1803" s="5"/>
       <c r="H1803" s="5"/>
     </row>
-    <row r="1804" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1804" s="3"/>
-      <c r="B1804" s="4"/>
-      <c r="C1804" s="4"/>
-      <c r="D1804" s="4"/>
-      <c r="E1804" s="4"/>
-      <c r="F1804" s="4"/>
       <c r="G1804" s="5"/>
       <c r="H1804" s="5"/>
     </row>
@@ -20977,74 +20906,9 @@
       <c r="G2265" s="5"/>
       <c r="H2265" s="5"/>
     </row>
-    <row r="2266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2266" s="3"/>
-      <c r="G2266" s="5"/>
-      <c r="H2266" s="5"/>
-    </row>
-    <row r="2267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2267" s="3"/>
-      <c r="G2267" s="5"/>
-      <c r="H2267" s="5"/>
-    </row>
-    <row r="2268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2268" s="3"/>
-      <c r="G2268" s="5"/>
-      <c r="H2268" s="5"/>
-    </row>
-    <row r="2269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2269" s="3"/>
-      <c r="G2269" s="5"/>
-      <c r="H2269" s="5"/>
-    </row>
-    <row r="2270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2270" s="3"/>
-      <c r="G2270" s="5"/>
-      <c r="H2270" s="5"/>
-    </row>
-    <row r="2271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2271" s="3"/>
-      <c r="G2271" s="5"/>
-      <c r="H2271" s="5"/>
-    </row>
-    <row r="2272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2272" s="3"/>
-      <c r="G2272" s="5"/>
-      <c r="H2272" s="5"/>
-    </row>
-    <row r="2273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2273" s="3"/>
-      <c r="G2273" s="5"/>
-      <c r="H2273" s="5"/>
-    </row>
-    <row r="2274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2274" s="3"/>
-      <c r="G2274" s="5"/>
-      <c r="H2274" s="5"/>
-    </row>
-    <row r="2275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2275" s="3"/>
-      <c r="G2275" s="5"/>
-      <c r="H2275" s="5"/>
-    </row>
-    <row r="2276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2276" s="3"/>
-      <c r="G2276" s="5"/>
-      <c r="H2276" s="5"/>
-    </row>
-    <row r="2277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2277" s="3"/>
-      <c r="G2277" s="5"/>
-      <c r="H2277" s="5"/>
-    </row>
-    <row r="2278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2278" s="3"/>
-      <c r="G2278" s="5"/>
-      <c r="H2278" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H460">
-    <sortCondition descending="1" ref="A1:A460"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H447">
+    <sortCondition descending="1" ref="A1:A447"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_samples/next-week.xlsx
+++ b/data_samples/next-week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA1D28-A753-4253-872D-F59A94E6FB03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D60B7B-C0E5-41AE-9054-A56A04632232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3640" yWindow="4720" windowWidth="7100" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>MCG</t>
-  </si>
-  <si>
-    <t>Adelaide Oval</t>
   </si>
   <si>
     <t>West Coast</t>
@@ -112,13 +109,13 @@
     <t>Home_Team</t>
   </si>
   <si>
-    <t>SCG</t>
+    <t>Giants Stadium</t>
   </si>
   <si>
-    <t>Gabba</t>
+    <t>Metricon Stadium</t>
   </si>
   <si>
-    <t>Blundstone Arena</t>
+    <t>Adelaide Arena</t>
   </si>
 </sst>
 </file>
@@ -550,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2265"/>
+  <dimension ref="A1:H2253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,205 +570,205 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44318</v>
+        <v>44325</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="G2" s="14">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>44325</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="14">
-        <v>1.76</v>
+      <c r="G3" s="14">
+        <v>1.34</v>
       </c>
-      <c r="H2" s="14">
-        <v>2.2400000000000002</v>
+      <c r="H3" s="14">
+        <v>3.29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>44318</v>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>44325</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>44324</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
-      <c r="G3" s="14">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="H3" s="14">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>44318</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="14">
-        <v>18</v>
-      </c>
-      <c r="H4" s="14">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>44317</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="14">
-        <v>2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H5" s="14">
-        <v>1.98</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>44317</v>
+        <v>44324</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1.22</v>
+      </c>
+      <c r="H6" s="14">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>44324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="D7" t="s">
+        <v>22</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="G7" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>44324</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="14">
-        <v>2.74</v>
-      </c>
-      <c r="H6" s="14">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>44317</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1.66</v>
-      </c>
-      <c r="H7" s="14">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>44317</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="14">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="H8" s="14">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <v>44317</v>
+        <v>44324</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1.46</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>44323</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1.53</v>
-      </c>
-      <c r="H9" s="14">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>44316</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="14">
-        <v>2.56</v>
+        <v>1.62</v>
       </c>
       <c r="H10" s="14">
-        <v>1.63</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6095,7 +6092,7 @@
       <c r="A543" s="7"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
-      <c r="D543" s="1"/>
+      <c r="D543" s="4"/>
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
       <c r="G543" s="5"/>
@@ -6105,7 +6102,7 @@
       <c r="A544" s="7"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
-      <c r="D544" s="1"/>
+      <c r="D544" s="4"/>
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
       <c r="G544" s="5"/>
@@ -6115,7 +6112,7 @@
       <c r="A545" s="7"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
-      <c r="D545" s="1"/>
+      <c r="D545" s="4"/>
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
       <c r="G545" s="5"/>
@@ -6125,7 +6122,7 @@
       <c r="A546" s="7"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
-      <c r="D546" s="1"/>
+      <c r="D546" s="4"/>
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
       <c r="G546" s="5"/>
@@ -6135,7 +6132,7 @@
       <c r="A547" s="7"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
-      <c r="D547" s="1"/>
+      <c r="D547" s="4"/>
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
       <c r="G547" s="5"/>
@@ -6145,7 +6142,7 @@
       <c r="A548" s="7"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
-      <c r="D548" s="1"/>
+      <c r="D548" s="4"/>
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
       <c r="G548" s="5"/>
@@ -6155,7 +6152,7 @@
       <c r="A549" s="7"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
-      <c r="D549" s="1"/>
+      <c r="D549" s="4"/>
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
       <c r="G549" s="5"/>
@@ -6165,7 +6162,7 @@
       <c r="A550" s="7"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
-      <c r="D550" s="1"/>
+      <c r="D550" s="4"/>
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
       <c r="G550" s="5"/>
@@ -6175,7 +6172,7 @@
       <c r="A551" s="7"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
-      <c r="D551" s="1"/>
+      <c r="D551" s="4"/>
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
       <c r="G551" s="5"/>
@@ -6185,7 +6182,7 @@
       <c r="A552" s="7"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
-      <c r="D552" s="1"/>
+      <c r="D552" s="4"/>
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
       <c r="G552" s="5"/>
@@ -6195,7 +6192,7 @@
       <c r="A553" s="7"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
-      <c r="D553" s="1"/>
+      <c r="D553" s="4"/>
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
       <c r="G553" s="5"/>
@@ -6205,7 +6202,7 @@
       <c r="A554" s="7"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
-      <c r="D554" s="1"/>
+      <c r="D554" s="4"/>
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
       <c r="G554" s="5"/>
@@ -10281,170 +10278,170 @@
       <c r="G961" s="5"/>
       <c r="H961" s="5"/>
     </row>
-    <row r="962" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A962" s="7"/>
-      <c r="B962" s="4"/>
-      <c r="C962" s="4"/>
-      <c r="D962" s="4"/>
-      <c r="E962" s="4"/>
-      <c r="F962" s="4"/>
       <c r="G962" s="5"/>
       <c r="H962" s="5"/>
     </row>
-    <row r="963" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A963" s="7"/>
-      <c r="B963" s="4"/>
-      <c r="C963" s="4"/>
-      <c r="D963" s="4"/>
-      <c r="E963" s="4"/>
-      <c r="F963" s="4"/>
       <c r="G963" s="5"/>
       <c r="H963" s="5"/>
     </row>
-    <row r="964" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A964" s="7"/>
-      <c r="B964" s="4"/>
-      <c r="C964" s="4"/>
-      <c r="D964" s="4"/>
-      <c r="E964" s="4"/>
-      <c r="F964" s="4"/>
       <c r="G964" s="5"/>
       <c r="H964" s="5"/>
     </row>
-    <row r="965" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A965" s="7"/>
-      <c r="B965" s="4"/>
-      <c r="C965" s="4"/>
-      <c r="D965" s="4"/>
-      <c r="E965" s="4"/>
-      <c r="F965" s="4"/>
       <c r="G965" s="5"/>
       <c r="H965" s="5"/>
     </row>
-    <row r="966" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A966" s="7"/>
-      <c r="B966" s="4"/>
-      <c r="C966" s="4"/>
-      <c r="D966" s="4"/>
-      <c r="E966" s="4"/>
-      <c r="F966" s="4"/>
       <c r="G966" s="5"/>
       <c r="H966" s="5"/>
     </row>
-    <row r="967" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A967" s="7"/>
-      <c r="B967" s="4"/>
-      <c r="C967" s="4"/>
-      <c r="D967" s="4"/>
-      <c r="E967" s="4"/>
-      <c r="F967" s="4"/>
       <c r="G967" s="5"/>
       <c r="H967" s="5"/>
     </row>
-    <row r="968" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A968" s="7"/>
-      <c r="B968" s="4"/>
-      <c r="C968" s="4"/>
-      <c r="D968" s="4"/>
-      <c r="E968" s="4"/>
-      <c r="F968" s="4"/>
       <c r="G968" s="5"/>
       <c r="H968" s="5"/>
     </row>
-    <row r="969" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A969" s="7"/>
-      <c r="B969" s="4"/>
-      <c r="C969" s="4"/>
-      <c r="D969" s="4"/>
-      <c r="E969" s="4"/>
-      <c r="F969" s="4"/>
       <c r="G969" s="5"/>
       <c r="H969" s="5"/>
     </row>
-    <row r="970" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A970" s="7"/>
-      <c r="B970" s="4"/>
-      <c r="C970" s="4"/>
-      <c r="D970" s="4"/>
-      <c r="E970" s="4"/>
-      <c r="F970" s="4"/>
       <c r="G970" s="5"/>
       <c r="H970" s="5"/>
     </row>
     <row r="971" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A971" s="7"/>
-      <c r="B971" s="4"/>
-      <c r="C971" s="4"/>
-      <c r="D971" s="4"/>
-      <c r="E971" s="4"/>
-      <c r="F971" s="4"/>
-      <c r="G971" s="5"/>
-      <c r="H971" s="5"/>
+      <c r="B971" s="6"/>
+      <c r="C971" s="6"/>
+      <c r="D971" s="6"/>
+      <c r="E971" s="6"/>
+      <c r="F971" s="6"/>
+      <c r="G971" s="8"/>
+      <c r="H971" s="8"/>
     </row>
     <row r="972" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A972" s="7"/>
-      <c r="B972" s="4"/>
-      <c r="C972" s="4"/>
-      <c r="D972" s="4"/>
-      <c r="E972" s="4"/>
-      <c r="F972" s="4"/>
-      <c r="G972" s="5"/>
-      <c r="H972" s="5"/>
+      <c r="B972" s="6"/>
+      <c r="C972" s="6"/>
+      <c r="D972" s="6"/>
+      <c r="E972" s="6"/>
+      <c r="F972" s="6"/>
+      <c r="G972" s="8"/>
+      <c r="H972" s="8"/>
     </row>
     <row r="973" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A973" s="7"/>
-      <c r="B973" s="4"/>
-      <c r="C973" s="4"/>
-      <c r="D973" s="4"/>
-      <c r="E973" s="4"/>
-      <c r="F973" s="4"/>
-      <c r="G973" s="5"/>
-      <c r="H973" s="5"/>
-    </row>
-    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B973" s="6"/>
+      <c r="C973" s="6"/>
+      <c r="D973" s="6"/>
+      <c r="E973" s="6"/>
+      <c r="F973" s="6"/>
+      <c r="G973" s="8"/>
+      <c r="H973" s="8"/>
+    </row>
+    <row r="974" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A974" s="7"/>
-      <c r="G974" s="5"/>
-      <c r="H974" s="5"/>
-    </row>
-    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B974" s="6"/>
+      <c r="C974" s="6"/>
+      <c r="D974" s="6"/>
+      <c r="E974" s="6"/>
+      <c r="F974" s="6"/>
+      <c r="G974" s="8"/>
+      <c r="H974" s="8"/>
+    </row>
+    <row r="975" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A975" s="7"/>
-      <c r="G975" s="5"/>
-      <c r="H975" s="5"/>
-    </row>
-    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B975" s="6"/>
+      <c r="C975" s="6"/>
+      <c r="D975" s="6"/>
+      <c r="E975" s="6"/>
+      <c r="F975" s="6"/>
+      <c r="G975" s="8"/>
+      <c r="H975" s="8"/>
+    </row>
+    <row r="976" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A976" s="7"/>
-      <c r="G976" s="5"/>
-      <c r="H976" s="5"/>
-    </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B976" s="6"/>
+      <c r="C976" s="6"/>
+      <c r="D976" s="6"/>
+      <c r="E976" s="6"/>
+      <c r="F976" s="6"/>
+      <c r="G976" s="8"/>
+      <c r="H976" s="8"/>
+    </row>
+    <row r="977" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A977" s="7"/>
-      <c r="G977" s="5"/>
-      <c r="H977" s="5"/>
-    </row>
-    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B977" s="6"/>
+      <c r="C977" s="6"/>
+      <c r="D977" s="6"/>
+      <c r="E977" s="6"/>
+      <c r="F977" s="6"/>
+      <c r="G977" s="8"/>
+      <c r="H977" s="8"/>
+    </row>
+    <row r="978" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A978" s="7"/>
-      <c r="G978" s="5"/>
-      <c r="H978" s="5"/>
-    </row>
-    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B978" s="6"/>
+      <c r="C978" s="6"/>
+      <c r="D978" s="6"/>
+      <c r="E978" s="6"/>
+      <c r="F978" s="6"/>
+      <c r="G978" s="8"/>
+      <c r="H978" s="8"/>
+    </row>
+    <row r="979" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A979" s="7"/>
-      <c r="G979" s="5"/>
-      <c r="H979" s="5"/>
-    </row>
-    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B979" s="6"/>
+      <c r="C979" s="6"/>
+      <c r="D979" s="6"/>
+      <c r="E979" s="6"/>
+      <c r="F979" s="6"/>
+      <c r="G979" s="8"/>
+      <c r="H979" s="8"/>
+    </row>
+    <row r="980" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A980" s="7"/>
-      <c r="G980" s="5"/>
-      <c r="H980" s="5"/>
-    </row>
-    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B980" s="6"/>
+      <c r="C980" s="6"/>
+      <c r="D980" s="6"/>
+      <c r="E980" s="6"/>
+      <c r="F980" s="6"/>
+      <c r="G980" s="8"/>
+      <c r="H980" s="8"/>
+    </row>
+    <row r="981" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A981" s="7"/>
-      <c r="G981" s="5"/>
-      <c r="H981" s="5"/>
-    </row>
-    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B981" s="6"/>
+      <c r="C981" s="6"/>
+      <c r="D981" s="6"/>
+      <c r="E981" s="6"/>
+      <c r="F981" s="6"/>
+      <c r="G981" s="8"/>
+      <c r="H981" s="8"/>
+    </row>
+    <row r="982" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A982" s="7"/>
-      <c r="G982" s="5"/>
-      <c r="H982" s="5"/>
+      <c r="B982" s="6"/>
+      <c r="C982" s="6"/>
+      <c r="D982" s="6"/>
+      <c r="E982" s="6"/>
+      <c r="F982" s="6"/>
+      <c r="G982" s="8"/>
+      <c r="H982" s="8"/>
     </row>
     <row r="983" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A983" s="7"/>
@@ -15716,7 +15713,7 @@
       <c r="G1509" s="8"/>
       <c r="H1509" s="8"/>
     </row>
-    <row r="1510" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1510" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1510" s="7"/>
       <c r="B1510" s="6"/>
       <c r="C1510" s="6"/>
@@ -15726,7 +15723,7 @@
       <c r="G1510" s="8"/>
       <c r="H1510" s="8"/>
     </row>
-    <row r="1511" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1511" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1511" s="7"/>
       <c r="B1511" s="6"/>
       <c r="C1511" s="6"/>
@@ -15736,7 +15733,7 @@
       <c r="G1511" s="8"/>
       <c r="H1511" s="8"/>
     </row>
-    <row r="1512" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1512" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1512" s="7"/>
       <c r="B1512" s="6"/>
       <c r="C1512" s="6"/>
@@ -15746,7 +15743,7 @@
       <c r="G1512" s="8"/>
       <c r="H1512" s="8"/>
     </row>
-    <row r="1513" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1513" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1513" s="7"/>
       <c r="B1513" s="6"/>
       <c r="C1513" s="6"/>
@@ -15756,7 +15753,7 @@
       <c r="G1513" s="8"/>
       <c r="H1513" s="8"/>
     </row>
-    <row r="1514" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1514" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1514" s="7"/>
       <c r="B1514" s="6"/>
       <c r="C1514" s="6"/>
@@ -15766,7 +15763,7 @@
       <c r="G1514" s="8"/>
       <c r="H1514" s="8"/>
     </row>
-    <row r="1515" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1515" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1515" s="7"/>
       <c r="B1515" s="6"/>
       <c r="C1515" s="6"/>
@@ -15776,7 +15773,7 @@
       <c r="G1515" s="8"/>
       <c r="H1515" s="8"/>
     </row>
-    <row r="1516" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1516" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1516" s="7"/>
       <c r="B1516" s="6"/>
       <c r="C1516" s="6"/>
@@ -15786,7 +15783,7 @@
       <c r="G1516" s="8"/>
       <c r="H1516" s="8"/>
     </row>
-    <row r="1517" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1517" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1517" s="7"/>
       <c r="B1517" s="6"/>
       <c r="C1517" s="6"/>
@@ -15796,7 +15793,7 @@
       <c r="G1517" s="8"/>
       <c r="H1517" s="8"/>
     </row>
-    <row r="1518" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1518" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1518" s="7"/>
       <c r="B1518" s="6"/>
       <c r="C1518" s="6"/>
@@ -15836,7 +15833,7 @@
       <c r="G1521" s="8"/>
       <c r="H1521" s="8"/>
     </row>
-    <row r="1522" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1522" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1522" s="7"/>
       <c r="B1522" s="6"/>
       <c r="C1522" s="6"/>
@@ -15846,7 +15843,7 @@
       <c r="G1522" s="8"/>
       <c r="H1522" s="8"/>
     </row>
-    <row r="1523" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1523" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1523" s="7"/>
       <c r="B1523" s="6"/>
       <c r="C1523" s="6"/>
@@ -15856,7 +15853,7 @@
       <c r="G1523" s="8"/>
       <c r="H1523" s="8"/>
     </row>
-    <row r="1524" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1524" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1524" s="7"/>
       <c r="B1524" s="6"/>
       <c r="C1524" s="6"/>
@@ -15866,7 +15863,7 @@
       <c r="G1524" s="8"/>
       <c r="H1524" s="8"/>
     </row>
-    <row r="1525" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1525" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1525" s="7"/>
       <c r="B1525" s="6"/>
       <c r="C1525" s="6"/>
@@ -15876,7 +15873,7 @@
       <c r="G1525" s="8"/>
       <c r="H1525" s="8"/>
     </row>
-    <row r="1526" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1526" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1526" s="7"/>
       <c r="B1526" s="6"/>
       <c r="C1526" s="6"/>
@@ -15886,7 +15883,7 @@
       <c r="G1526" s="8"/>
       <c r="H1526" s="8"/>
     </row>
-    <row r="1527" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1527" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1527" s="7"/>
       <c r="B1527" s="6"/>
       <c r="C1527" s="6"/>
@@ -15896,7 +15893,7 @@
       <c r="G1527" s="8"/>
       <c r="H1527" s="8"/>
     </row>
-    <row r="1528" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1528" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1528" s="7"/>
       <c r="B1528" s="6"/>
       <c r="C1528" s="6"/>
@@ -15906,7 +15903,7 @@
       <c r="G1528" s="8"/>
       <c r="H1528" s="8"/>
     </row>
-    <row r="1529" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1529" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1529" s="7"/>
       <c r="B1529" s="6"/>
       <c r="C1529" s="6"/>
@@ -15916,7 +15913,7 @@
       <c r="G1529" s="8"/>
       <c r="H1529" s="8"/>
     </row>
-    <row r="1530" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1530" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1530" s="7"/>
       <c r="B1530" s="6"/>
       <c r="C1530" s="6"/>
@@ -16347,124 +16344,124 @@
       <c r="H1572" s="8"/>
     </row>
     <row r="1573" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1573" s="7"/>
-      <c r="B1573" s="6"/>
-      <c r="C1573" s="6"/>
-      <c r="D1573" s="6"/>
-      <c r="E1573" s="6"/>
-      <c r="F1573" s="6"/>
-      <c r="G1573" s="8"/>
-      <c r="H1573" s="8"/>
+      <c r="A1573" s="3"/>
+      <c r="B1573" s="4"/>
+      <c r="C1573" s="4"/>
+      <c r="D1573" s="4"/>
+      <c r="E1573" s="4"/>
+      <c r="F1573" s="4"/>
+      <c r="G1573" s="5"/>
+      <c r="H1573" s="5"/>
     </row>
     <row r="1574" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1574" s="7"/>
-      <c r="B1574" s="6"/>
-      <c r="C1574" s="6"/>
-      <c r="D1574" s="6"/>
-      <c r="E1574" s="6"/>
-      <c r="F1574" s="6"/>
-      <c r="G1574" s="8"/>
-      <c r="H1574" s="8"/>
+      <c r="A1574" s="3"/>
+      <c r="B1574" s="4"/>
+      <c r="C1574" s="4"/>
+      <c r="D1574" s="4"/>
+      <c r="E1574" s="4"/>
+      <c r="F1574" s="4"/>
+      <c r="G1574" s="5"/>
+      <c r="H1574" s="5"/>
     </row>
     <row r="1575" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1575" s="7"/>
-      <c r="B1575" s="6"/>
-      <c r="C1575" s="6"/>
-      <c r="D1575" s="6"/>
-      <c r="E1575" s="6"/>
-      <c r="F1575" s="6"/>
-      <c r="G1575" s="8"/>
-      <c r="H1575" s="8"/>
+      <c r="A1575" s="3"/>
+      <c r="B1575" s="4"/>
+      <c r="C1575" s="4"/>
+      <c r="D1575" s="4"/>
+      <c r="E1575" s="4"/>
+      <c r="F1575" s="4"/>
+      <c r="G1575" s="5"/>
+      <c r="H1575" s="5"/>
     </row>
     <row r="1576" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1576" s="7"/>
-      <c r="B1576" s="6"/>
-      <c r="C1576" s="6"/>
-      <c r="D1576" s="6"/>
-      <c r="E1576" s="6"/>
-      <c r="F1576" s="6"/>
-      <c r="G1576" s="8"/>
-      <c r="H1576" s="8"/>
+      <c r="A1576" s="3"/>
+      <c r="B1576" s="4"/>
+      <c r="C1576" s="4"/>
+      <c r="D1576" s="4"/>
+      <c r="E1576" s="4"/>
+      <c r="F1576" s="4"/>
+      <c r="G1576" s="5"/>
+      <c r="H1576" s="5"/>
     </row>
     <row r="1577" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1577" s="7"/>
-      <c r="B1577" s="6"/>
-      <c r="C1577" s="6"/>
-      <c r="D1577" s="6"/>
-      <c r="E1577" s="6"/>
-      <c r="F1577" s="6"/>
-      <c r="G1577" s="8"/>
-      <c r="H1577" s="8"/>
+      <c r="A1577" s="3"/>
+      <c r="B1577" s="4"/>
+      <c r="C1577" s="4"/>
+      <c r="D1577" s="4"/>
+      <c r="E1577" s="4"/>
+      <c r="F1577" s="4"/>
+      <c r="G1577" s="5"/>
+      <c r="H1577" s="5"/>
     </row>
     <row r="1578" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1578" s="7"/>
-      <c r="B1578" s="6"/>
-      <c r="C1578" s="6"/>
-      <c r="D1578" s="6"/>
-      <c r="E1578" s="6"/>
-      <c r="F1578" s="6"/>
-      <c r="G1578" s="8"/>
-      <c r="H1578" s="8"/>
+      <c r="A1578" s="3"/>
+      <c r="B1578" s="4"/>
+      <c r="C1578" s="4"/>
+      <c r="D1578" s="4"/>
+      <c r="E1578" s="4"/>
+      <c r="F1578" s="4"/>
+      <c r="G1578" s="5"/>
+      <c r="H1578" s="5"/>
     </row>
     <row r="1579" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1579" s="7"/>
-      <c r="B1579" s="6"/>
-      <c r="C1579" s="6"/>
-      <c r="D1579" s="6"/>
-      <c r="E1579" s="6"/>
-      <c r="F1579" s="6"/>
-      <c r="G1579" s="8"/>
-      <c r="H1579" s="8"/>
+      <c r="A1579" s="3"/>
+      <c r="B1579" s="4"/>
+      <c r="C1579" s="4"/>
+      <c r="D1579" s="4"/>
+      <c r="E1579" s="4"/>
+      <c r="F1579" s="4"/>
+      <c r="G1579" s="5"/>
+      <c r="H1579" s="5"/>
     </row>
     <row r="1580" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1580" s="7"/>
-      <c r="B1580" s="6"/>
-      <c r="C1580" s="6"/>
-      <c r="D1580" s="6"/>
-      <c r="E1580" s="6"/>
-      <c r="F1580" s="6"/>
-      <c r="G1580" s="8"/>
-      <c r="H1580" s="8"/>
+      <c r="A1580" s="3"/>
+      <c r="B1580" s="4"/>
+      <c r="C1580" s="4"/>
+      <c r="D1580" s="4"/>
+      <c r="E1580" s="4"/>
+      <c r="F1580" s="4"/>
+      <c r="G1580" s="5"/>
+      <c r="H1580" s="5"/>
     </row>
     <row r="1581" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1581" s="7"/>
-      <c r="B1581" s="6"/>
-      <c r="C1581" s="6"/>
-      <c r="D1581" s="6"/>
-      <c r="E1581" s="6"/>
-      <c r="F1581" s="6"/>
-      <c r="G1581" s="8"/>
-      <c r="H1581" s="8"/>
+      <c r="A1581" s="3"/>
+      <c r="B1581" s="4"/>
+      <c r="C1581" s="4"/>
+      <c r="D1581" s="4"/>
+      <c r="E1581" s="4"/>
+      <c r="F1581" s="4"/>
+      <c r="G1581" s="5"/>
+      <c r="H1581" s="5"/>
     </row>
     <row r="1582" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1582" s="7"/>
-      <c r="B1582" s="6"/>
-      <c r="C1582" s="6"/>
-      <c r="D1582" s="6"/>
-      <c r="E1582" s="6"/>
-      <c r="F1582" s="6"/>
-      <c r="G1582" s="8"/>
-      <c r="H1582" s="8"/>
+      <c r="A1582" s="3"/>
+      <c r="B1582" s="4"/>
+      <c r="C1582" s="4"/>
+      <c r="D1582" s="4"/>
+      <c r="E1582" s="4"/>
+      <c r="F1582" s="4"/>
+      <c r="G1582" s="5"/>
+      <c r="H1582" s="5"/>
     </row>
     <row r="1583" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1583" s="7"/>
-      <c r="B1583" s="6"/>
-      <c r="C1583" s="6"/>
-      <c r="D1583" s="6"/>
-      <c r="E1583" s="6"/>
-      <c r="F1583" s="6"/>
-      <c r="G1583" s="8"/>
-      <c r="H1583" s="8"/>
+      <c r="A1583" s="3"/>
+      <c r="B1583" s="4"/>
+      <c r="C1583" s="4"/>
+      <c r="D1583" s="4"/>
+      <c r="E1583" s="4"/>
+      <c r="F1583" s="4"/>
+      <c r="G1583" s="5"/>
+      <c r="H1583" s="5"/>
     </row>
     <row r="1584" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1584" s="7"/>
-      <c r="B1584" s="6"/>
-      <c r="C1584" s="6"/>
-      <c r="D1584" s="6"/>
-      <c r="E1584" s="6"/>
-      <c r="F1584" s="6"/>
-      <c r="G1584" s="8"/>
-      <c r="H1584" s="8"/>
+      <c r="A1584" s="3"/>
+      <c r="B1584" s="4"/>
+      <c r="C1584" s="4"/>
+      <c r="D1584" s="4"/>
+      <c r="E1584" s="4"/>
+      <c r="F1584" s="4"/>
+      <c r="G1584" s="5"/>
+      <c r="H1584" s="5"/>
     </row>
     <row r="1585" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1585" s="3"/>
@@ -18361,7 +18358,7 @@
       <c r="B1774" s="4"/>
       <c r="C1774" s="4"/>
       <c r="D1774" s="4"/>
-      <c r="E1774" s="4"/>
+      <c r="E1774" s="6"/>
       <c r="F1774" s="4"/>
       <c r="G1774" s="5"/>
       <c r="H1774" s="5"/>
@@ -18416,123 +18413,63 @@
       <c r="G1779" s="5"/>
       <c r="H1779" s="5"/>
     </row>
-    <row r="1780" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1780" s="3"/>
-      <c r="B1780" s="4"/>
-      <c r="C1780" s="4"/>
-      <c r="D1780" s="4"/>
-      <c r="E1780" s="4"/>
-      <c r="F1780" s="4"/>
       <c r="G1780" s="5"/>
       <c r="H1780" s="5"/>
     </row>
-    <row r="1781" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1781" s="3"/>
-      <c r="B1781" s="4"/>
-      <c r="C1781" s="4"/>
-      <c r="D1781" s="4"/>
-      <c r="E1781" s="4"/>
-      <c r="F1781" s="4"/>
       <c r="G1781" s="5"/>
       <c r="H1781" s="5"/>
     </row>
-    <row r="1782" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1782" s="3"/>
-      <c r="B1782" s="4"/>
-      <c r="C1782" s="4"/>
-      <c r="D1782" s="4"/>
-      <c r="E1782" s="4"/>
-      <c r="F1782" s="4"/>
       <c r="G1782" s="5"/>
       <c r="H1782" s="5"/>
     </row>
-    <row r="1783" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1783" s="3"/>
-      <c r="B1783" s="4"/>
-      <c r="C1783" s="4"/>
-      <c r="D1783" s="4"/>
-      <c r="E1783" s="4"/>
-      <c r="F1783" s="4"/>
       <c r="G1783" s="5"/>
       <c r="H1783" s="5"/>
     </row>
-    <row r="1784" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1784" s="3"/>
-      <c r="B1784" s="4"/>
-      <c r="C1784" s="4"/>
-      <c r="D1784" s="4"/>
-      <c r="E1784" s="4"/>
-      <c r="F1784" s="4"/>
       <c r="G1784" s="5"/>
       <c r="H1784" s="5"/>
     </row>
-    <row r="1785" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1785" s="3"/>
-      <c r="B1785" s="4"/>
-      <c r="C1785" s="4"/>
-      <c r="D1785" s="4"/>
-      <c r="E1785" s="4"/>
-      <c r="F1785" s="4"/>
       <c r="G1785" s="5"/>
       <c r="H1785" s="5"/>
     </row>
-    <row r="1786" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1786" s="3"/>
-      <c r="B1786" s="4"/>
-      <c r="C1786" s="4"/>
-      <c r="D1786" s="4"/>
-      <c r="E1786" s="6"/>
-      <c r="F1786" s="4"/>
       <c r="G1786" s="5"/>
       <c r="H1786" s="5"/>
     </row>
-    <row r="1787" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1787" s="3"/>
-      <c r="B1787" s="4"/>
-      <c r="C1787" s="4"/>
-      <c r="D1787" s="4"/>
-      <c r="E1787" s="4"/>
-      <c r="F1787" s="4"/>
       <c r="G1787" s="5"/>
       <c r="H1787" s="5"/>
     </row>
-    <row r="1788" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1788" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1788" s="3"/>
-      <c r="B1788" s="4"/>
-      <c r="C1788" s="4"/>
-      <c r="D1788" s="4"/>
-      <c r="E1788" s="4"/>
-      <c r="F1788" s="4"/>
       <c r="G1788" s="5"/>
       <c r="H1788" s="5"/>
     </row>
-    <row r="1789" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1789" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1789" s="3"/>
-      <c r="B1789" s="4"/>
-      <c r="C1789" s="4"/>
-      <c r="D1789" s="4"/>
-      <c r="E1789" s="4"/>
-      <c r="F1789" s="4"/>
       <c r="G1789" s="5"/>
       <c r="H1789" s="5"/>
     </row>
-    <row r="1790" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1790" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1790" s="3"/>
-      <c r="B1790" s="4"/>
-      <c r="C1790" s="4"/>
-      <c r="D1790" s="4"/>
-      <c r="E1790" s="4"/>
-      <c r="F1790" s="4"/>
       <c r="G1790" s="5"/>
       <c r="H1790" s="5"/>
     </row>
-    <row r="1791" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1791" s="3"/>
-      <c r="B1791" s="4"/>
-      <c r="C1791" s="4"/>
-      <c r="D1791" s="4"/>
-      <c r="E1791" s="4"/>
-      <c r="F1791" s="4"/>
       <c r="G1791" s="5"/>
       <c r="H1791" s="5"/>
     </row>
@@ -20846,69 +20783,9 @@
       <c r="G2253" s="5"/>
       <c r="H2253" s="5"/>
     </row>
-    <row r="2254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2254" s="3"/>
-      <c r="G2254" s="5"/>
-      <c r="H2254" s="5"/>
-    </row>
-    <row r="2255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2255" s="3"/>
-      <c r="G2255" s="5"/>
-      <c r="H2255" s="5"/>
-    </row>
-    <row r="2256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2256" s="3"/>
-      <c r="G2256" s="5"/>
-      <c r="H2256" s="5"/>
-    </row>
-    <row r="2257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2257" s="3"/>
-      <c r="G2257" s="5"/>
-      <c r="H2257" s="5"/>
-    </row>
-    <row r="2258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2258" s="3"/>
-      <c r="G2258" s="5"/>
-      <c r="H2258" s="5"/>
-    </row>
-    <row r="2259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2259" s="3"/>
-      <c r="G2259" s="5"/>
-      <c r="H2259" s="5"/>
-    </row>
-    <row r="2260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2260" s="3"/>
-      <c r="G2260" s="5"/>
-      <c r="H2260" s="5"/>
-    </row>
-    <row r="2261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2261" s="3"/>
-      <c r="G2261" s="5"/>
-      <c r="H2261" s="5"/>
-    </row>
-    <row r="2262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2262" s="3"/>
-      <c r="G2262" s="5"/>
-      <c r="H2262" s="5"/>
-    </row>
-    <row r="2263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2263" s="3"/>
-      <c r="G2263" s="5"/>
-      <c r="H2263" s="5"/>
-    </row>
-    <row r="2264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2264" s="3"/>
-      <c r="G2264" s="5"/>
-      <c r="H2264" s="5"/>
-    </row>
-    <row r="2265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2265" s="3"/>
-      <c r="G2265" s="5"/>
-      <c r="H2265" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H447">
-    <sortCondition descending="1" ref="A1:A447"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H435">
+    <sortCondition descending="1" ref="A1:A435"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_samples/next-week.xlsx
+++ b/data_samples/next-week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D60B7B-C0E5-41AE-9054-A56A04632232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A340FE6-24F6-4EE3-B7A1-618B467C644D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1590" yWindow="2640" windowWidth="2390" windowHeight="10430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -109,13 +109,16 @@
     <t>Home_Team</t>
   </si>
   <si>
-    <t>Giants Stadium</t>
-  </si>
-  <si>
     <t>Metricon Stadium</t>
   </si>
   <si>
-    <t>Adelaide Arena</t>
+    <t>SCG</t>
+  </si>
+  <si>
+    <t>Adelaide Oval</t>
+  </si>
+  <si>
+    <t>University of Tasmania Stadium</t>
   </si>
 </sst>
 </file>
@@ -547,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2253"/>
+  <dimension ref="A1:H2236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,186 +596,189 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44325</v>
+        <v>44332</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="14">
-        <v>2.5299999999999998</v>
+        <v>1.03</v>
       </c>
       <c r="H2" s="14">
-        <v>1.52</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <v>44325</v>
+        <v>44332</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1.17</v>
+      </c>
+      <c r="H3" s="14">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>44332</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="14">
-        <v>1.34</v>
-      </c>
-      <c r="H3" s="14">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>44325</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
       <c r="G4" s="14">
-        <v>3.05</v>
+        <v>1.35</v>
       </c>
       <c r="H4" s="14">
-        <v>1.38</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>44324</v>
+        <v>44331</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="14">
-        <v>1.1200000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="H5" s="14">
-        <v>4.45</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>44324</v>
+        <v>44331</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1.26</v>
+      </c>
+      <c r="H6" s="14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>44331</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>44331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>44331</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1.22</v>
-      </c>
-      <c r="H6" s="14">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>44324</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="H7" s="14">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>44324</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>44324</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="G9" s="14">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="H9" s="14">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G10" s="14">
-        <v>1.62</v>
+        <v>2.88</v>
       </c>
       <c r="H10" s="14">
-        <v>2.31</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
@@ -5922,7 +5928,7 @@
       <c r="A526" s="7"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
-      <c r="D526" s="1"/>
+      <c r="D526" s="4"/>
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
       <c r="G526" s="5"/>
@@ -5932,7 +5938,7 @@
       <c r="A527" s="7"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
-      <c r="D527" s="1"/>
+      <c r="D527" s="4"/>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
       <c r="G527" s="5"/>
@@ -5942,7 +5948,7 @@
       <c r="A528" s="7"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
-      <c r="D528" s="1"/>
+      <c r="D528" s="4"/>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
       <c r="G528" s="5"/>
@@ -5952,7 +5958,7 @@
       <c r="A529" s="7"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
-      <c r="D529" s="1"/>
+      <c r="D529" s="4"/>
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
       <c r="G529" s="5"/>
@@ -5962,7 +5968,7 @@
       <c r="A530" s="7"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
-      <c r="D530" s="1"/>
+      <c r="D530" s="4"/>
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
       <c r="G530" s="5"/>
@@ -5972,7 +5978,7 @@
       <c r="A531" s="7"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
-      <c r="D531" s="1"/>
+      <c r="D531" s="4"/>
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
       <c r="G531" s="5"/>
@@ -5982,7 +5988,7 @@
       <c r="A532" s="7"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
-      <c r="D532" s="1"/>
+      <c r="D532" s="4"/>
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
       <c r="G532" s="5"/>
@@ -5992,7 +5998,7 @@
       <c r="A533" s="7"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
-      <c r="D533" s="1"/>
+      <c r="D533" s="4"/>
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
       <c r="G533" s="5"/>
@@ -6002,7 +6008,7 @@
       <c r="A534" s="7"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
-      <c r="D534" s="1"/>
+      <c r="D534" s="4"/>
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
       <c r="G534" s="5"/>
@@ -6012,7 +6018,7 @@
       <c r="A535" s="7"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
-      <c r="D535" s="1"/>
+      <c r="D535" s="4"/>
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
       <c r="G535" s="5"/>
@@ -6022,7 +6028,7 @@
       <c r="A536" s="7"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
-      <c r="D536" s="1"/>
+      <c r="D536" s="4"/>
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
       <c r="G536" s="5"/>
@@ -6032,7 +6038,7 @@
       <c r="A537" s="7"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
-      <c r="D537" s="1"/>
+      <c r="D537" s="4"/>
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
       <c r="G537" s="5"/>
@@ -6042,7 +6048,7 @@
       <c r="A538" s="7"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
-      <c r="D538" s="1"/>
+      <c r="D538" s="4"/>
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
       <c r="G538" s="5"/>
@@ -6052,7 +6058,7 @@
       <c r="A539" s="7"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
-      <c r="D539" s="1"/>
+      <c r="D539" s="4"/>
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
       <c r="G539" s="5"/>
@@ -6062,7 +6068,7 @@
       <c r="A540" s="7"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
-      <c r="D540" s="1"/>
+      <c r="D540" s="4"/>
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
       <c r="G540" s="5"/>
@@ -6072,7 +6078,7 @@
       <c r="A541" s="7"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
-      <c r="D541" s="1"/>
+      <c r="D541" s="4"/>
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
       <c r="G541" s="5"/>
@@ -6082,7 +6088,7 @@
       <c r="A542" s="7"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
-      <c r="D542" s="1"/>
+      <c r="D542" s="4"/>
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
       <c r="G542" s="5"/>
@@ -10108,220 +10114,220 @@
       <c r="G944" s="5"/>
       <c r="H944" s="5"/>
     </row>
-    <row r="945" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A945" s="7"/>
-      <c r="B945" s="4"/>
-      <c r="C945" s="4"/>
-      <c r="D945" s="4"/>
-      <c r="E945" s="4"/>
-      <c r="F945" s="4"/>
       <c r="G945" s="5"/>
       <c r="H945" s="5"/>
     </row>
-    <row r="946" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A946" s="7"/>
-      <c r="B946" s="4"/>
-      <c r="C946" s="4"/>
-      <c r="D946" s="4"/>
-      <c r="E946" s="4"/>
-      <c r="F946" s="4"/>
       <c r="G946" s="5"/>
       <c r="H946" s="5"/>
     </row>
-    <row r="947" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A947" s="7"/>
-      <c r="B947" s="4"/>
-      <c r="C947" s="4"/>
-      <c r="D947" s="4"/>
-      <c r="E947" s="4"/>
-      <c r="F947" s="4"/>
       <c r="G947" s="5"/>
       <c r="H947" s="5"/>
     </row>
-    <row r="948" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A948" s="7"/>
-      <c r="B948" s="4"/>
-      <c r="C948" s="4"/>
-      <c r="D948" s="4"/>
-      <c r="E948" s="4"/>
-      <c r="F948" s="4"/>
       <c r="G948" s="5"/>
       <c r="H948" s="5"/>
     </row>
-    <row r="949" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A949" s="7"/>
-      <c r="B949" s="4"/>
-      <c r="C949" s="4"/>
-      <c r="D949" s="4"/>
-      <c r="E949" s="4"/>
-      <c r="F949" s="4"/>
       <c r="G949" s="5"/>
       <c r="H949" s="5"/>
     </row>
-    <row r="950" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A950" s="7"/>
-      <c r="B950" s="4"/>
-      <c r="C950" s="4"/>
-      <c r="D950" s="4"/>
-      <c r="E950" s="4"/>
-      <c r="F950" s="4"/>
       <c r="G950" s="5"/>
       <c r="H950" s="5"/>
     </row>
-    <row r="951" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A951" s="7"/>
-      <c r="B951" s="4"/>
-      <c r="C951" s="4"/>
-      <c r="D951" s="4"/>
-      <c r="E951" s="4"/>
-      <c r="F951" s="4"/>
       <c r="G951" s="5"/>
       <c r="H951" s="5"/>
     </row>
-    <row r="952" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A952" s="7"/>
-      <c r="B952" s="4"/>
-      <c r="C952" s="4"/>
-      <c r="D952" s="4"/>
-      <c r="E952" s="4"/>
-      <c r="F952" s="4"/>
       <c r="G952" s="5"/>
       <c r="H952" s="5"/>
     </row>
-    <row r="953" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A953" s="7"/>
-      <c r="B953" s="4"/>
-      <c r="C953" s="4"/>
-      <c r="D953" s="4"/>
-      <c r="E953" s="4"/>
-      <c r="F953" s="4"/>
       <c r="G953" s="5"/>
       <c r="H953" s="5"/>
     </row>
     <row r="954" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A954" s="7"/>
-      <c r="B954" s="4"/>
-      <c r="C954" s="4"/>
-      <c r="D954" s="4"/>
-      <c r="E954" s="4"/>
-      <c r="F954" s="4"/>
-      <c r="G954" s="5"/>
-      <c r="H954" s="5"/>
+      <c r="B954" s="6"/>
+      <c r="C954" s="6"/>
+      <c r="D954" s="6"/>
+      <c r="E954" s="6"/>
+      <c r="F954" s="6"/>
+      <c r="G954" s="8"/>
+      <c r="H954" s="8"/>
     </row>
     <row r="955" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A955" s="7"/>
-      <c r="B955" s="4"/>
-      <c r="C955" s="4"/>
-      <c r="D955" s="4"/>
-      <c r="E955" s="4"/>
-      <c r="F955" s="4"/>
-      <c r="G955" s="5"/>
-      <c r="H955" s="5"/>
+      <c r="B955" s="6"/>
+      <c r="C955" s="6"/>
+      <c r="D955" s="6"/>
+      <c r="E955" s="6"/>
+      <c r="F955" s="6"/>
+      <c r="G955" s="8"/>
+      <c r="H955" s="8"/>
     </row>
     <row r="956" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A956" s="7"/>
-      <c r="B956" s="4"/>
-      <c r="C956" s="4"/>
-      <c r="D956" s="4"/>
-      <c r="E956" s="4"/>
-      <c r="F956" s="4"/>
-      <c r="G956" s="5"/>
-      <c r="H956" s="5"/>
+      <c r="B956" s="6"/>
+      <c r="C956" s="6"/>
+      <c r="D956" s="6"/>
+      <c r="E956" s="6"/>
+      <c r="F956" s="6"/>
+      <c r="G956" s="8"/>
+      <c r="H956" s="8"/>
     </row>
     <row r="957" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A957" s="7"/>
-      <c r="B957" s="4"/>
-      <c r="C957" s="4"/>
-      <c r="D957" s="4"/>
-      <c r="E957" s="4"/>
-      <c r="F957" s="4"/>
-      <c r="G957" s="5"/>
-      <c r="H957" s="5"/>
+      <c r="B957" s="6"/>
+      <c r="C957" s="6"/>
+      <c r="D957" s="6"/>
+      <c r="E957" s="6"/>
+      <c r="F957" s="6"/>
+      <c r="G957" s="8"/>
+      <c r="H957" s="8"/>
     </row>
     <row r="958" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A958" s="7"/>
-      <c r="B958" s="4"/>
-      <c r="C958" s="4"/>
-      <c r="D958" s="4"/>
-      <c r="E958" s="4"/>
-      <c r="F958" s="4"/>
-      <c r="G958" s="5"/>
-      <c r="H958" s="5"/>
+      <c r="B958" s="6"/>
+      <c r="C958" s="6"/>
+      <c r="D958" s="6"/>
+      <c r="E958" s="6"/>
+      <c r="F958" s="6"/>
+      <c r="G958" s="8"/>
+      <c r="H958" s="8"/>
     </row>
     <row r="959" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A959" s="7"/>
-      <c r="B959" s="4"/>
-      <c r="C959" s="4"/>
-      <c r="D959" s="4"/>
-      <c r="E959" s="4"/>
-      <c r="F959" s="4"/>
-      <c r="G959" s="5"/>
-      <c r="H959" s="5"/>
+      <c r="B959" s="6"/>
+      <c r="C959" s="6"/>
+      <c r="D959" s="6"/>
+      <c r="E959" s="6"/>
+      <c r="F959" s="6"/>
+      <c r="G959" s="8"/>
+      <c r="H959" s="8"/>
     </row>
     <row r="960" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A960" s="7"/>
-      <c r="B960" s="4"/>
-      <c r="C960" s="4"/>
-      <c r="D960" s="4"/>
-      <c r="E960" s="4"/>
-      <c r="F960" s="4"/>
-      <c r="G960" s="5"/>
-      <c r="H960" s="5"/>
+      <c r="B960" s="6"/>
+      <c r="C960" s="6"/>
+      <c r="D960" s="6"/>
+      <c r="E960" s="6"/>
+      <c r="F960" s="6"/>
+      <c r="G960" s="8"/>
+      <c r="H960" s="8"/>
     </row>
     <row r="961" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A961" s="7"/>
-      <c r="B961" s="4"/>
-      <c r="C961" s="4"/>
-      <c r="D961" s="4"/>
-      <c r="E961" s="4"/>
-      <c r="F961" s="4"/>
-      <c r="G961" s="5"/>
-      <c r="H961" s="5"/>
-    </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B961" s="6"/>
+      <c r="C961" s="6"/>
+      <c r="D961" s="6"/>
+      <c r="E961" s="6"/>
+      <c r="F961" s="6"/>
+      <c r="G961" s="8"/>
+      <c r="H961" s="8"/>
+    </row>
+    <row r="962" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A962" s="7"/>
-      <c r="G962" s="5"/>
-      <c r="H962" s="5"/>
-    </row>
-    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B962" s="6"/>
+      <c r="C962" s="6"/>
+      <c r="D962" s="6"/>
+      <c r="E962" s="6"/>
+      <c r="F962" s="6"/>
+      <c r="G962" s="8"/>
+      <c r="H962" s="8"/>
+    </row>
+    <row r="963" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A963" s="7"/>
-      <c r="G963" s="5"/>
-      <c r="H963" s="5"/>
-    </row>
-    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B963" s="6"/>
+      <c r="C963" s="6"/>
+      <c r="D963" s="6"/>
+      <c r="E963" s="6"/>
+      <c r="F963" s="6"/>
+      <c r="G963" s="8"/>
+      <c r="H963" s="8"/>
+    </row>
+    <row r="964" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A964" s="7"/>
-      <c r="G964" s="5"/>
-      <c r="H964" s="5"/>
-    </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B964" s="6"/>
+      <c r="C964" s="6"/>
+      <c r="D964" s="6"/>
+      <c r="E964" s="6"/>
+      <c r="F964" s="6"/>
+      <c r="G964" s="8"/>
+      <c r="H964" s="8"/>
+    </row>
+    <row r="965" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A965" s="7"/>
-      <c r="G965" s="5"/>
-      <c r="H965" s="5"/>
-    </row>
-    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B965" s="6"/>
+      <c r="C965" s="6"/>
+      <c r="D965" s="6"/>
+      <c r="E965" s="6"/>
+      <c r="F965" s="6"/>
+      <c r="G965" s="8"/>
+      <c r="H965" s="8"/>
+    </row>
+    <row r="966" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A966" s="7"/>
-      <c r="G966" s="5"/>
-      <c r="H966" s="5"/>
-    </row>
-    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B966" s="6"/>
+      <c r="C966" s="6"/>
+      <c r="D966" s="6"/>
+      <c r="E966" s="6"/>
+      <c r="F966" s="6"/>
+      <c r="G966" s="8"/>
+      <c r="H966" s="8"/>
+    </row>
+    <row r="967" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A967" s="7"/>
-      <c r="G967" s="5"/>
-      <c r="H967" s="5"/>
-    </row>
-    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B967" s="6"/>
+      <c r="C967" s="6"/>
+      <c r="D967" s="6"/>
+      <c r="E967" s="6"/>
+      <c r="F967" s="6"/>
+      <c r="G967" s="8"/>
+      <c r="H967" s="8"/>
+    </row>
+    <row r="968" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A968" s="7"/>
-      <c r="G968" s="5"/>
-      <c r="H968" s="5"/>
-    </row>
-    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B968" s="6"/>
+      <c r="C968" s="6"/>
+      <c r="D968" s="6"/>
+      <c r="E968" s="6"/>
+      <c r="F968" s="6"/>
+      <c r="G968" s="8"/>
+      <c r="H968" s="8"/>
+    </row>
+    <row r="969" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A969" s="7"/>
-      <c r="G969" s="5"/>
-      <c r="H969" s="5"/>
-    </row>
-    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B969" s="6"/>
+      <c r="C969" s="6"/>
+      <c r="D969" s="6"/>
+      <c r="E969" s="6"/>
+      <c r="F969" s="6"/>
+      <c r="G969" s="8"/>
+      <c r="H969" s="8"/>
+    </row>
+    <row r="970" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A970" s="7"/>
-      <c r="G970" s="5"/>
-      <c r="H970" s="5"/>
+      <c r="B970" s="6"/>
+      <c r="C970" s="6"/>
+      <c r="D970" s="6"/>
+      <c r="E970" s="6"/>
+      <c r="F970" s="6"/>
+      <c r="G970" s="8"/>
+      <c r="H970" s="8"/>
     </row>
     <row r="971" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A971" s="7"/>
@@ -15543,7 +15549,7 @@
       <c r="G1492" s="8"/>
       <c r="H1492" s="8"/>
     </row>
-    <row r="1493" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1493" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1493" s="7"/>
       <c r="B1493" s="6"/>
       <c r="C1493" s="6"/>
@@ -15553,7 +15559,7 @@
       <c r="G1493" s="8"/>
       <c r="H1493" s="8"/>
     </row>
-    <row r="1494" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1494" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1494" s="7"/>
       <c r="B1494" s="6"/>
       <c r="C1494" s="6"/>
@@ -15563,7 +15569,7 @@
       <c r="G1494" s="8"/>
       <c r="H1494" s="8"/>
     </row>
-    <row r="1495" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1495" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1495" s="7"/>
       <c r="B1495" s="6"/>
       <c r="C1495" s="6"/>
@@ -15573,7 +15579,7 @@
       <c r="G1495" s="8"/>
       <c r="H1495" s="8"/>
     </row>
-    <row r="1496" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1496" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1496" s="7"/>
       <c r="B1496" s="6"/>
       <c r="C1496" s="6"/>
@@ -15583,7 +15589,7 @@
       <c r="G1496" s="8"/>
       <c r="H1496" s="8"/>
     </row>
-    <row r="1497" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1497" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1497" s="7"/>
       <c r="B1497" s="6"/>
       <c r="C1497" s="6"/>
@@ -15593,7 +15599,7 @@
       <c r="G1497" s="8"/>
       <c r="H1497" s="8"/>
     </row>
-    <row r="1498" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1498" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1498" s="7"/>
       <c r="B1498" s="6"/>
       <c r="C1498" s="6"/>
@@ -15603,7 +15609,7 @@
       <c r="G1498" s="8"/>
       <c r="H1498" s="8"/>
     </row>
-    <row r="1499" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1499" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1499" s="7"/>
       <c r="B1499" s="6"/>
       <c r="C1499" s="6"/>
@@ -15613,7 +15619,7 @@
       <c r="G1499" s="8"/>
       <c r="H1499" s="8"/>
     </row>
-    <row r="1500" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1500" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1500" s="7"/>
       <c r="B1500" s="6"/>
       <c r="C1500" s="6"/>
@@ -15623,7 +15629,7 @@
       <c r="G1500" s="8"/>
       <c r="H1500" s="8"/>
     </row>
-    <row r="1501" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1501" s="7"/>
       <c r="B1501" s="6"/>
       <c r="C1501" s="6"/>
@@ -15713,7 +15719,7 @@
       <c r="G1509" s="8"/>
       <c r="H1509" s="8"/>
     </row>
-    <row r="1510" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1510" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1510" s="7"/>
       <c r="B1510" s="6"/>
       <c r="C1510" s="6"/>
@@ -15723,7 +15729,7 @@
       <c r="G1510" s="8"/>
       <c r="H1510" s="8"/>
     </row>
-    <row r="1511" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1511" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1511" s="7"/>
       <c r="B1511" s="6"/>
       <c r="C1511" s="6"/>
@@ -15733,7 +15739,7 @@
       <c r="G1511" s="8"/>
       <c r="H1511" s="8"/>
     </row>
-    <row r="1512" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1512" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1512" s="7"/>
       <c r="B1512" s="6"/>
       <c r="C1512" s="6"/>
@@ -15743,7 +15749,7 @@
       <c r="G1512" s="8"/>
       <c r="H1512" s="8"/>
     </row>
-    <row r="1513" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1513" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1513" s="7"/>
       <c r="B1513" s="6"/>
       <c r="C1513" s="6"/>
@@ -15753,7 +15759,7 @@
       <c r="G1513" s="8"/>
       <c r="H1513" s="8"/>
     </row>
-    <row r="1514" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1514" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1514" s="7"/>
       <c r="B1514" s="6"/>
       <c r="C1514" s="6"/>
@@ -15763,7 +15769,7 @@
       <c r="G1514" s="8"/>
       <c r="H1514" s="8"/>
     </row>
-    <row r="1515" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1515" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1515" s="7"/>
       <c r="B1515" s="6"/>
       <c r="C1515" s="6"/>
@@ -15773,7 +15779,7 @@
       <c r="G1515" s="8"/>
       <c r="H1515" s="8"/>
     </row>
-    <row r="1516" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1516" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1516" s="7"/>
       <c r="B1516" s="6"/>
       <c r="C1516" s="6"/>
@@ -15783,7 +15789,7 @@
       <c r="G1516" s="8"/>
       <c r="H1516" s="8"/>
     </row>
-    <row r="1517" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1517" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1517" s="7"/>
       <c r="B1517" s="6"/>
       <c r="C1517" s="6"/>
@@ -15793,7 +15799,7 @@
       <c r="G1517" s="8"/>
       <c r="H1517" s="8"/>
     </row>
-    <row r="1518" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1518" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1518" s="7"/>
       <c r="B1518" s="6"/>
       <c r="C1518" s="6"/>
@@ -16174,174 +16180,174 @@
       <c r="H1555" s="8"/>
     </row>
     <row r="1556" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1556" s="7"/>
-      <c r="B1556" s="6"/>
-      <c r="C1556" s="6"/>
-      <c r="D1556" s="6"/>
-      <c r="E1556" s="6"/>
-      <c r="F1556" s="6"/>
-      <c r="G1556" s="8"/>
-      <c r="H1556" s="8"/>
+      <c r="A1556" s="3"/>
+      <c r="B1556" s="4"/>
+      <c r="C1556" s="4"/>
+      <c r="D1556" s="4"/>
+      <c r="E1556" s="4"/>
+      <c r="F1556" s="4"/>
+      <c r="G1556" s="5"/>
+      <c r="H1556" s="5"/>
     </row>
     <row r="1557" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1557" s="7"/>
-      <c r="B1557" s="6"/>
-      <c r="C1557" s="6"/>
-      <c r="D1557" s="6"/>
-      <c r="E1557" s="6"/>
-      <c r="F1557" s="6"/>
-      <c r="G1557" s="8"/>
-      <c r="H1557" s="8"/>
+      <c r="A1557" s="3"/>
+      <c r="B1557" s="4"/>
+      <c r="C1557" s="4"/>
+      <c r="D1557" s="4"/>
+      <c r="E1557" s="4"/>
+      <c r="F1557" s="4"/>
+      <c r="G1557" s="5"/>
+      <c r="H1557" s="5"/>
     </row>
     <row r="1558" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1558" s="7"/>
-      <c r="B1558" s="6"/>
-      <c r="C1558" s="6"/>
-      <c r="D1558" s="6"/>
-      <c r="E1558" s="6"/>
-      <c r="F1558" s="6"/>
-      <c r="G1558" s="8"/>
-      <c r="H1558" s="8"/>
+      <c r="A1558" s="3"/>
+      <c r="B1558" s="4"/>
+      <c r="C1558" s="4"/>
+      <c r="D1558" s="4"/>
+      <c r="E1558" s="4"/>
+      <c r="F1558" s="4"/>
+      <c r="G1558" s="5"/>
+      <c r="H1558" s="5"/>
     </row>
     <row r="1559" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1559" s="7"/>
-      <c r="B1559" s="6"/>
-      <c r="C1559" s="6"/>
-      <c r="D1559" s="6"/>
-      <c r="E1559" s="6"/>
-      <c r="F1559" s="6"/>
-      <c r="G1559" s="8"/>
-      <c r="H1559" s="8"/>
+      <c r="A1559" s="3"/>
+      <c r="B1559" s="4"/>
+      <c r="C1559" s="4"/>
+      <c r="D1559" s="4"/>
+      <c r="E1559" s="4"/>
+      <c r="F1559" s="4"/>
+      <c r="G1559" s="5"/>
+      <c r="H1559" s="5"/>
     </row>
     <row r="1560" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1560" s="7"/>
-      <c r="B1560" s="6"/>
-      <c r="C1560" s="6"/>
-      <c r="D1560" s="6"/>
-      <c r="E1560" s="6"/>
-      <c r="F1560" s="6"/>
-      <c r="G1560" s="8"/>
-      <c r="H1560" s="8"/>
+      <c r="A1560" s="3"/>
+      <c r="B1560" s="4"/>
+      <c r="C1560" s="4"/>
+      <c r="D1560" s="4"/>
+      <c r="E1560" s="4"/>
+      <c r="F1560" s="4"/>
+      <c r="G1560" s="5"/>
+      <c r="H1560" s="5"/>
     </row>
     <row r="1561" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1561" s="7"/>
-      <c r="B1561" s="6"/>
-      <c r="C1561" s="6"/>
-      <c r="D1561" s="6"/>
-      <c r="E1561" s="6"/>
-      <c r="F1561" s="6"/>
-      <c r="G1561" s="8"/>
-      <c r="H1561" s="8"/>
+      <c r="A1561" s="3"/>
+      <c r="B1561" s="4"/>
+      <c r="C1561" s="4"/>
+      <c r="D1561" s="4"/>
+      <c r="E1561" s="4"/>
+      <c r="F1561" s="4"/>
+      <c r="G1561" s="5"/>
+      <c r="H1561" s="5"/>
     </row>
     <row r="1562" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1562" s="7"/>
-      <c r="B1562" s="6"/>
-      <c r="C1562" s="6"/>
-      <c r="D1562" s="6"/>
-      <c r="E1562" s="6"/>
-      <c r="F1562" s="6"/>
-      <c r="G1562" s="8"/>
-      <c r="H1562" s="8"/>
+      <c r="A1562" s="3"/>
+      <c r="B1562" s="4"/>
+      <c r="C1562" s="4"/>
+      <c r="D1562" s="4"/>
+      <c r="E1562" s="4"/>
+      <c r="F1562" s="4"/>
+      <c r="G1562" s="5"/>
+      <c r="H1562" s="5"/>
     </row>
     <row r="1563" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1563" s="7"/>
-      <c r="B1563" s="6"/>
-      <c r="C1563" s="6"/>
-      <c r="D1563" s="6"/>
-      <c r="E1563" s="6"/>
-      <c r="F1563" s="6"/>
-      <c r="G1563" s="8"/>
-      <c r="H1563" s="8"/>
+      <c r="A1563" s="3"/>
+      <c r="B1563" s="4"/>
+      <c r="C1563" s="4"/>
+      <c r="D1563" s="4"/>
+      <c r="E1563" s="4"/>
+      <c r="F1563" s="4"/>
+      <c r="G1563" s="5"/>
+      <c r="H1563" s="5"/>
     </row>
     <row r="1564" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1564" s="7"/>
-      <c r="B1564" s="6"/>
-      <c r="C1564" s="6"/>
-      <c r="D1564" s="6"/>
-      <c r="E1564" s="6"/>
-      <c r="F1564" s="6"/>
-      <c r="G1564" s="8"/>
-      <c r="H1564" s="8"/>
+      <c r="A1564" s="3"/>
+      <c r="B1564" s="4"/>
+      <c r="C1564" s="4"/>
+      <c r="D1564" s="4"/>
+      <c r="E1564" s="4"/>
+      <c r="F1564" s="4"/>
+      <c r="G1564" s="5"/>
+      <c r="H1564" s="5"/>
     </row>
     <row r="1565" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1565" s="7"/>
-      <c r="B1565" s="6"/>
-      <c r="C1565" s="6"/>
-      <c r="D1565" s="6"/>
-      <c r="E1565" s="6"/>
-      <c r="F1565" s="6"/>
-      <c r="G1565" s="8"/>
-      <c r="H1565" s="8"/>
+      <c r="A1565" s="3"/>
+      <c r="B1565" s="4"/>
+      <c r="C1565" s="4"/>
+      <c r="D1565" s="4"/>
+      <c r="E1565" s="4"/>
+      <c r="F1565" s="4"/>
+      <c r="G1565" s="5"/>
+      <c r="H1565" s="5"/>
     </row>
     <row r="1566" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1566" s="7"/>
-      <c r="B1566" s="6"/>
-      <c r="C1566" s="6"/>
-      <c r="D1566" s="6"/>
-      <c r="E1566" s="6"/>
-      <c r="F1566" s="6"/>
-      <c r="G1566" s="8"/>
-      <c r="H1566" s="8"/>
+      <c r="A1566" s="3"/>
+      <c r="B1566" s="4"/>
+      <c r="C1566" s="4"/>
+      <c r="D1566" s="4"/>
+      <c r="E1566" s="4"/>
+      <c r="F1566" s="4"/>
+      <c r="G1566" s="5"/>
+      <c r="H1566" s="5"/>
     </row>
     <row r="1567" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1567" s="7"/>
-      <c r="B1567" s="6"/>
-      <c r="C1567" s="6"/>
-      <c r="D1567" s="6"/>
-      <c r="E1567" s="6"/>
-      <c r="F1567" s="6"/>
-      <c r="G1567" s="8"/>
-      <c r="H1567" s="8"/>
+      <c r="A1567" s="3"/>
+      <c r="B1567" s="4"/>
+      <c r="C1567" s="4"/>
+      <c r="D1567" s="4"/>
+      <c r="E1567" s="4"/>
+      <c r="F1567" s="4"/>
+      <c r="G1567" s="5"/>
+      <c r="H1567" s="5"/>
     </row>
     <row r="1568" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1568" s="7"/>
-      <c r="B1568" s="6"/>
-      <c r="C1568" s="6"/>
-      <c r="D1568" s="6"/>
-      <c r="E1568" s="6"/>
-      <c r="F1568" s="6"/>
-      <c r="G1568" s="8"/>
-      <c r="H1568" s="8"/>
+      <c r="A1568" s="3"/>
+      <c r="B1568" s="4"/>
+      <c r="C1568" s="4"/>
+      <c r="D1568" s="4"/>
+      <c r="E1568" s="4"/>
+      <c r="F1568" s="4"/>
+      <c r="G1568" s="5"/>
+      <c r="H1568" s="5"/>
     </row>
     <row r="1569" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1569" s="7"/>
-      <c r="B1569" s="6"/>
-      <c r="C1569" s="6"/>
-      <c r="D1569" s="6"/>
-      <c r="E1569" s="6"/>
-      <c r="F1569" s="6"/>
-      <c r="G1569" s="8"/>
-      <c r="H1569" s="8"/>
+      <c r="A1569" s="3"/>
+      <c r="B1569" s="4"/>
+      <c r="C1569" s="4"/>
+      <c r="D1569" s="4"/>
+      <c r="E1569" s="4"/>
+      <c r="F1569" s="4"/>
+      <c r="G1569" s="5"/>
+      <c r="H1569" s="5"/>
     </row>
     <row r="1570" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1570" s="7"/>
-      <c r="B1570" s="6"/>
-      <c r="C1570" s="6"/>
-      <c r="D1570" s="6"/>
-      <c r="E1570" s="6"/>
-      <c r="F1570" s="6"/>
-      <c r="G1570" s="8"/>
-      <c r="H1570" s="8"/>
+      <c r="A1570" s="3"/>
+      <c r="B1570" s="4"/>
+      <c r="C1570" s="4"/>
+      <c r="D1570" s="4"/>
+      <c r="E1570" s="4"/>
+      <c r="F1570" s="4"/>
+      <c r="G1570" s="5"/>
+      <c r="H1570" s="5"/>
     </row>
     <row r="1571" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1571" s="7"/>
-      <c r="B1571" s="6"/>
-      <c r="C1571" s="6"/>
-      <c r="D1571" s="6"/>
-      <c r="E1571" s="6"/>
-      <c r="F1571" s="6"/>
-      <c r="G1571" s="8"/>
-      <c r="H1571" s="8"/>
+      <c r="A1571" s="3"/>
+      <c r="B1571" s="4"/>
+      <c r="C1571" s="4"/>
+      <c r="D1571" s="4"/>
+      <c r="E1571" s="4"/>
+      <c r="F1571" s="4"/>
+      <c r="G1571" s="5"/>
+      <c r="H1571" s="5"/>
     </row>
     <row r="1572" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1572" s="7"/>
-      <c r="B1572" s="6"/>
-      <c r="C1572" s="6"/>
-      <c r="D1572" s="6"/>
-      <c r="E1572" s="6"/>
-      <c r="F1572" s="6"/>
-      <c r="G1572" s="8"/>
-      <c r="H1572" s="8"/>
+      <c r="A1572" s="3"/>
+      <c r="B1572" s="4"/>
+      <c r="C1572" s="4"/>
+      <c r="D1572" s="4"/>
+      <c r="E1572" s="4"/>
+      <c r="F1572" s="4"/>
+      <c r="G1572" s="5"/>
+      <c r="H1572" s="5"/>
     </row>
     <row r="1573" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1573" s="3"/>
@@ -18188,7 +18194,7 @@
       <c r="B1757" s="4"/>
       <c r="C1757" s="4"/>
       <c r="D1757" s="4"/>
-      <c r="E1757" s="4"/>
+      <c r="E1757" s="6"/>
       <c r="F1757" s="4"/>
       <c r="G1757" s="5"/>
       <c r="H1757" s="5"/>
@@ -18243,173 +18249,88 @@
       <c r="G1762" s="5"/>
       <c r="H1762" s="5"/>
     </row>
-    <row r="1763" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1763" s="3"/>
-      <c r="B1763" s="4"/>
-      <c r="C1763" s="4"/>
-      <c r="D1763" s="4"/>
-      <c r="E1763" s="4"/>
-      <c r="F1763" s="4"/>
       <c r="G1763" s="5"/>
       <c r="H1763" s="5"/>
     </row>
-    <row r="1764" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1764" s="3"/>
-      <c r="B1764" s="4"/>
-      <c r="C1764" s="4"/>
-      <c r="D1764" s="4"/>
-      <c r="E1764" s="4"/>
-      <c r="F1764" s="4"/>
       <c r="G1764" s="5"/>
       <c r="H1764" s="5"/>
     </row>
-    <row r="1765" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1765" s="3"/>
-      <c r="B1765" s="4"/>
-      <c r="C1765" s="4"/>
-      <c r="D1765" s="4"/>
-      <c r="E1765" s="4"/>
-      <c r="F1765" s="4"/>
       <c r="G1765" s="5"/>
       <c r="H1765" s="5"/>
     </row>
-    <row r="1766" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1766" s="3"/>
-      <c r="B1766" s="4"/>
-      <c r="C1766" s="4"/>
-      <c r="D1766" s="4"/>
-      <c r="E1766" s="4"/>
-      <c r="F1766" s="4"/>
       <c r="G1766" s="5"/>
       <c r="H1766" s="5"/>
     </row>
-    <row r="1767" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1767" s="3"/>
-      <c r="B1767" s="4"/>
-      <c r="C1767" s="4"/>
-      <c r="D1767" s="4"/>
-      <c r="E1767" s="4"/>
-      <c r="F1767" s="4"/>
       <c r="G1767" s="5"/>
       <c r="H1767" s="5"/>
     </row>
-    <row r="1768" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1768" s="3"/>
-      <c r="B1768" s="4"/>
-      <c r="C1768" s="4"/>
-      <c r="D1768" s="4"/>
-      <c r="E1768" s="4"/>
-      <c r="F1768" s="4"/>
       <c r="G1768" s="5"/>
       <c r="H1768" s="5"/>
     </row>
-    <row r="1769" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1769" s="3"/>
-      <c r="B1769" s="4"/>
-      <c r="C1769" s="4"/>
-      <c r="D1769" s="4"/>
-      <c r="E1769" s="4"/>
-      <c r="F1769" s="4"/>
       <c r="G1769" s="5"/>
       <c r="H1769" s="5"/>
     </row>
-    <row r="1770" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1770" s="3"/>
-      <c r="B1770" s="4"/>
-      <c r="C1770" s="4"/>
-      <c r="D1770" s="4"/>
-      <c r="E1770" s="4"/>
-      <c r="F1770" s="4"/>
       <c r="G1770" s="5"/>
       <c r="H1770" s="5"/>
     </row>
-    <row r="1771" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1771" s="3"/>
-      <c r="B1771" s="4"/>
-      <c r="C1771" s="4"/>
-      <c r="D1771" s="4"/>
-      <c r="E1771" s="4"/>
-      <c r="F1771" s="4"/>
       <c r="G1771" s="5"/>
       <c r="H1771" s="5"/>
     </row>
-    <row r="1772" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1772" s="3"/>
-      <c r="B1772" s="4"/>
-      <c r="C1772" s="4"/>
-      <c r="D1772" s="4"/>
-      <c r="E1772" s="4"/>
-      <c r="F1772" s="4"/>
       <c r="G1772" s="5"/>
       <c r="H1772" s="5"/>
     </row>
-    <row r="1773" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1773" s="3"/>
-      <c r="B1773" s="4"/>
-      <c r="C1773" s="4"/>
-      <c r="D1773" s="4"/>
-      <c r="E1773" s="4"/>
-      <c r="F1773" s="4"/>
       <c r="G1773" s="5"/>
       <c r="H1773" s="5"/>
     </row>
-    <row r="1774" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1774" s="3"/>
-      <c r="B1774" s="4"/>
-      <c r="C1774" s="4"/>
-      <c r="D1774" s="4"/>
-      <c r="E1774" s="6"/>
-      <c r="F1774" s="4"/>
       <c r="G1774" s="5"/>
       <c r="H1774" s="5"/>
     </row>
-    <row r="1775" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1775" s="3"/>
-      <c r="B1775" s="4"/>
-      <c r="C1775" s="4"/>
-      <c r="D1775" s="4"/>
-      <c r="E1775" s="4"/>
-      <c r="F1775" s="4"/>
       <c r="G1775" s="5"/>
       <c r="H1775" s="5"/>
     </row>
-    <row r="1776" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1776" s="3"/>
-      <c r="B1776" s="4"/>
-      <c r="C1776" s="4"/>
-      <c r="D1776" s="4"/>
-      <c r="E1776" s="4"/>
-      <c r="F1776" s="4"/>
       <c r="G1776" s="5"/>
       <c r="H1776" s="5"/>
     </row>
-    <row r="1777" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1777" s="3"/>
-      <c r="B1777" s="4"/>
-      <c r="C1777" s="4"/>
-      <c r="D1777" s="4"/>
-      <c r="E1777" s="4"/>
-      <c r="F1777" s="4"/>
       <c r="G1777" s="5"/>
       <c r="H1777" s="5"/>
     </row>
-    <row r="1778" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1778" s="3"/>
-      <c r="B1778" s="4"/>
-      <c r="C1778" s="4"/>
-      <c r="D1778" s="4"/>
-      <c r="E1778" s="4"/>
-      <c r="F1778" s="4"/>
       <c r="G1778" s="5"/>
       <c r="H1778" s="5"/>
     </row>
-    <row r="1779" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1779" s="3"/>
-      <c r="B1779" s="4"/>
-      <c r="C1779" s="4"/>
-      <c r="D1779" s="4"/>
-      <c r="E1779" s="4"/>
-      <c r="F1779" s="4"/>
       <c r="G1779" s="5"/>
       <c r="H1779" s="5"/>
     </row>
@@ -20698,94 +20619,9 @@
       <c r="G2236" s="5"/>
       <c r="H2236" s="5"/>
     </row>
-    <row r="2237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2237" s="3"/>
-      <c r="G2237" s="5"/>
-      <c r="H2237" s="5"/>
-    </row>
-    <row r="2238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2238" s="3"/>
-      <c r="G2238" s="5"/>
-      <c r="H2238" s="5"/>
-    </row>
-    <row r="2239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2239" s="3"/>
-      <c r="G2239" s="5"/>
-      <c r="H2239" s="5"/>
-    </row>
-    <row r="2240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2240" s="3"/>
-      <c r="G2240" s="5"/>
-      <c r="H2240" s="5"/>
-    </row>
-    <row r="2241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2241" s="3"/>
-      <c r="G2241" s="5"/>
-      <c r="H2241" s="5"/>
-    </row>
-    <row r="2242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2242" s="3"/>
-      <c r="G2242" s="5"/>
-      <c r="H2242" s="5"/>
-    </row>
-    <row r="2243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2243" s="3"/>
-      <c r="G2243" s="5"/>
-      <c r="H2243" s="5"/>
-    </row>
-    <row r="2244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2244" s="3"/>
-      <c r="G2244" s="5"/>
-      <c r="H2244" s="5"/>
-    </row>
-    <row r="2245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2245" s="3"/>
-      <c r="G2245" s="5"/>
-      <c r="H2245" s="5"/>
-    </row>
-    <row r="2246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2246" s="3"/>
-      <c r="G2246" s="5"/>
-      <c r="H2246" s="5"/>
-    </row>
-    <row r="2247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2247" s="3"/>
-      <c r="G2247" s="5"/>
-      <c r="H2247" s="5"/>
-    </row>
-    <row r="2248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2248" s="3"/>
-      <c r="G2248" s="5"/>
-      <c r="H2248" s="5"/>
-    </row>
-    <row r="2249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2249" s="3"/>
-      <c r="G2249" s="5"/>
-      <c r="H2249" s="5"/>
-    </row>
-    <row r="2250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2250" s="3"/>
-      <c r="G2250" s="5"/>
-      <c r="H2250" s="5"/>
-    </row>
-    <row r="2251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2251" s="3"/>
-      <c r="G2251" s="5"/>
-      <c r="H2251" s="5"/>
-    </row>
-    <row r="2252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2252" s="3"/>
-      <c r="G2252" s="5"/>
-      <c r="H2252" s="5"/>
-    </row>
-    <row r="2253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2253" s="3"/>
-      <c r="G2253" s="5"/>
-      <c r="H2253" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H435">
-    <sortCondition descending="1" ref="A1:A435"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H418">
+    <sortCondition descending="1" ref="A1:A418"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_samples/next-week.xlsx
+++ b/data_samples/next-week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A340FE6-24F6-4EE3-B7A1-618B467C644D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FA0662-C635-4423-BC5A-489415430149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1590" yWindow="2640" windowWidth="2390" windowHeight="10430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31030" yWindow="2900" windowWidth="16650" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -109,16 +109,16 @@
     <t>Home_Team</t>
   </si>
   <si>
-    <t>Metricon Stadium</t>
+    <t>Adelaide Oval</t>
+  </si>
+  <si>
+    <t>Gabba</t>
+  </si>
+  <si>
+    <t>TIO Stadium</t>
   </si>
   <si>
     <t>SCG</t>
-  </si>
-  <si>
-    <t>Adelaide Oval</t>
-  </si>
-  <si>
-    <t>University of Tasmania Stadium</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -208,7 +208,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -550,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2236"/>
+  <dimension ref="A1:H2213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,182 +595,182 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44332</v>
+        <v>44346</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
-      <c r="G2" s="14">
-        <v>1.03</v>
+      <c r="G2" s="5">
+        <v>1.23</v>
       </c>
-      <c r="H2" s="14">
-        <v>3.5</v>
+      <c r="H2" s="5">
+        <v>4.2</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <v>44332</v>
+        <v>44346</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>44346</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="14">
-        <v>1.17</v>
+      <c r="G4" s="5">
+        <v>1.31</v>
       </c>
-      <c r="H3" s="14">
-        <v>3.15</v>
+      <c r="H4" s="5">
+        <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>44332</v>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>44345</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
+      <c r="D5" s="12" t="s">
+        <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G5" s="5">
+        <v>1.27</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>44345</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>44345</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="14">
-        <v>1.35</v>
+      <c r="G7" s="5">
+        <v>1.24</v>
       </c>
-      <c r="H4" s="14">
-        <v>2.08</v>
+      <c r="H7" s="5">
+        <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>44331</v>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>44345</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>44345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>44344</v>
+      </c>
+      <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1.68</v>
-      </c>
-      <c r="H5" s="14">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>44331</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1.26</v>
-      </c>
-      <c r="H6" s="14">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>44331</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="H7" s="14">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>44331</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="H8" s="14">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>44331</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="H9" s="14">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>44330</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="14">
-        <v>2.88</v>
+      <c r="G10" s="5">
+        <v>1.6</v>
       </c>
-      <c r="H10" s="14">
-        <v>1.46</v>
+      <c r="H10" s="5">
+        <v>2.35</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5698,7 +5697,7 @@
       <c r="A503" s="7"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
-      <c r="D503" s="1"/>
+      <c r="D503" s="4"/>
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
       <c r="G503" s="5"/>
@@ -5708,7 +5707,7 @@
       <c r="A504" s="7"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
-      <c r="D504" s="1"/>
+      <c r="D504" s="4"/>
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
       <c r="G504" s="5"/>
@@ -5718,7 +5717,7 @@
       <c r="A505" s="7"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
-      <c r="D505" s="1"/>
+      <c r="D505" s="4"/>
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
       <c r="G505" s="5"/>
@@ -5728,7 +5727,7 @@
       <c r="A506" s="7"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
-      <c r="D506" s="1"/>
+      <c r="D506" s="4"/>
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
       <c r="G506" s="5"/>
@@ -5738,7 +5737,7 @@
       <c r="A507" s="7"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
-      <c r="D507" s="1"/>
+      <c r="D507" s="4"/>
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
       <c r="G507" s="5"/>
@@ -5748,7 +5747,7 @@
       <c r="A508" s="7"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
-      <c r="D508" s="1"/>
+      <c r="D508" s="4"/>
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
       <c r="G508" s="5"/>
@@ -5758,7 +5757,7 @@
       <c r="A509" s="7"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
-      <c r="D509" s="1"/>
+      <c r="D509" s="4"/>
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
       <c r="G509" s="5"/>
@@ -5768,7 +5767,7 @@
       <c r="A510" s="7"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
-      <c r="D510" s="1"/>
+      <c r="D510" s="4"/>
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
       <c r="G510" s="5"/>
@@ -5778,7 +5777,7 @@
       <c r="A511" s="7"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
-      <c r="D511" s="1"/>
+      <c r="D511" s="4"/>
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
       <c r="G511" s="5"/>
@@ -5788,7 +5787,7 @@
       <c r="A512" s="7"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
-      <c r="D512" s="1"/>
+      <c r="D512" s="4"/>
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
       <c r="G512" s="5"/>
@@ -5798,7 +5797,7 @@
       <c r="A513" s="7"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
-      <c r="D513" s="1"/>
+      <c r="D513" s="4"/>
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
       <c r="G513" s="5"/>
@@ -5808,7 +5807,7 @@
       <c r="A514" s="7"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
-      <c r="D514" s="1"/>
+      <c r="D514" s="4"/>
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
       <c r="G514" s="5"/>
@@ -5818,7 +5817,7 @@
       <c r="A515" s="7"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
-      <c r="D515" s="1"/>
+      <c r="D515" s="4"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
       <c r="G515" s="5"/>
@@ -5828,7 +5827,7 @@
       <c r="A516" s="7"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
-      <c r="D516" s="1"/>
+      <c r="D516" s="4"/>
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
       <c r="G516" s="5"/>
@@ -5838,7 +5837,7 @@
       <c r="A517" s="7"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
-      <c r="D517" s="1"/>
+      <c r="D517" s="4"/>
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
       <c r="G517" s="5"/>
@@ -5848,7 +5847,7 @@
       <c r="A518" s="7"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
-      <c r="D518" s="1"/>
+      <c r="D518" s="4"/>
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
       <c r="G518" s="5"/>
@@ -5858,7 +5857,7 @@
       <c r="A519" s="7"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
-      <c r="D519" s="1"/>
+      <c r="D519" s="4"/>
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
       <c r="G519" s="5"/>
@@ -5868,7 +5867,7 @@
       <c r="A520" s="7"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
-      <c r="D520" s="1"/>
+      <c r="D520" s="4"/>
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
       <c r="G520" s="5"/>
@@ -5878,7 +5877,7 @@
       <c r="A521" s="7"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
-      <c r="D521" s="1"/>
+      <c r="D521" s="4"/>
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
       <c r="G521" s="5"/>
@@ -5888,7 +5887,7 @@
       <c r="A522" s="7"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
-      <c r="D522" s="1"/>
+      <c r="D522" s="4"/>
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
       <c r="G522" s="5"/>
@@ -5898,7 +5897,7 @@
       <c r="A523" s="7"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
-      <c r="D523" s="1"/>
+      <c r="D523" s="4"/>
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
       <c r="G523" s="5"/>
@@ -5908,7 +5907,7 @@
       <c r="A524" s="7"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
-      <c r="D524" s="1"/>
+      <c r="D524" s="4"/>
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
       <c r="G524" s="5"/>
@@ -5918,7 +5917,7 @@
       <c r="A525" s="7"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
-      <c r="D525" s="1"/>
+      <c r="D525" s="4"/>
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
       <c r="G525" s="5"/>
@@ -9884,280 +9883,280 @@
       <c r="G921" s="5"/>
       <c r="H921" s="5"/>
     </row>
-    <row r="922" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A922" s="7"/>
-      <c r="B922" s="4"/>
-      <c r="C922" s="4"/>
-      <c r="D922" s="4"/>
-      <c r="E922" s="4"/>
-      <c r="F922" s="4"/>
       <c r="G922" s="5"/>
       <c r="H922" s="5"/>
     </row>
-    <row r="923" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A923" s="7"/>
-      <c r="B923" s="4"/>
-      <c r="C923" s="4"/>
-      <c r="D923" s="4"/>
-      <c r="E923" s="4"/>
-      <c r="F923" s="4"/>
       <c r="G923" s="5"/>
       <c r="H923" s="5"/>
     </row>
-    <row r="924" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A924" s="7"/>
-      <c r="B924" s="4"/>
-      <c r="C924" s="4"/>
-      <c r="D924" s="4"/>
-      <c r="E924" s="4"/>
-      <c r="F924" s="4"/>
       <c r="G924" s="5"/>
       <c r="H924" s="5"/>
     </row>
-    <row r="925" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A925" s="7"/>
-      <c r="B925" s="4"/>
-      <c r="C925" s="4"/>
-      <c r="D925" s="4"/>
-      <c r="E925" s="4"/>
-      <c r="F925" s="4"/>
       <c r="G925" s="5"/>
       <c r="H925" s="5"/>
     </row>
-    <row r="926" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A926" s="7"/>
-      <c r="B926" s="4"/>
-      <c r="C926" s="4"/>
-      <c r="D926" s="4"/>
-      <c r="E926" s="4"/>
-      <c r="F926" s="4"/>
       <c r="G926" s="5"/>
       <c r="H926" s="5"/>
     </row>
-    <row r="927" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A927" s="7"/>
-      <c r="B927" s="4"/>
-      <c r="C927" s="4"/>
-      <c r="D927" s="4"/>
-      <c r="E927" s="4"/>
-      <c r="F927" s="4"/>
       <c r="G927" s="5"/>
       <c r="H927" s="5"/>
     </row>
-    <row r="928" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A928" s="7"/>
-      <c r="B928" s="4"/>
-      <c r="C928" s="4"/>
-      <c r="D928" s="4"/>
-      <c r="E928" s="4"/>
-      <c r="F928" s="4"/>
       <c r="G928" s="5"/>
       <c r="H928" s="5"/>
     </row>
-    <row r="929" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A929" s="7"/>
-      <c r="B929" s="4"/>
-      <c r="C929" s="4"/>
-      <c r="D929" s="4"/>
-      <c r="E929" s="4"/>
-      <c r="F929" s="4"/>
       <c r="G929" s="5"/>
       <c r="H929" s="5"/>
     </row>
-    <row r="930" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A930" s="7"/>
-      <c r="B930" s="4"/>
-      <c r="C930" s="4"/>
-      <c r="D930" s="4"/>
-      <c r="E930" s="4"/>
-      <c r="F930" s="4"/>
       <c r="G930" s="5"/>
       <c r="H930" s="5"/>
     </row>
     <row r="931" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A931" s="7"/>
-      <c r="B931" s="4"/>
-      <c r="C931" s="4"/>
-      <c r="D931" s="4"/>
-      <c r="E931" s="4"/>
-      <c r="F931" s="4"/>
-      <c r="G931" s="5"/>
-      <c r="H931" s="5"/>
+      <c r="B931" s="6"/>
+      <c r="C931" s="6"/>
+      <c r="D931" s="6"/>
+      <c r="E931" s="6"/>
+      <c r="F931" s="6"/>
+      <c r="G931" s="8"/>
+      <c r="H931" s="8"/>
     </row>
     <row r="932" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A932" s="7"/>
-      <c r="B932" s="4"/>
-      <c r="C932" s="4"/>
-      <c r="D932" s="4"/>
-      <c r="E932" s="4"/>
-      <c r="F932" s="4"/>
-      <c r="G932" s="5"/>
-      <c r="H932" s="5"/>
+      <c r="B932" s="6"/>
+      <c r="C932" s="6"/>
+      <c r="D932" s="6"/>
+      <c r="E932" s="6"/>
+      <c r="F932" s="6"/>
+      <c r="G932" s="8"/>
+      <c r="H932" s="8"/>
     </row>
     <row r="933" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A933" s="7"/>
-      <c r="B933" s="4"/>
-      <c r="C933" s="4"/>
-      <c r="D933" s="4"/>
-      <c r="E933" s="4"/>
-      <c r="F933" s="4"/>
-      <c r="G933" s="5"/>
-      <c r="H933" s="5"/>
+      <c r="B933" s="6"/>
+      <c r="C933" s="6"/>
+      <c r="D933" s="6"/>
+      <c r="E933" s="6"/>
+      <c r="F933" s="6"/>
+      <c r="G933" s="8"/>
+      <c r="H933" s="8"/>
     </row>
     <row r="934" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A934" s="7"/>
-      <c r="B934" s="4"/>
-      <c r="C934" s="4"/>
-      <c r="D934" s="4"/>
-      <c r="E934" s="4"/>
-      <c r="F934" s="4"/>
-      <c r="G934" s="5"/>
-      <c r="H934" s="5"/>
+      <c r="B934" s="6"/>
+      <c r="C934" s="6"/>
+      <c r="D934" s="6"/>
+      <c r="E934" s="6"/>
+      <c r="F934" s="6"/>
+      <c r="G934" s="8"/>
+      <c r="H934" s="8"/>
     </row>
     <row r="935" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A935" s="7"/>
-      <c r="B935" s="4"/>
-      <c r="C935" s="4"/>
-      <c r="D935" s="4"/>
-      <c r="E935" s="4"/>
-      <c r="F935" s="4"/>
-      <c r="G935" s="5"/>
-      <c r="H935" s="5"/>
+      <c r="B935" s="6"/>
+      <c r="C935" s="6"/>
+      <c r="D935" s="6"/>
+      <c r="E935" s="6"/>
+      <c r="F935" s="6"/>
+      <c r="G935" s="8"/>
+      <c r="H935" s="8"/>
     </row>
     <row r="936" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A936" s="7"/>
-      <c r="B936" s="4"/>
-      <c r="C936" s="4"/>
-      <c r="D936" s="4"/>
-      <c r="E936" s="4"/>
-      <c r="F936" s="4"/>
-      <c r="G936" s="5"/>
-      <c r="H936" s="5"/>
+      <c r="B936" s="6"/>
+      <c r="C936" s="6"/>
+      <c r="D936" s="6"/>
+      <c r="E936" s="6"/>
+      <c r="F936" s="6"/>
+      <c r="G936" s="8"/>
+      <c r="H936" s="8"/>
     </row>
     <row r="937" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A937" s="7"/>
-      <c r="B937" s="4"/>
-      <c r="C937" s="4"/>
-      <c r="D937" s="4"/>
-      <c r="E937" s="4"/>
-      <c r="F937" s="4"/>
-      <c r="G937" s="5"/>
-      <c r="H937" s="5"/>
+      <c r="B937" s="6"/>
+      <c r="C937" s="6"/>
+      <c r="D937" s="6"/>
+      <c r="E937" s="6"/>
+      <c r="F937" s="6"/>
+      <c r="G937" s="8"/>
+      <c r="H937" s="8"/>
     </row>
     <row r="938" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A938" s="7"/>
-      <c r="B938" s="4"/>
-      <c r="C938" s="4"/>
-      <c r="D938" s="4"/>
-      <c r="E938" s="4"/>
-      <c r="F938" s="4"/>
-      <c r="G938" s="5"/>
-      <c r="H938" s="5"/>
+      <c r="B938" s="6"/>
+      <c r="C938" s="6"/>
+      <c r="D938" s="6"/>
+      <c r="E938" s="6"/>
+      <c r="F938" s="6"/>
+      <c r="G938" s="8"/>
+      <c r="H938" s="8"/>
     </row>
     <row r="939" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A939" s="7"/>
-      <c r="B939" s="4"/>
-      <c r="C939" s="4"/>
-      <c r="D939" s="4"/>
-      <c r="E939" s="4"/>
-      <c r="F939" s="4"/>
-      <c r="G939" s="5"/>
-      <c r="H939" s="5"/>
+      <c r="B939" s="6"/>
+      <c r="C939" s="6"/>
+      <c r="D939" s="6"/>
+      <c r="E939" s="6"/>
+      <c r="F939" s="6"/>
+      <c r="G939" s="8"/>
+      <c r="H939" s="8"/>
     </row>
     <row r="940" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A940" s="7"/>
-      <c r="B940" s="4"/>
-      <c r="C940" s="4"/>
-      <c r="D940" s="4"/>
-      <c r="E940" s="4"/>
-      <c r="F940" s="4"/>
-      <c r="G940" s="5"/>
-      <c r="H940" s="5"/>
+      <c r="B940" s="6"/>
+      <c r="C940" s="6"/>
+      <c r="D940" s="6"/>
+      <c r="E940" s="6"/>
+      <c r="F940" s="6"/>
+      <c r="G940" s="8"/>
+      <c r="H940" s="8"/>
     </row>
     <row r="941" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A941" s="7"/>
-      <c r="B941" s="4"/>
-      <c r="C941" s="4"/>
-      <c r="D941" s="4"/>
-      <c r="E941" s="4"/>
-      <c r="F941" s="4"/>
-      <c r="G941" s="5"/>
-      <c r="H941" s="5"/>
+      <c r="B941" s="6"/>
+      <c r="C941" s="6"/>
+      <c r="D941" s="6"/>
+      <c r="E941" s="6"/>
+      <c r="F941" s="6"/>
+      <c r="G941" s="8"/>
+      <c r="H941" s="8"/>
     </row>
     <row r="942" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A942" s="7"/>
-      <c r="B942" s="4"/>
-      <c r="C942" s="4"/>
-      <c r="D942" s="4"/>
-      <c r="E942" s="4"/>
-      <c r="F942" s="4"/>
-      <c r="G942" s="5"/>
-      <c r="H942" s="5"/>
+      <c r="B942" s="6"/>
+      <c r="C942" s="6"/>
+      <c r="D942" s="6"/>
+      <c r="E942" s="6"/>
+      <c r="F942" s="6"/>
+      <c r="G942" s="8"/>
+      <c r="H942" s="8"/>
     </row>
     <row r="943" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A943" s="7"/>
-      <c r="B943" s="4"/>
-      <c r="C943" s="4"/>
-      <c r="D943" s="4"/>
-      <c r="E943" s="4"/>
-      <c r="F943" s="4"/>
-      <c r="G943" s="5"/>
-      <c r="H943" s="5"/>
+      <c r="B943" s="6"/>
+      <c r="C943" s="6"/>
+      <c r="D943" s="6"/>
+      <c r="E943" s="6"/>
+      <c r="F943" s="6"/>
+      <c r="G943" s="8"/>
+      <c r="H943" s="8"/>
     </row>
     <row r="944" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A944" s="7"/>
-      <c r="B944" s="4"/>
-      <c r="C944" s="4"/>
-      <c r="D944" s="4"/>
-      <c r="E944" s="4"/>
-      <c r="F944" s="4"/>
-      <c r="G944" s="5"/>
-      <c r="H944" s="5"/>
-    </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B944" s="6"/>
+      <c r="C944" s="6"/>
+      <c r="D944" s="6"/>
+      <c r="E944" s="6"/>
+      <c r="F944" s="6"/>
+      <c r="G944" s="8"/>
+      <c r="H944" s="8"/>
+    </row>
+    <row r="945" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A945" s="7"/>
-      <c r="G945" s="5"/>
-      <c r="H945" s="5"/>
-    </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B945" s="6"/>
+      <c r="C945" s="6"/>
+      <c r="D945" s="6"/>
+      <c r="E945" s="6"/>
+      <c r="F945" s="6"/>
+      <c r="G945" s="8"/>
+      <c r="H945" s="8"/>
+    </row>
+    <row r="946" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A946" s="7"/>
-      <c r="G946" s="5"/>
-      <c r="H946" s="5"/>
-    </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B946" s="6"/>
+      <c r="C946" s="6"/>
+      <c r="D946" s="6"/>
+      <c r="E946" s="6"/>
+      <c r="F946" s="6"/>
+      <c r="G946" s="8"/>
+      <c r="H946" s="8"/>
+    </row>
+    <row r="947" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A947" s="7"/>
-      <c r="G947" s="5"/>
-      <c r="H947" s="5"/>
-    </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B947" s="6"/>
+      <c r="C947" s="6"/>
+      <c r="D947" s="6"/>
+      <c r="E947" s="6"/>
+      <c r="F947" s="6"/>
+      <c r="G947" s="8"/>
+      <c r="H947" s="8"/>
+    </row>
+    <row r="948" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A948" s="7"/>
-      <c r="G948" s="5"/>
-      <c r="H948" s="5"/>
-    </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B948" s="6"/>
+      <c r="C948" s="6"/>
+      <c r="D948" s="6"/>
+      <c r="E948" s="6"/>
+      <c r="F948" s="6"/>
+      <c r="G948" s="8"/>
+      <c r="H948" s="8"/>
+    </row>
+    <row r="949" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A949" s="7"/>
-      <c r="G949" s="5"/>
-      <c r="H949" s="5"/>
-    </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B949" s="6"/>
+      <c r="C949" s="6"/>
+      <c r="D949" s="6"/>
+      <c r="E949" s="6"/>
+      <c r="F949" s="6"/>
+      <c r="G949" s="8"/>
+      <c r="H949" s="8"/>
+    </row>
+    <row r="950" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A950" s="7"/>
-      <c r="G950" s="5"/>
-      <c r="H950" s="5"/>
-    </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B950" s="6"/>
+      <c r="C950" s="6"/>
+      <c r="D950" s="6"/>
+      <c r="E950" s="6"/>
+      <c r="F950" s="6"/>
+      <c r="G950" s="8"/>
+      <c r="H950" s="8"/>
+    </row>
+    <row r="951" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A951" s="7"/>
-      <c r="G951" s="5"/>
-      <c r="H951" s="5"/>
-    </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B951" s="6"/>
+      <c r="C951" s="6"/>
+      <c r="D951" s="6"/>
+      <c r="E951" s="6"/>
+      <c r="F951" s="6"/>
+      <c r="G951" s="8"/>
+      <c r="H951" s="8"/>
+    </row>
+    <row r="952" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A952" s="7"/>
-      <c r="G952" s="5"/>
-      <c r="H952" s="5"/>
-    </row>
-    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B952" s="6"/>
+      <c r="C952" s="6"/>
+      <c r="D952" s="6"/>
+      <c r="E952" s="6"/>
+      <c r="F952" s="6"/>
+      <c r="G952" s="8"/>
+      <c r="H952" s="8"/>
+    </row>
+    <row r="953" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A953" s="7"/>
-      <c r="G953" s="5"/>
-      <c r="H953" s="5"/>
+      <c r="B953" s="6"/>
+      <c r="C953" s="6"/>
+      <c r="D953" s="6"/>
+      <c r="E953" s="6"/>
+      <c r="F953" s="6"/>
+      <c r="G953" s="8"/>
+      <c r="H953" s="8"/>
     </row>
     <row r="954" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A954" s="7"/>
@@ -15319,7 +15318,7 @@
       <c r="G1469" s="8"/>
       <c r="H1469" s="8"/>
     </row>
-    <row r="1470" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1470" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1470" s="7"/>
       <c r="B1470" s="6"/>
       <c r="C1470" s="6"/>
@@ -15329,7 +15328,7 @@
       <c r="G1470" s="8"/>
       <c r="H1470" s="8"/>
     </row>
-    <row r="1471" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1471" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1471" s="7"/>
       <c r="B1471" s="6"/>
       <c r="C1471" s="6"/>
@@ -15339,7 +15338,7 @@
       <c r="G1471" s="8"/>
       <c r="H1471" s="8"/>
     </row>
-    <row r="1472" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1472" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1472" s="7"/>
       <c r="B1472" s="6"/>
       <c r="C1472" s="6"/>
@@ -15349,7 +15348,7 @@
       <c r="G1472" s="8"/>
       <c r="H1472" s="8"/>
     </row>
-    <row r="1473" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1473" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1473" s="7"/>
       <c r="B1473" s="6"/>
       <c r="C1473" s="6"/>
@@ -15359,7 +15358,7 @@
       <c r="G1473" s="8"/>
       <c r="H1473" s="8"/>
     </row>
-    <row r="1474" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1474" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1474" s="7"/>
       <c r="B1474" s="6"/>
       <c r="C1474" s="6"/>
@@ -15369,7 +15368,7 @@
       <c r="G1474" s="8"/>
       <c r="H1474" s="8"/>
     </row>
-    <row r="1475" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1475" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1475" s="7"/>
       <c r="B1475" s="6"/>
       <c r="C1475" s="6"/>
@@ -15379,7 +15378,7 @@
       <c r="G1475" s="8"/>
       <c r="H1475" s="8"/>
     </row>
-    <row r="1476" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1476" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1476" s="7"/>
       <c r="B1476" s="6"/>
       <c r="C1476" s="6"/>
@@ -15389,7 +15388,7 @@
       <c r="G1476" s="8"/>
       <c r="H1476" s="8"/>
     </row>
-    <row r="1477" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1477" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1477" s="7"/>
       <c r="B1477" s="6"/>
       <c r="C1477" s="6"/>
@@ -15399,7 +15398,7 @@
       <c r="G1477" s="8"/>
       <c r="H1477" s="8"/>
     </row>
-    <row r="1478" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1478" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1478" s="7"/>
       <c r="B1478" s="6"/>
       <c r="C1478" s="6"/>
@@ -15549,7 +15548,7 @@
       <c r="G1492" s="8"/>
       <c r="H1492" s="8"/>
     </row>
-    <row r="1493" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1493" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1493" s="7"/>
       <c r="B1493" s="6"/>
       <c r="C1493" s="6"/>
@@ -15559,7 +15558,7 @@
       <c r="G1493" s="8"/>
       <c r="H1493" s="8"/>
     </row>
-    <row r="1494" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1494" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1494" s="7"/>
       <c r="B1494" s="6"/>
       <c r="C1494" s="6"/>
@@ -15569,7 +15568,7 @@
       <c r="G1494" s="8"/>
       <c r="H1494" s="8"/>
     </row>
-    <row r="1495" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1495" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1495" s="7"/>
       <c r="B1495" s="6"/>
       <c r="C1495" s="6"/>
@@ -15579,7 +15578,7 @@
       <c r="G1495" s="8"/>
       <c r="H1495" s="8"/>
     </row>
-    <row r="1496" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1496" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1496" s="7"/>
       <c r="B1496" s="6"/>
       <c r="C1496" s="6"/>
@@ -15589,7 +15588,7 @@
       <c r="G1496" s="8"/>
       <c r="H1496" s="8"/>
     </row>
-    <row r="1497" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1497" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1497" s="7"/>
       <c r="B1497" s="6"/>
       <c r="C1497" s="6"/>
@@ -15599,7 +15598,7 @@
       <c r="G1497" s="8"/>
       <c r="H1497" s="8"/>
     </row>
-    <row r="1498" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1498" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1498" s="7"/>
       <c r="B1498" s="6"/>
       <c r="C1498" s="6"/>
@@ -15609,7 +15608,7 @@
       <c r="G1498" s="8"/>
       <c r="H1498" s="8"/>
     </row>
-    <row r="1499" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1499" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1499" s="7"/>
       <c r="B1499" s="6"/>
       <c r="C1499" s="6"/>
@@ -15619,7 +15618,7 @@
       <c r="G1499" s="8"/>
       <c r="H1499" s="8"/>
     </row>
-    <row r="1500" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1500" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1500" s="7"/>
       <c r="B1500" s="6"/>
       <c r="C1500" s="6"/>
@@ -15629,7 +15628,7 @@
       <c r="G1500" s="8"/>
       <c r="H1500" s="8"/>
     </row>
-    <row r="1501" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1501" s="7"/>
       <c r="B1501" s="6"/>
       <c r="C1501" s="6"/>
@@ -15950,234 +15949,234 @@
       <c r="H1532" s="8"/>
     </row>
     <row r="1533" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1533" s="7"/>
-      <c r="B1533" s="6"/>
-      <c r="C1533" s="6"/>
-      <c r="D1533" s="6"/>
-      <c r="E1533" s="6"/>
-      <c r="F1533" s="6"/>
-      <c r="G1533" s="8"/>
-      <c r="H1533" s="8"/>
+      <c r="A1533" s="3"/>
+      <c r="B1533" s="4"/>
+      <c r="C1533" s="4"/>
+      <c r="D1533" s="4"/>
+      <c r="E1533" s="4"/>
+      <c r="F1533" s="4"/>
+      <c r="G1533" s="5"/>
+      <c r="H1533" s="5"/>
     </row>
     <row r="1534" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1534" s="7"/>
-      <c r="B1534" s="6"/>
-      <c r="C1534" s="6"/>
-      <c r="D1534" s="6"/>
-      <c r="E1534" s="6"/>
-      <c r="F1534" s="6"/>
-      <c r="G1534" s="8"/>
-      <c r="H1534" s="8"/>
+      <c r="A1534" s="3"/>
+      <c r="B1534" s="4"/>
+      <c r="C1534" s="4"/>
+      <c r="D1534" s="4"/>
+      <c r="E1534" s="4"/>
+      <c r="F1534" s="4"/>
+      <c r="G1534" s="5"/>
+      <c r="H1534" s="5"/>
     </row>
     <row r="1535" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1535" s="7"/>
-      <c r="B1535" s="6"/>
-      <c r="C1535" s="6"/>
-      <c r="D1535" s="6"/>
-      <c r="E1535" s="6"/>
-      <c r="F1535" s="6"/>
-      <c r="G1535" s="8"/>
-      <c r="H1535" s="8"/>
+      <c r="A1535" s="3"/>
+      <c r="B1535" s="4"/>
+      <c r="C1535" s="4"/>
+      <c r="D1535" s="4"/>
+      <c r="E1535" s="4"/>
+      <c r="F1535" s="4"/>
+      <c r="G1535" s="5"/>
+      <c r="H1535" s="5"/>
     </row>
     <row r="1536" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1536" s="7"/>
-      <c r="B1536" s="6"/>
-      <c r="C1536" s="6"/>
-      <c r="D1536" s="6"/>
-      <c r="E1536" s="6"/>
-      <c r="F1536" s="6"/>
-      <c r="G1536" s="8"/>
-      <c r="H1536" s="8"/>
+      <c r="A1536" s="3"/>
+      <c r="B1536" s="4"/>
+      <c r="C1536" s="4"/>
+      <c r="D1536" s="4"/>
+      <c r="E1536" s="4"/>
+      <c r="F1536" s="4"/>
+      <c r="G1536" s="5"/>
+      <c r="H1536" s="5"/>
     </row>
     <row r="1537" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1537" s="7"/>
-      <c r="B1537" s="6"/>
-      <c r="C1537" s="6"/>
-      <c r="D1537" s="6"/>
-      <c r="E1537" s="6"/>
-      <c r="F1537" s="6"/>
-      <c r="G1537" s="8"/>
-      <c r="H1537" s="8"/>
+      <c r="A1537" s="3"/>
+      <c r="B1537" s="4"/>
+      <c r="C1537" s="4"/>
+      <c r="D1537" s="4"/>
+      <c r="E1537" s="4"/>
+      <c r="F1537" s="4"/>
+      <c r="G1537" s="5"/>
+      <c r="H1537" s="5"/>
     </row>
     <row r="1538" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1538" s="7"/>
-      <c r="B1538" s="6"/>
-      <c r="C1538" s="6"/>
-      <c r="D1538" s="6"/>
-      <c r="E1538" s="6"/>
-      <c r="F1538" s="6"/>
-      <c r="G1538" s="8"/>
-      <c r="H1538" s="8"/>
+      <c r="A1538" s="3"/>
+      <c r="B1538" s="4"/>
+      <c r="C1538" s="4"/>
+      <c r="D1538" s="4"/>
+      <c r="E1538" s="4"/>
+      <c r="F1538" s="4"/>
+      <c r="G1538" s="5"/>
+      <c r="H1538" s="5"/>
     </row>
     <row r="1539" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1539" s="7"/>
-      <c r="B1539" s="6"/>
-      <c r="C1539" s="6"/>
-      <c r="D1539" s="6"/>
-      <c r="E1539" s="6"/>
-      <c r="F1539" s="6"/>
-      <c r="G1539" s="8"/>
-      <c r="H1539" s="8"/>
+      <c r="A1539" s="3"/>
+      <c r="B1539" s="4"/>
+      <c r="C1539" s="4"/>
+      <c r="D1539" s="4"/>
+      <c r="E1539" s="4"/>
+      <c r="F1539" s="4"/>
+      <c r="G1539" s="5"/>
+      <c r="H1539" s="5"/>
     </row>
     <row r="1540" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1540" s="7"/>
-      <c r="B1540" s="6"/>
-      <c r="C1540" s="6"/>
-      <c r="D1540" s="6"/>
-      <c r="E1540" s="6"/>
-      <c r="F1540" s="6"/>
-      <c r="G1540" s="8"/>
-      <c r="H1540" s="8"/>
+      <c r="A1540" s="3"/>
+      <c r="B1540" s="4"/>
+      <c r="C1540" s="4"/>
+      <c r="D1540" s="4"/>
+      <c r="E1540" s="4"/>
+      <c r="F1540" s="4"/>
+      <c r="G1540" s="5"/>
+      <c r="H1540" s="5"/>
     </row>
     <row r="1541" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1541" s="7"/>
-      <c r="B1541" s="6"/>
-      <c r="C1541" s="6"/>
-      <c r="D1541" s="6"/>
-      <c r="E1541" s="6"/>
-      <c r="F1541" s="6"/>
-      <c r="G1541" s="8"/>
-      <c r="H1541" s="8"/>
+      <c r="A1541" s="3"/>
+      <c r="B1541" s="4"/>
+      <c r="C1541" s="4"/>
+      <c r="D1541" s="4"/>
+      <c r="E1541" s="4"/>
+      <c r="F1541" s="4"/>
+      <c r="G1541" s="5"/>
+      <c r="H1541" s="5"/>
     </row>
     <row r="1542" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1542" s="7"/>
-      <c r="B1542" s="6"/>
-      <c r="C1542" s="6"/>
-      <c r="D1542" s="6"/>
-      <c r="E1542" s="6"/>
-      <c r="F1542" s="6"/>
-      <c r="G1542" s="8"/>
-      <c r="H1542" s="8"/>
+      <c r="A1542" s="3"/>
+      <c r="B1542" s="4"/>
+      <c r="C1542" s="4"/>
+      <c r="D1542" s="4"/>
+      <c r="E1542" s="4"/>
+      <c r="F1542" s="4"/>
+      <c r="G1542" s="5"/>
+      <c r="H1542" s="5"/>
     </row>
     <row r="1543" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1543" s="7"/>
-      <c r="B1543" s="6"/>
-      <c r="C1543" s="6"/>
-      <c r="D1543" s="6"/>
-      <c r="E1543" s="6"/>
-      <c r="F1543" s="6"/>
-      <c r="G1543" s="8"/>
-      <c r="H1543" s="8"/>
+      <c r="A1543" s="3"/>
+      <c r="B1543" s="4"/>
+      <c r="C1543" s="4"/>
+      <c r="D1543" s="4"/>
+      <c r="E1543" s="4"/>
+      <c r="F1543" s="4"/>
+      <c r="G1543" s="5"/>
+      <c r="H1543" s="5"/>
     </row>
     <row r="1544" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1544" s="7"/>
-      <c r="B1544" s="6"/>
-      <c r="C1544" s="6"/>
-      <c r="D1544" s="6"/>
-      <c r="E1544" s="6"/>
-      <c r="F1544" s="6"/>
-      <c r="G1544" s="8"/>
-      <c r="H1544" s="8"/>
+      <c r="A1544" s="3"/>
+      <c r="B1544" s="4"/>
+      <c r="C1544" s="4"/>
+      <c r="D1544" s="4"/>
+      <c r="E1544" s="4"/>
+      <c r="F1544" s="4"/>
+      <c r="G1544" s="5"/>
+      <c r="H1544" s="5"/>
     </row>
     <row r="1545" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1545" s="7"/>
-      <c r="B1545" s="6"/>
-      <c r="C1545" s="6"/>
-      <c r="D1545" s="6"/>
-      <c r="E1545" s="6"/>
-      <c r="F1545" s="6"/>
-      <c r="G1545" s="8"/>
-      <c r="H1545" s="8"/>
+      <c r="A1545" s="3"/>
+      <c r="B1545" s="4"/>
+      <c r="C1545" s="4"/>
+      <c r="D1545" s="4"/>
+      <c r="E1545" s="4"/>
+      <c r="F1545" s="4"/>
+      <c r="G1545" s="5"/>
+      <c r="H1545" s="5"/>
     </row>
     <row r="1546" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1546" s="7"/>
-      <c r="B1546" s="6"/>
-      <c r="C1546" s="6"/>
-      <c r="D1546" s="6"/>
-      <c r="E1546" s="6"/>
-      <c r="F1546" s="6"/>
-      <c r="G1546" s="8"/>
-      <c r="H1546" s="8"/>
+      <c r="A1546" s="3"/>
+      <c r="B1546" s="4"/>
+      <c r="C1546" s="4"/>
+      <c r="D1546" s="4"/>
+      <c r="E1546" s="4"/>
+      <c r="F1546" s="4"/>
+      <c r="G1546" s="5"/>
+      <c r="H1546" s="5"/>
     </row>
     <row r="1547" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1547" s="7"/>
-      <c r="B1547" s="6"/>
-      <c r="C1547" s="6"/>
-      <c r="D1547" s="6"/>
-      <c r="E1547" s="6"/>
-      <c r="F1547" s="6"/>
-      <c r="G1547" s="8"/>
-      <c r="H1547" s="8"/>
+      <c r="A1547" s="3"/>
+      <c r="B1547" s="4"/>
+      <c r="C1547" s="4"/>
+      <c r="D1547" s="4"/>
+      <c r="E1547" s="4"/>
+      <c r="F1547" s="4"/>
+      <c r="G1547" s="5"/>
+      <c r="H1547" s="5"/>
     </row>
     <row r="1548" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1548" s="7"/>
-      <c r="B1548" s="6"/>
-      <c r="C1548" s="6"/>
-      <c r="D1548" s="6"/>
-      <c r="E1548" s="6"/>
-      <c r="F1548" s="6"/>
-      <c r="G1548" s="8"/>
-      <c r="H1548" s="8"/>
+      <c r="A1548" s="3"/>
+      <c r="B1548" s="4"/>
+      <c r="C1548" s="4"/>
+      <c r="D1548" s="4"/>
+      <c r="E1548" s="4"/>
+      <c r="F1548" s="4"/>
+      <c r="G1548" s="5"/>
+      <c r="H1548" s="5"/>
     </row>
     <row r="1549" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1549" s="7"/>
-      <c r="B1549" s="6"/>
-      <c r="C1549" s="6"/>
-      <c r="D1549" s="6"/>
-      <c r="E1549" s="6"/>
-      <c r="F1549" s="6"/>
-      <c r="G1549" s="8"/>
-      <c r="H1549" s="8"/>
+      <c r="A1549" s="3"/>
+      <c r="B1549" s="4"/>
+      <c r="C1549" s="4"/>
+      <c r="D1549" s="4"/>
+      <c r="E1549" s="4"/>
+      <c r="F1549" s="4"/>
+      <c r="G1549" s="5"/>
+      <c r="H1549" s="5"/>
     </row>
     <row r="1550" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1550" s="7"/>
-      <c r="B1550" s="6"/>
-      <c r="C1550" s="6"/>
-      <c r="D1550" s="6"/>
-      <c r="E1550" s="6"/>
-      <c r="F1550" s="6"/>
-      <c r="G1550" s="8"/>
-      <c r="H1550" s="8"/>
+      <c r="A1550" s="3"/>
+      <c r="B1550" s="4"/>
+      <c r="C1550" s="4"/>
+      <c r="D1550" s="4"/>
+      <c r="E1550" s="4"/>
+      <c r="F1550" s="4"/>
+      <c r="G1550" s="5"/>
+      <c r="H1550" s="5"/>
     </row>
     <row r="1551" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1551" s="7"/>
-      <c r="B1551" s="6"/>
-      <c r="C1551" s="6"/>
-      <c r="D1551" s="6"/>
-      <c r="E1551" s="6"/>
-      <c r="F1551" s="6"/>
-      <c r="G1551" s="8"/>
-      <c r="H1551" s="8"/>
+      <c r="A1551" s="3"/>
+      <c r="B1551" s="4"/>
+      <c r="C1551" s="4"/>
+      <c r="D1551" s="4"/>
+      <c r="E1551" s="4"/>
+      <c r="F1551" s="4"/>
+      <c r="G1551" s="5"/>
+      <c r="H1551" s="5"/>
     </row>
     <row r="1552" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1552" s="7"/>
-      <c r="B1552" s="6"/>
-      <c r="C1552" s="6"/>
-      <c r="D1552" s="6"/>
-      <c r="E1552" s="6"/>
-      <c r="F1552" s="6"/>
-      <c r="G1552" s="8"/>
-      <c r="H1552" s="8"/>
+      <c r="A1552" s="3"/>
+      <c r="B1552" s="4"/>
+      <c r="C1552" s="4"/>
+      <c r="D1552" s="4"/>
+      <c r="E1552" s="4"/>
+      <c r="F1552" s="4"/>
+      <c r="G1552" s="5"/>
+      <c r="H1552" s="5"/>
     </row>
     <row r="1553" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1553" s="7"/>
-      <c r="B1553" s="6"/>
-      <c r="C1553" s="6"/>
-      <c r="D1553" s="6"/>
-      <c r="E1553" s="6"/>
-      <c r="F1553" s="6"/>
-      <c r="G1553" s="8"/>
-      <c r="H1553" s="8"/>
+      <c r="A1553" s="3"/>
+      <c r="B1553" s="4"/>
+      <c r="C1553" s="4"/>
+      <c r="D1553" s="4"/>
+      <c r="E1553" s="4"/>
+      <c r="F1553" s="4"/>
+      <c r="G1553" s="5"/>
+      <c r="H1553" s="5"/>
     </row>
     <row r="1554" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1554" s="7"/>
-      <c r="B1554" s="6"/>
-      <c r="C1554" s="6"/>
-      <c r="D1554" s="6"/>
-      <c r="E1554" s="6"/>
-      <c r="F1554" s="6"/>
-      <c r="G1554" s="8"/>
-      <c r="H1554" s="8"/>
+      <c r="A1554" s="3"/>
+      <c r="B1554" s="4"/>
+      <c r="C1554" s="4"/>
+      <c r="D1554" s="4"/>
+      <c r="E1554" s="4"/>
+      <c r="F1554" s="4"/>
+      <c r="G1554" s="5"/>
+      <c r="H1554" s="5"/>
     </row>
     <row r="1555" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1555" s="7"/>
-      <c r="B1555" s="6"/>
-      <c r="C1555" s="6"/>
-      <c r="D1555" s="6"/>
-      <c r="E1555" s="6"/>
-      <c r="F1555" s="6"/>
-      <c r="G1555" s="8"/>
-      <c r="H1555" s="8"/>
+      <c r="A1555" s="3"/>
+      <c r="B1555" s="4"/>
+      <c r="C1555" s="4"/>
+      <c r="D1555" s="4"/>
+      <c r="E1555" s="4"/>
+      <c r="F1555" s="4"/>
+      <c r="G1555" s="5"/>
+      <c r="H1555" s="5"/>
     </row>
     <row r="1556" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1556" s="3"/>
@@ -17964,7 +17963,7 @@
       <c r="B1734" s="4"/>
       <c r="C1734" s="4"/>
       <c r="D1734" s="4"/>
-      <c r="E1734" s="4"/>
+      <c r="E1734" s="6"/>
       <c r="F1734" s="4"/>
       <c r="G1734" s="5"/>
       <c r="H1734" s="5"/>
@@ -18019,233 +18018,118 @@
       <c r="G1739" s="5"/>
       <c r="H1739" s="5"/>
     </row>
-    <row r="1740" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1740" s="3"/>
-      <c r="B1740" s="4"/>
-      <c r="C1740" s="4"/>
-      <c r="D1740" s="4"/>
-      <c r="E1740" s="4"/>
-      <c r="F1740" s="4"/>
       <c r="G1740" s="5"/>
       <c r="H1740" s="5"/>
     </row>
-    <row r="1741" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1741" s="3"/>
-      <c r="B1741" s="4"/>
-      <c r="C1741" s="4"/>
-      <c r="D1741" s="4"/>
-      <c r="E1741" s="4"/>
-      <c r="F1741" s="4"/>
       <c r="G1741" s="5"/>
       <c r="H1741" s="5"/>
     </row>
-    <row r="1742" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1742" s="3"/>
-      <c r="B1742" s="4"/>
-      <c r="C1742" s="4"/>
-      <c r="D1742" s="4"/>
-      <c r="E1742" s="4"/>
-      <c r="F1742" s="4"/>
       <c r="G1742" s="5"/>
       <c r="H1742" s="5"/>
     </row>
-    <row r="1743" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1743" s="3"/>
-      <c r="B1743" s="4"/>
-      <c r="C1743" s="4"/>
-      <c r="D1743" s="4"/>
-      <c r="E1743" s="4"/>
-      <c r="F1743" s="4"/>
       <c r="G1743" s="5"/>
       <c r="H1743" s="5"/>
     </row>
-    <row r="1744" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1744" s="3"/>
-      <c r="B1744" s="4"/>
-      <c r="C1744" s="4"/>
-      <c r="D1744" s="4"/>
-      <c r="E1744" s="4"/>
-      <c r="F1744" s="4"/>
       <c r="G1744" s="5"/>
       <c r="H1744" s="5"/>
     </row>
-    <row r="1745" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1745" s="3"/>
-      <c r="B1745" s="4"/>
-      <c r="C1745" s="4"/>
-      <c r="D1745" s="4"/>
-      <c r="E1745" s="4"/>
-      <c r="F1745" s="4"/>
       <c r="G1745" s="5"/>
       <c r="H1745" s="5"/>
     </row>
-    <row r="1746" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1746" s="3"/>
-      <c r="B1746" s="4"/>
-      <c r="C1746" s="4"/>
-      <c r="D1746" s="4"/>
-      <c r="E1746" s="4"/>
-      <c r="F1746" s="4"/>
       <c r="G1746" s="5"/>
       <c r="H1746" s="5"/>
     </row>
-    <row r="1747" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1747" s="3"/>
-      <c r="B1747" s="4"/>
-      <c r="C1747" s="4"/>
-      <c r="D1747" s="4"/>
-      <c r="E1747" s="4"/>
-      <c r="F1747" s="4"/>
       <c r="G1747" s="5"/>
       <c r="H1747" s="5"/>
     </row>
-    <row r="1748" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1748" s="3"/>
-      <c r="B1748" s="4"/>
-      <c r="C1748" s="4"/>
-      <c r="D1748" s="4"/>
-      <c r="E1748" s="4"/>
-      <c r="F1748" s="4"/>
       <c r="G1748" s="5"/>
       <c r="H1748" s="5"/>
     </row>
-    <row r="1749" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1749" s="3"/>
-      <c r="B1749" s="4"/>
-      <c r="C1749" s="4"/>
-      <c r="D1749" s="4"/>
-      <c r="E1749" s="4"/>
-      <c r="F1749" s="4"/>
       <c r="G1749" s="5"/>
       <c r="H1749" s="5"/>
     </row>
-    <row r="1750" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1750" s="3"/>
-      <c r="B1750" s="4"/>
-      <c r="C1750" s="4"/>
-      <c r="D1750" s="4"/>
-      <c r="E1750" s="4"/>
-      <c r="F1750" s="4"/>
       <c r="G1750" s="5"/>
       <c r="H1750" s="5"/>
     </row>
-    <row r="1751" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1751" s="3"/>
-      <c r="B1751" s="4"/>
-      <c r="C1751" s="4"/>
-      <c r="D1751" s="4"/>
-      <c r="E1751" s="4"/>
-      <c r="F1751" s="4"/>
       <c r="G1751" s="5"/>
       <c r="H1751" s="5"/>
     </row>
-    <row r="1752" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1752" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1752" s="3"/>
-      <c r="B1752" s="4"/>
-      <c r="C1752" s="4"/>
-      <c r="D1752" s="4"/>
-      <c r="E1752" s="4"/>
-      <c r="F1752" s="4"/>
       <c r="G1752" s="5"/>
       <c r="H1752" s="5"/>
     </row>
-    <row r="1753" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1753" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1753" s="3"/>
-      <c r="B1753" s="4"/>
-      <c r="C1753" s="4"/>
-      <c r="D1753" s="4"/>
-      <c r="E1753" s="4"/>
-      <c r="F1753" s="4"/>
       <c r="G1753" s="5"/>
       <c r="H1753" s="5"/>
     </row>
-    <row r="1754" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1754" s="3"/>
-      <c r="B1754" s="4"/>
-      <c r="C1754" s="4"/>
-      <c r="D1754" s="4"/>
-      <c r="E1754" s="4"/>
-      <c r="F1754" s="4"/>
       <c r="G1754" s="5"/>
       <c r="H1754" s="5"/>
     </row>
-    <row r="1755" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1755" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1755" s="3"/>
-      <c r="B1755" s="4"/>
-      <c r="C1755" s="4"/>
-      <c r="D1755" s="4"/>
-      <c r="E1755" s="4"/>
-      <c r="F1755" s="4"/>
       <c r="G1755" s="5"/>
       <c r="H1755" s="5"/>
     </row>
-    <row r="1756" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1756" s="3"/>
-      <c r="B1756" s="4"/>
-      <c r="C1756" s="4"/>
-      <c r="D1756" s="4"/>
-      <c r="E1756" s="4"/>
-      <c r="F1756" s="4"/>
       <c r="G1756" s="5"/>
       <c r="H1756" s="5"/>
     </row>
-    <row r="1757" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1757" s="3"/>
-      <c r="B1757" s="4"/>
-      <c r="C1757" s="4"/>
-      <c r="D1757" s="4"/>
-      <c r="E1757" s="6"/>
-      <c r="F1757" s="4"/>
       <c r="G1757" s="5"/>
       <c r="H1757" s="5"/>
     </row>
-    <row r="1758" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1758" s="3"/>
-      <c r="B1758" s="4"/>
-      <c r="C1758" s="4"/>
-      <c r="D1758" s="4"/>
-      <c r="E1758" s="4"/>
-      <c r="F1758" s="4"/>
       <c r="G1758" s="5"/>
       <c r="H1758" s="5"/>
     </row>
-    <row r="1759" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1759" s="3"/>
-      <c r="B1759" s="4"/>
-      <c r="C1759" s="4"/>
-      <c r="D1759" s="4"/>
-      <c r="E1759" s="4"/>
-      <c r="F1759" s="4"/>
       <c r="G1759" s="5"/>
       <c r="H1759" s="5"/>
     </row>
-    <row r="1760" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1760" s="3"/>
-      <c r="B1760" s="4"/>
-      <c r="C1760" s="4"/>
-      <c r="D1760" s="4"/>
-      <c r="E1760" s="4"/>
-      <c r="F1760" s="4"/>
       <c r="G1760" s="5"/>
       <c r="H1760" s="5"/>
     </row>
-    <row r="1761" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1761" s="3"/>
-      <c r="B1761" s="4"/>
-      <c r="C1761" s="4"/>
-      <c r="D1761" s="4"/>
-      <c r="E1761" s="4"/>
-      <c r="F1761" s="4"/>
       <c r="G1761" s="5"/>
       <c r="H1761" s="5"/>
     </row>
-    <row r="1762" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1762" s="3"/>
-      <c r="B1762" s="4"/>
-      <c r="C1762" s="4"/>
-      <c r="D1762" s="4"/>
-      <c r="E1762" s="4"/>
-      <c r="F1762" s="4"/>
       <c r="G1762" s="5"/>
       <c r="H1762" s="5"/>
     </row>
@@ -20504,124 +20388,9 @@
       <c r="G2213" s="5"/>
       <c r="H2213" s="5"/>
     </row>
-    <row r="2214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2214" s="3"/>
-      <c r="G2214" s="5"/>
-      <c r="H2214" s="5"/>
-    </row>
-    <row r="2215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2215" s="3"/>
-      <c r="G2215" s="5"/>
-      <c r="H2215" s="5"/>
-    </row>
-    <row r="2216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2216" s="3"/>
-      <c r="G2216" s="5"/>
-      <c r="H2216" s="5"/>
-    </row>
-    <row r="2217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2217" s="3"/>
-      <c r="G2217" s="5"/>
-      <c r="H2217" s="5"/>
-    </row>
-    <row r="2218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2218" s="3"/>
-      <c r="G2218" s="5"/>
-      <c r="H2218" s="5"/>
-    </row>
-    <row r="2219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2219" s="3"/>
-      <c r="G2219" s="5"/>
-      <c r="H2219" s="5"/>
-    </row>
-    <row r="2220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2220" s="3"/>
-      <c r="G2220" s="5"/>
-      <c r="H2220" s="5"/>
-    </row>
-    <row r="2221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2221" s="3"/>
-      <c r="G2221" s="5"/>
-      <c r="H2221" s="5"/>
-    </row>
-    <row r="2222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2222" s="3"/>
-      <c r="G2222" s="5"/>
-      <c r="H2222" s="5"/>
-    </row>
-    <row r="2223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2223" s="3"/>
-      <c r="G2223" s="5"/>
-      <c r="H2223" s="5"/>
-    </row>
-    <row r="2224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2224" s="3"/>
-      <c r="G2224" s="5"/>
-      <c r="H2224" s="5"/>
-    </row>
-    <row r="2225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2225" s="3"/>
-      <c r="G2225" s="5"/>
-      <c r="H2225" s="5"/>
-    </row>
-    <row r="2226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2226" s="3"/>
-      <c r="G2226" s="5"/>
-      <c r="H2226" s="5"/>
-    </row>
-    <row r="2227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2227" s="3"/>
-      <c r="G2227" s="5"/>
-      <c r="H2227" s="5"/>
-    </row>
-    <row r="2228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2228" s="3"/>
-      <c r="G2228" s="5"/>
-      <c r="H2228" s="5"/>
-    </row>
-    <row r="2229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2229" s="3"/>
-      <c r="G2229" s="5"/>
-      <c r="H2229" s="5"/>
-    </row>
-    <row r="2230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2230" s="3"/>
-      <c r="G2230" s="5"/>
-      <c r="H2230" s="5"/>
-    </row>
-    <row r="2231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2231" s="3"/>
-      <c r="G2231" s="5"/>
-      <c r="H2231" s="5"/>
-    </row>
-    <row r="2232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2232" s="3"/>
-      <c r="G2232" s="5"/>
-      <c r="H2232" s="5"/>
-    </row>
-    <row r="2233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2233" s="3"/>
-      <c r="G2233" s="5"/>
-      <c r="H2233" s="5"/>
-    </row>
-    <row r="2234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2234" s="3"/>
-      <c r="G2234" s="5"/>
-      <c r="H2234" s="5"/>
-    </row>
-    <row r="2235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2235" s="3"/>
-      <c r="G2235" s="5"/>
-      <c r="H2235" s="5"/>
-    </row>
-    <row r="2236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2236" s="3"/>
-      <c r="G2236" s="5"/>
-      <c r="H2236" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H418">
-    <sortCondition descending="1" ref="A1:A418"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H395">
+    <sortCondition descending="1" ref="A1:A395"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_samples/next-week.xlsx
+++ b/data_samples/next-week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FA0662-C635-4423-BC5A-489415430149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4685F85-E63F-4556-846F-5C92AA833301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31030" yWindow="2900" windowWidth="16650" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-52790" yWindow="3630" windowWidth="28800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -43,19 +43,10 @@
     <t>Melbourne</t>
   </si>
   <si>
-    <t>Hawthorn</t>
-  </si>
-  <si>
     <t>Brisbane</t>
   </si>
   <si>
-    <t>North Melbourne</t>
-  </si>
-  <si>
     <t>Essendon</t>
-  </si>
-  <si>
-    <t>Geelong</t>
   </si>
   <si>
     <t>Adelaide</t>
@@ -64,16 +55,7 @@
     <t>Carlton</t>
   </si>
   <si>
-    <t>Port Adelaide</t>
-  </si>
-  <si>
-    <t>Gold Coast</t>
-  </si>
-  <si>
     <t>Richmond</t>
-  </si>
-  <si>
-    <t>GWS Giants</t>
   </si>
   <si>
     <t>Sydney</t>
@@ -112,13 +94,7 @@
     <t>Adelaide Oval</t>
   </si>
   <si>
-    <t>Gabba</t>
-  </si>
-  <si>
     <t>TIO Stadium</t>
-  </si>
-  <si>
-    <t>SCG</t>
   </si>
 </sst>
 </file>
@@ -549,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2213"/>
+  <dimension ref="A1:H2200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,206 +548,152 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44346</v>
+        <v>44353</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
-      <c r="G2" s="5">
-        <v>1.23</v>
-      </c>
-      <c r="H2" s="5">
-        <v>4.2</v>
-      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <v>44346</v>
+        <v>44353</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
-      <c r="G3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2.62</v>
-      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>44346</v>
+        <v>44352</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5">
-        <v>1.31</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3.5</v>
-      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>44345</v>
+        <v>44352</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
-      <c r="G5" s="5">
-        <v>1.27</v>
-      </c>
-      <c r="H5" s="5">
-        <v>3.78</v>
-      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>44345</v>
+        <v>44352</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>44351</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>31</v>
+      <c r="D7" s="12" t="s">
+        <v>24</v>
       </c>
-      <c r="G6" s="5">
-        <v>1.39</v>
-      </c>
-      <c r="H6" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>44345</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1.24</v>
-      </c>
-      <c r="H7" s="5">
-        <v>4.0999999999999996</v>
-      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>44345</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>44345</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1.24</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>44344</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="H10" s="5">
-        <v>2.35</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -5567,7 +5489,7 @@
       <c r="A490" s="7"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
-      <c r="D490" s="1"/>
+      <c r="D490" s="4"/>
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
       <c r="G490" s="5"/>
@@ -5577,7 +5499,7 @@
       <c r="A491" s="7"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
-      <c r="D491" s="1"/>
+      <c r="D491" s="4"/>
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
       <c r="G491" s="5"/>
@@ -5587,7 +5509,7 @@
       <c r="A492" s="7"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
-      <c r="D492" s="1"/>
+      <c r="D492" s="4"/>
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
       <c r="G492" s="5"/>
@@ -5597,7 +5519,7 @@
       <c r="A493" s="7"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
-      <c r="D493" s="1"/>
+      <c r="D493" s="4"/>
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
       <c r="G493" s="5"/>
@@ -5607,7 +5529,7 @@
       <c r="A494" s="7"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
-      <c r="D494" s="1"/>
+      <c r="D494" s="4"/>
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
       <c r="G494" s="5"/>
@@ -5617,7 +5539,7 @@
       <c r="A495" s="7"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
-      <c r="D495" s="1"/>
+      <c r="D495" s="4"/>
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
       <c r="G495" s="5"/>
@@ -5627,7 +5549,7 @@
       <c r="A496" s="7"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
-      <c r="D496" s="1"/>
+      <c r="D496" s="4"/>
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
       <c r="G496" s="5"/>
@@ -5637,7 +5559,7 @@
       <c r="A497" s="7"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
-      <c r="D497" s="1"/>
+      <c r="D497" s="4"/>
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
       <c r="G497" s="5"/>
@@ -5647,7 +5569,7 @@
       <c r="A498" s="7"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
-      <c r="D498" s="1"/>
+      <c r="D498" s="4"/>
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
       <c r="G498" s="5"/>
@@ -5657,7 +5579,7 @@
       <c r="A499" s="7"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
-      <c r="D499" s="1"/>
+      <c r="D499" s="4"/>
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
       <c r="G499" s="5"/>
@@ -5667,7 +5589,7 @@
       <c r="A500" s="7"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
-      <c r="D500" s="1"/>
+      <c r="D500" s="4"/>
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
       <c r="G500" s="5"/>
@@ -5677,7 +5599,7 @@
       <c r="A501" s="7"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
-      <c r="D501" s="1"/>
+      <c r="D501" s="4"/>
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
       <c r="G501" s="5"/>
@@ -5687,7 +5609,7 @@
       <c r="A502" s="7"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
-      <c r="D502" s="1"/>
+      <c r="D502" s="4"/>
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
       <c r="G502" s="5"/>
@@ -9753,180 +9675,180 @@
       <c r="G908" s="5"/>
       <c r="H908" s="5"/>
     </row>
-    <row r="909" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A909" s="7"/>
-      <c r="B909" s="4"/>
-      <c r="C909" s="4"/>
-      <c r="D909" s="4"/>
-      <c r="E909" s="4"/>
-      <c r="F909" s="4"/>
       <c r="G909" s="5"/>
       <c r="H909" s="5"/>
     </row>
-    <row r="910" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A910" s="7"/>
-      <c r="B910" s="4"/>
-      <c r="C910" s="4"/>
-      <c r="D910" s="4"/>
-      <c r="E910" s="4"/>
-      <c r="F910" s="4"/>
       <c r="G910" s="5"/>
       <c r="H910" s="5"/>
     </row>
-    <row r="911" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A911" s="7"/>
-      <c r="B911" s="4"/>
-      <c r="C911" s="4"/>
-      <c r="D911" s="4"/>
-      <c r="E911" s="4"/>
-      <c r="F911" s="4"/>
       <c r="G911" s="5"/>
       <c r="H911" s="5"/>
     </row>
-    <row r="912" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A912" s="7"/>
-      <c r="B912" s="4"/>
-      <c r="C912" s="4"/>
-      <c r="D912" s="4"/>
-      <c r="E912" s="4"/>
-      <c r="F912" s="4"/>
       <c r="G912" s="5"/>
       <c r="H912" s="5"/>
     </row>
-    <row r="913" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A913" s="7"/>
-      <c r="B913" s="4"/>
-      <c r="C913" s="4"/>
-      <c r="D913" s="4"/>
-      <c r="E913" s="4"/>
-      <c r="F913" s="4"/>
       <c r="G913" s="5"/>
       <c r="H913" s="5"/>
     </row>
-    <row r="914" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A914" s="7"/>
-      <c r="B914" s="4"/>
-      <c r="C914" s="4"/>
-      <c r="D914" s="4"/>
-      <c r="E914" s="4"/>
-      <c r="F914" s="4"/>
       <c r="G914" s="5"/>
       <c r="H914" s="5"/>
     </row>
-    <row r="915" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A915" s="7"/>
-      <c r="B915" s="4"/>
-      <c r="C915" s="4"/>
-      <c r="D915" s="4"/>
-      <c r="E915" s="4"/>
-      <c r="F915" s="4"/>
       <c r="G915" s="5"/>
       <c r="H915" s="5"/>
     </row>
-    <row r="916" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A916" s="7"/>
-      <c r="B916" s="4"/>
-      <c r="C916" s="4"/>
-      <c r="D916" s="4"/>
-      <c r="E916" s="4"/>
-      <c r="F916" s="4"/>
       <c r="G916" s="5"/>
       <c r="H916" s="5"/>
     </row>
-    <row r="917" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A917" s="7"/>
-      <c r="B917" s="4"/>
-      <c r="C917" s="4"/>
-      <c r="D917" s="4"/>
-      <c r="E917" s="4"/>
-      <c r="F917" s="4"/>
       <c r="G917" s="5"/>
       <c r="H917" s="5"/>
     </row>
     <row r="918" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A918" s="7"/>
-      <c r="B918" s="4"/>
-      <c r="C918" s="4"/>
-      <c r="D918" s="4"/>
-      <c r="E918" s="4"/>
-      <c r="F918" s="4"/>
-      <c r="G918" s="5"/>
-      <c r="H918" s="5"/>
+      <c r="B918" s="6"/>
+      <c r="C918" s="6"/>
+      <c r="D918" s="6"/>
+      <c r="E918" s="6"/>
+      <c r="F918" s="6"/>
+      <c r="G918" s="8"/>
+      <c r="H918" s="8"/>
     </row>
     <row r="919" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A919" s="7"/>
-      <c r="B919" s="4"/>
-      <c r="C919" s="4"/>
-      <c r="D919" s="4"/>
-      <c r="E919" s="4"/>
-      <c r="F919" s="4"/>
-      <c r="G919" s="5"/>
-      <c r="H919" s="5"/>
+      <c r="B919" s="6"/>
+      <c r="C919" s="6"/>
+      <c r="D919" s="6"/>
+      <c r="E919" s="6"/>
+      <c r="F919" s="6"/>
+      <c r="G919" s="8"/>
+      <c r="H919" s="8"/>
     </row>
     <row r="920" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A920" s="7"/>
-      <c r="B920" s="4"/>
-      <c r="C920" s="4"/>
-      <c r="D920" s="4"/>
-      <c r="E920" s="4"/>
-      <c r="F920" s="4"/>
-      <c r="G920" s="5"/>
-      <c r="H920" s="5"/>
+      <c r="B920" s="6"/>
+      <c r="C920" s="6"/>
+      <c r="D920" s="6"/>
+      <c r="E920" s="6"/>
+      <c r="F920" s="6"/>
+      <c r="G920" s="8"/>
+      <c r="H920" s="8"/>
     </row>
     <row r="921" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A921" s="7"/>
-      <c r="B921" s="4"/>
-      <c r="C921" s="4"/>
-      <c r="D921" s="4"/>
-      <c r="E921" s="4"/>
-      <c r="F921" s="4"/>
-      <c r="G921" s="5"/>
-      <c r="H921" s="5"/>
-    </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B921" s="6"/>
+      <c r="C921" s="6"/>
+      <c r="D921" s="6"/>
+      <c r="E921" s="6"/>
+      <c r="F921" s="6"/>
+      <c r="G921" s="8"/>
+      <c r="H921" s="8"/>
+    </row>
+    <row r="922" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A922" s="7"/>
-      <c r="G922" s="5"/>
-      <c r="H922" s="5"/>
-    </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B922" s="6"/>
+      <c r="C922" s="6"/>
+      <c r="D922" s="6"/>
+      <c r="E922" s="6"/>
+      <c r="F922" s="6"/>
+      <c r="G922" s="8"/>
+      <c r="H922" s="8"/>
+    </row>
+    <row r="923" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A923" s="7"/>
-      <c r="G923" s="5"/>
-      <c r="H923" s="5"/>
-    </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B923" s="6"/>
+      <c r="C923" s="6"/>
+      <c r="D923" s="6"/>
+      <c r="E923" s="6"/>
+      <c r="F923" s="6"/>
+      <c r="G923" s="8"/>
+      <c r="H923" s="8"/>
+    </row>
+    <row r="924" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A924" s="7"/>
-      <c r="G924" s="5"/>
-      <c r="H924" s="5"/>
-    </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B924" s="6"/>
+      <c r="C924" s="6"/>
+      <c r="D924" s="6"/>
+      <c r="E924" s="6"/>
+      <c r="F924" s="6"/>
+      <c r="G924" s="8"/>
+      <c r="H924" s="8"/>
+    </row>
+    <row r="925" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A925" s="7"/>
-      <c r="G925" s="5"/>
-      <c r="H925" s="5"/>
-    </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B925" s="6"/>
+      <c r="C925" s="6"/>
+      <c r="D925" s="6"/>
+      <c r="E925" s="6"/>
+      <c r="F925" s="6"/>
+      <c r="G925" s="8"/>
+      <c r="H925" s="8"/>
+    </row>
+    <row r="926" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A926" s="7"/>
-      <c r="G926" s="5"/>
-      <c r="H926" s="5"/>
-    </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B926" s="6"/>
+      <c r="C926" s="6"/>
+      <c r="D926" s="6"/>
+      <c r="E926" s="6"/>
+      <c r="F926" s="6"/>
+      <c r="G926" s="8"/>
+      <c r="H926" s="8"/>
+    </row>
+    <row r="927" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A927" s="7"/>
-      <c r="G927" s="5"/>
-      <c r="H927" s="5"/>
-    </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B927" s="6"/>
+      <c r="C927" s="6"/>
+      <c r="D927" s="6"/>
+      <c r="E927" s="6"/>
+      <c r="F927" s="6"/>
+      <c r="G927" s="8"/>
+      <c r="H927" s="8"/>
+    </row>
+    <row r="928" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A928" s="7"/>
-      <c r="G928" s="5"/>
-      <c r="H928" s="5"/>
-    </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B928" s="6"/>
+      <c r="C928" s="6"/>
+      <c r="D928" s="6"/>
+      <c r="E928" s="6"/>
+      <c r="F928" s="6"/>
+      <c r="G928" s="8"/>
+      <c r="H928" s="8"/>
+    </row>
+    <row r="929" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A929" s="7"/>
-      <c r="G929" s="5"/>
-      <c r="H929" s="5"/>
-    </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B929" s="6"/>
+      <c r="C929" s="6"/>
+      <c r="D929" s="6"/>
+      <c r="E929" s="6"/>
+      <c r="F929" s="6"/>
+      <c r="G929" s="8"/>
+      <c r="H929" s="8"/>
+    </row>
+    <row r="930" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A930" s="7"/>
-      <c r="G930" s="5"/>
-      <c r="H930" s="5"/>
+      <c r="B930" s="6"/>
+      <c r="C930" s="6"/>
+      <c r="D930" s="6"/>
+      <c r="E930" s="6"/>
+      <c r="F930" s="6"/>
+      <c r="G930" s="8"/>
+      <c r="H930" s="8"/>
     </row>
     <row r="931" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A931" s="7"/>
@@ -15188,7 +15110,7 @@
       <c r="G1456" s="8"/>
       <c r="H1456" s="8"/>
     </row>
-    <row r="1457" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1457" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1457" s="7"/>
       <c r="B1457" s="6"/>
       <c r="C1457" s="6"/>
@@ -15198,7 +15120,7 @@
       <c r="G1457" s="8"/>
       <c r="H1457" s="8"/>
     </row>
-    <row r="1458" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1458" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1458" s="7"/>
       <c r="B1458" s="6"/>
       <c r="C1458" s="6"/>
@@ -15208,7 +15130,7 @@
       <c r="G1458" s="8"/>
       <c r="H1458" s="8"/>
     </row>
-    <row r="1459" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1459" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1459" s="7"/>
       <c r="B1459" s="6"/>
       <c r="C1459" s="6"/>
@@ -15218,7 +15140,7 @@
       <c r="G1459" s="8"/>
       <c r="H1459" s="8"/>
     </row>
-    <row r="1460" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1460" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1460" s="7"/>
       <c r="B1460" s="6"/>
       <c r="C1460" s="6"/>
@@ -15228,7 +15150,7 @@
       <c r="G1460" s="8"/>
       <c r="H1460" s="8"/>
     </row>
-    <row r="1461" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1461" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1461" s="7"/>
       <c r="B1461" s="6"/>
       <c r="C1461" s="6"/>
@@ -15238,7 +15160,7 @@
       <c r="G1461" s="8"/>
       <c r="H1461" s="8"/>
     </row>
-    <row r="1462" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1462" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1462" s="7"/>
       <c r="B1462" s="6"/>
       <c r="C1462" s="6"/>
@@ -15248,7 +15170,7 @@
       <c r="G1462" s="8"/>
       <c r="H1462" s="8"/>
     </row>
-    <row r="1463" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1463" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1463" s="7"/>
       <c r="B1463" s="6"/>
       <c r="C1463" s="6"/>
@@ -15258,7 +15180,7 @@
       <c r="G1463" s="8"/>
       <c r="H1463" s="8"/>
     </row>
-    <row r="1464" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1464" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1464" s="7"/>
       <c r="B1464" s="6"/>
       <c r="C1464" s="6"/>
@@ -15268,7 +15190,7 @@
       <c r="G1464" s="8"/>
       <c r="H1464" s="8"/>
     </row>
-    <row r="1465" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1465" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1465" s="7"/>
       <c r="B1465" s="6"/>
       <c r="C1465" s="6"/>
@@ -15318,7 +15240,7 @@
       <c r="G1469" s="8"/>
       <c r="H1469" s="8"/>
     </row>
-    <row r="1470" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1470" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1470" s="7"/>
       <c r="B1470" s="6"/>
       <c r="C1470" s="6"/>
@@ -15328,7 +15250,7 @@
       <c r="G1470" s="8"/>
       <c r="H1470" s="8"/>
     </row>
-    <row r="1471" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1471" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1471" s="7"/>
       <c r="B1471" s="6"/>
       <c r="C1471" s="6"/>
@@ -15338,7 +15260,7 @@
       <c r="G1471" s="8"/>
       <c r="H1471" s="8"/>
     </row>
-    <row r="1472" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1472" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1472" s="7"/>
       <c r="B1472" s="6"/>
       <c r="C1472" s="6"/>
@@ -15348,7 +15270,7 @@
       <c r="G1472" s="8"/>
       <c r="H1472" s="8"/>
     </row>
-    <row r="1473" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1473" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1473" s="7"/>
       <c r="B1473" s="6"/>
       <c r="C1473" s="6"/>
@@ -15358,7 +15280,7 @@
       <c r="G1473" s="8"/>
       <c r="H1473" s="8"/>
     </row>
-    <row r="1474" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1474" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1474" s="7"/>
       <c r="B1474" s="6"/>
       <c r="C1474" s="6"/>
@@ -15368,7 +15290,7 @@
       <c r="G1474" s="8"/>
       <c r="H1474" s="8"/>
     </row>
-    <row r="1475" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1475" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1475" s="7"/>
       <c r="B1475" s="6"/>
       <c r="C1475" s="6"/>
@@ -15378,7 +15300,7 @@
       <c r="G1475" s="8"/>
       <c r="H1475" s="8"/>
     </row>
-    <row r="1476" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1476" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1476" s="7"/>
       <c r="B1476" s="6"/>
       <c r="C1476" s="6"/>
@@ -15388,7 +15310,7 @@
       <c r="G1476" s="8"/>
       <c r="H1476" s="8"/>
     </row>
-    <row r="1477" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1477" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1477" s="7"/>
       <c r="B1477" s="6"/>
       <c r="C1477" s="6"/>
@@ -15398,7 +15320,7 @@
       <c r="G1477" s="8"/>
       <c r="H1477" s="8"/>
     </row>
-    <row r="1478" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1478" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1478" s="7"/>
       <c r="B1478" s="6"/>
       <c r="C1478" s="6"/>
@@ -15819,134 +15741,134 @@
       <c r="H1519" s="8"/>
     </row>
     <row r="1520" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1520" s="7"/>
-      <c r="B1520" s="6"/>
-      <c r="C1520" s="6"/>
-      <c r="D1520" s="6"/>
-      <c r="E1520" s="6"/>
-      <c r="F1520" s="6"/>
-      <c r="G1520" s="8"/>
-      <c r="H1520" s="8"/>
+      <c r="A1520" s="3"/>
+      <c r="B1520" s="4"/>
+      <c r="C1520" s="4"/>
+      <c r="D1520" s="4"/>
+      <c r="E1520" s="4"/>
+      <c r="F1520" s="4"/>
+      <c r="G1520" s="5"/>
+      <c r="H1520" s="5"/>
     </row>
     <row r="1521" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1521" s="7"/>
-      <c r="B1521" s="6"/>
-      <c r="C1521" s="6"/>
-      <c r="D1521" s="6"/>
-      <c r="E1521" s="6"/>
-      <c r="F1521" s="6"/>
-      <c r="G1521" s="8"/>
-      <c r="H1521" s="8"/>
+      <c r="A1521" s="3"/>
+      <c r="B1521" s="4"/>
+      <c r="C1521" s="4"/>
+      <c r="D1521" s="4"/>
+      <c r="E1521" s="4"/>
+      <c r="F1521" s="4"/>
+      <c r="G1521" s="5"/>
+      <c r="H1521" s="5"/>
     </row>
     <row r="1522" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1522" s="7"/>
-      <c r="B1522" s="6"/>
-      <c r="C1522" s="6"/>
-      <c r="D1522" s="6"/>
-      <c r="E1522" s="6"/>
-      <c r="F1522" s="6"/>
-      <c r="G1522" s="8"/>
-      <c r="H1522" s="8"/>
+      <c r="A1522" s="3"/>
+      <c r="B1522" s="4"/>
+      <c r="C1522" s="4"/>
+      <c r="D1522" s="4"/>
+      <c r="E1522" s="4"/>
+      <c r="F1522" s="4"/>
+      <c r="G1522" s="5"/>
+      <c r="H1522" s="5"/>
     </row>
     <row r="1523" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1523" s="7"/>
-      <c r="B1523" s="6"/>
-      <c r="C1523" s="6"/>
-      <c r="D1523" s="6"/>
-      <c r="E1523" s="6"/>
-      <c r="F1523" s="6"/>
-      <c r="G1523" s="8"/>
-      <c r="H1523" s="8"/>
+      <c r="A1523" s="3"/>
+      <c r="B1523" s="4"/>
+      <c r="C1523" s="4"/>
+      <c r="D1523" s="4"/>
+      <c r="E1523" s="4"/>
+      <c r="F1523" s="4"/>
+      <c r="G1523" s="5"/>
+      <c r="H1523" s="5"/>
     </row>
     <row r="1524" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1524" s="7"/>
-      <c r="B1524" s="6"/>
-      <c r="C1524" s="6"/>
-      <c r="D1524" s="6"/>
-      <c r="E1524" s="6"/>
-      <c r="F1524" s="6"/>
-      <c r="G1524" s="8"/>
-      <c r="H1524" s="8"/>
+      <c r="A1524" s="3"/>
+      <c r="B1524" s="4"/>
+      <c r="C1524" s="4"/>
+      <c r="D1524" s="4"/>
+      <c r="E1524" s="4"/>
+      <c r="F1524" s="4"/>
+      <c r="G1524" s="5"/>
+      <c r="H1524" s="5"/>
     </row>
     <row r="1525" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1525" s="7"/>
-      <c r="B1525" s="6"/>
-      <c r="C1525" s="6"/>
-      <c r="D1525" s="6"/>
-      <c r="E1525" s="6"/>
-      <c r="F1525" s="6"/>
-      <c r="G1525" s="8"/>
-      <c r="H1525" s="8"/>
+      <c r="A1525" s="3"/>
+      <c r="B1525" s="4"/>
+      <c r="C1525" s="4"/>
+      <c r="D1525" s="4"/>
+      <c r="E1525" s="4"/>
+      <c r="F1525" s="4"/>
+      <c r="G1525" s="5"/>
+      <c r="H1525" s="5"/>
     </row>
     <row r="1526" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1526" s="7"/>
-      <c r="B1526" s="6"/>
-      <c r="C1526" s="6"/>
-      <c r="D1526" s="6"/>
-      <c r="E1526" s="6"/>
-      <c r="F1526" s="6"/>
-      <c r="G1526" s="8"/>
-      <c r="H1526" s="8"/>
+      <c r="A1526" s="3"/>
+      <c r="B1526" s="4"/>
+      <c r="C1526" s="4"/>
+      <c r="D1526" s="4"/>
+      <c r="E1526" s="4"/>
+      <c r="F1526" s="4"/>
+      <c r="G1526" s="5"/>
+      <c r="H1526" s="5"/>
     </row>
     <row r="1527" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1527" s="7"/>
-      <c r="B1527" s="6"/>
-      <c r="C1527" s="6"/>
-      <c r="D1527" s="6"/>
-      <c r="E1527" s="6"/>
-      <c r="F1527" s="6"/>
-      <c r="G1527" s="8"/>
-      <c r="H1527" s="8"/>
+      <c r="A1527" s="3"/>
+      <c r="B1527" s="4"/>
+      <c r="C1527" s="4"/>
+      <c r="D1527" s="4"/>
+      <c r="E1527" s="4"/>
+      <c r="F1527" s="4"/>
+      <c r="G1527" s="5"/>
+      <c r="H1527" s="5"/>
     </row>
     <row r="1528" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1528" s="7"/>
-      <c r="B1528" s="6"/>
-      <c r="C1528" s="6"/>
-      <c r="D1528" s="6"/>
-      <c r="E1528" s="6"/>
-      <c r="F1528" s="6"/>
-      <c r="G1528" s="8"/>
-      <c r="H1528" s="8"/>
+      <c r="A1528" s="3"/>
+      <c r="B1528" s="4"/>
+      <c r="C1528" s="4"/>
+      <c r="D1528" s="4"/>
+      <c r="E1528" s="4"/>
+      <c r="F1528" s="4"/>
+      <c r="G1528" s="5"/>
+      <c r="H1528" s="5"/>
     </row>
     <row r="1529" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1529" s="7"/>
-      <c r="B1529" s="6"/>
-      <c r="C1529" s="6"/>
-      <c r="D1529" s="6"/>
-      <c r="E1529" s="6"/>
-      <c r="F1529" s="6"/>
-      <c r="G1529" s="8"/>
-      <c r="H1529" s="8"/>
+      <c r="A1529" s="3"/>
+      <c r="B1529" s="4"/>
+      <c r="C1529" s="4"/>
+      <c r="D1529" s="4"/>
+      <c r="E1529" s="4"/>
+      <c r="F1529" s="4"/>
+      <c r="G1529" s="5"/>
+      <c r="H1529" s="5"/>
     </row>
     <row r="1530" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1530" s="7"/>
-      <c r="B1530" s="6"/>
-      <c r="C1530" s="6"/>
-      <c r="D1530" s="6"/>
-      <c r="E1530" s="6"/>
-      <c r="F1530" s="6"/>
-      <c r="G1530" s="8"/>
-      <c r="H1530" s="8"/>
+      <c r="A1530" s="3"/>
+      <c r="B1530" s="4"/>
+      <c r="C1530" s="4"/>
+      <c r="D1530" s="4"/>
+      <c r="E1530" s="4"/>
+      <c r="F1530" s="4"/>
+      <c r="G1530" s="5"/>
+      <c r="H1530" s="5"/>
     </row>
     <row r="1531" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1531" s="7"/>
-      <c r="B1531" s="6"/>
-      <c r="C1531" s="6"/>
-      <c r="D1531" s="6"/>
-      <c r="E1531" s="6"/>
-      <c r="F1531" s="6"/>
-      <c r="G1531" s="8"/>
-      <c r="H1531" s="8"/>
+      <c r="A1531" s="3"/>
+      <c r="B1531" s="4"/>
+      <c r="C1531" s="4"/>
+      <c r="D1531" s="4"/>
+      <c r="E1531" s="4"/>
+      <c r="F1531" s="4"/>
+      <c r="G1531" s="5"/>
+      <c r="H1531" s="5"/>
     </row>
     <row r="1532" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1532" s="7"/>
-      <c r="B1532" s="6"/>
-      <c r="C1532" s="6"/>
-      <c r="D1532" s="6"/>
-      <c r="E1532" s="6"/>
-      <c r="F1532" s="6"/>
-      <c r="G1532" s="8"/>
-      <c r="H1532" s="8"/>
+      <c r="A1532" s="3"/>
+      <c r="B1532" s="4"/>
+      <c r="C1532" s="4"/>
+      <c r="D1532" s="4"/>
+      <c r="E1532" s="4"/>
+      <c r="F1532" s="4"/>
+      <c r="G1532" s="5"/>
+      <c r="H1532" s="5"/>
     </row>
     <row r="1533" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1533" s="3"/>
@@ -17833,7 +17755,7 @@
       <c r="B1721" s="4"/>
       <c r="C1721" s="4"/>
       <c r="D1721" s="4"/>
-      <c r="E1721" s="4"/>
+      <c r="E1721" s="6"/>
       <c r="F1721" s="4"/>
       <c r="G1721" s="5"/>
       <c r="H1721" s="5"/>
@@ -17888,133 +17810,68 @@
       <c r="G1726" s="5"/>
       <c r="H1726" s="5"/>
     </row>
-    <row r="1727" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1727" s="3"/>
-      <c r="B1727" s="4"/>
-      <c r="C1727" s="4"/>
-      <c r="D1727" s="4"/>
-      <c r="E1727" s="4"/>
-      <c r="F1727" s="4"/>
       <c r="G1727" s="5"/>
       <c r="H1727" s="5"/>
     </row>
-    <row r="1728" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1728" s="3"/>
-      <c r="B1728" s="4"/>
-      <c r="C1728" s="4"/>
-      <c r="D1728" s="4"/>
-      <c r="E1728" s="4"/>
-      <c r="F1728" s="4"/>
       <c r="G1728" s="5"/>
       <c r="H1728" s="5"/>
     </row>
-    <row r="1729" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1729" s="3"/>
-      <c r="B1729" s="4"/>
-      <c r="C1729" s="4"/>
-      <c r="D1729" s="4"/>
-      <c r="E1729" s="4"/>
-      <c r="F1729" s="4"/>
       <c r="G1729" s="5"/>
       <c r="H1729" s="5"/>
     </row>
-    <row r="1730" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1730" s="3"/>
-      <c r="B1730" s="4"/>
-      <c r="C1730" s="4"/>
-      <c r="D1730" s="4"/>
-      <c r="E1730" s="4"/>
-      <c r="F1730" s="4"/>
       <c r="G1730" s="5"/>
       <c r="H1730" s="5"/>
     </row>
-    <row r="1731" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1731" s="3"/>
-      <c r="B1731" s="4"/>
-      <c r="C1731" s="4"/>
-      <c r="D1731" s="4"/>
-      <c r="E1731" s="4"/>
-      <c r="F1731" s="4"/>
       <c r="G1731" s="5"/>
       <c r="H1731" s="5"/>
     </row>
-    <row r="1732" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1732" s="3"/>
-      <c r="B1732" s="4"/>
-      <c r="C1732" s="4"/>
-      <c r="D1732" s="4"/>
-      <c r="E1732" s="4"/>
-      <c r="F1732" s="4"/>
       <c r="G1732" s="5"/>
       <c r="H1732" s="5"/>
     </row>
-    <row r="1733" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1733" s="3"/>
-      <c r="B1733" s="4"/>
-      <c r="C1733" s="4"/>
-      <c r="D1733" s="4"/>
-      <c r="E1733" s="4"/>
-      <c r="F1733" s="4"/>
       <c r="G1733" s="5"/>
       <c r="H1733" s="5"/>
     </row>
-    <row r="1734" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1734" s="3"/>
-      <c r="B1734" s="4"/>
-      <c r="C1734" s="4"/>
-      <c r="D1734" s="4"/>
-      <c r="E1734" s="6"/>
-      <c r="F1734" s="4"/>
       <c r="G1734" s="5"/>
       <c r="H1734" s="5"/>
     </row>
-    <row r="1735" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1735" s="3"/>
-      <c r="B1735" s="4"/>
-      <c r="C1735" s="4"/>
-      <c r="D1735" s="4"/>
-      <c r="E1735" s="4"/>
-      <c r="F1735" s="4"/>
       <c r="G1735" s="5"/>
       <c r="H1735" s="5"/>
     </row>
-    <row r="1736" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1736" s="3"/>
-      <c r="B1736" s="4"/>
-      <c r="C1736" s="4"/>
-      <c r="D1736" s="4"/>
-      <c r="E1736" s="4"/>
-      <c r="F1736" s="4"/>
       <c r="G1736" s="5"/>
       <c r="H1736" s="5"/>
     </row>
-    <row r="1737" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1737" s="3"/>
-      <c r="B1737" s="4"/>
-      <c r="C1737" s="4"/>
-      <c r="D1737" s="4"/>
-      <c r="E1737" s="4"/>
-      <c r="F1737" s="4"/>
       <c r="G1737" s="5"/>
       <c r="H1737" s="5"/>
     </row>
-    <row r="1738" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1738" s="3"/>
-      <c r="B1738" s="4"/>
-      <c r="C1738" s="4"/>
-      <c r="D1738" s="4"/>
-      <c r="E1738" s="4"/>
-      <c r="F1738" s="4"/>
       <c r="G1738" s="5"/>
       <c r="H1738" s="5"/>
     </row>
-    <row r="1739" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1739" s="3"/>
-      <c r="B1739" s="4"/>
-      <c r="C1739" s="4"/>
-      <c r="D1739" s="4"/>
-      <c r="E1739" s="4"/>
-      <c r="F1739" s="4"/>
       <c r="G1739" s="5"/>
       <c r="H1739" s="5"/>
     </row>
@@ -20323,74 +20180,9 @@
       <c r="G2200" s="5"/>
       <c r="H2200" s="5"/>
     </row>
-    <row r="2201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2201" s="3"/>
-      <c r="G2201" s="5"/>
-      <c r="H2201" s="5"/>
-    </row>
-    <row r="2202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2202" s="3"/>
-      <c r="G2202" s="5"/>
-      <c r="H2202" s="5"/>
-    </row>
-    <row r="2203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2203" s="3"/>
-      <c r="G2203" s="5"/>
-      <c r="H2203" s="5"/>
-    </row>
-    <row r="2204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2204" s="3"/>
-      <c r="G2204" s="5"/>
-      <c r="H2204" s="5"/>
-    </row>
-    <row r="2205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2205" s="3"/>
-      <c r="G2205" s="5"/>
-      <c r="H2205" s="5"/>
-    </row>
-    <row r="2206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2206" s="3"/>
-      <c r="G2206" s="5"/>
-      <c r="H2206" s="5"/>
-    </row>
-    <row r="2207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2207" s="3"/>
-      <c r="G2207" s="5"/>
-      <c r="H2207" s="5"/>
-    </row>
-    <row r="2208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2208" s="3"/>
-      <c r="G2208" s="5"/>
-      <c r="H2208" s="5"/>
-    </row>
-    <row r="2209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2209" s="3"/>
-      <c r="G2209" s="5"/>
-      <c r="H2209" s="5"/>
-    </row>
-    <row r="2210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2210" s="3"/>
-      <c r="G2210" s="5"/>
-      <c r="H2210" s="5"/>
-    </row>
-    <row r="2211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2211" s="3"/>
-      <c r="G2211" s="5"/>
-      <c r="H2211" s="5"/>
-    </row>
-    <row r="2212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2212" s="3"/>
-      <c r="G2212" s="5"/>
-      <c r="H2212" s="5"/>
-    </row>
-    <row r="2213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2213" s="3"/>
-      <c r="G2213" s="5"/>
-      <c r="H2213" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H395">
-    <sortCondition descending="1" ref="A1:A395"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H382">
+    <sortCondition descending="1" ref="A1:A382"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_samples/next-week.xlsx
+++ b/data_samples/next-week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4685F85-E63F-4556-846F-5C92AA833301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3517CE-5B41-4A41-9BB7-716342B0E22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-52790" yWindow="3630" windowWidth="28800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="2655" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
   <dimension ref="A1:H2200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,8 +582,12 @@
       <c r="D2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="5">
+        <v>3.13</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -598,8 +602,12 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -614,8 +622,12 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -630,8 +642,12 @@
       <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="5">
+        <v>1.49</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2.63</v>
+      </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -646,8 +662,12 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5">
+        <v>1.37</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -662,8 +682,12 @@
       <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>

--- a/data_samples/next-week.xlsx
+++ b/data_samples/next-week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3517CE-5B41-4A41-9BB7-716342B0E22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1743F7EE-7FBD-44F1-B84F-071EB8F498E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="2655" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,57 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Western Bulldogs</t>
   </si>
   <si>
     <t>Venue</t>
   </si>
   <si>
     <t>MCG</t>
-  </si>
-  <si>
-    <t>West Coast</t>
-  </si>
-  <si>
-    <t>St Kilda</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Brisbane</t>
-  </si>
-  <si>
-    <t>Essendon</t>
-  </si>
-  <si>
-    <t>Adelaide</t>
-  </si>
-  <si>
-    <t>Carlton</t>
-  </si>
-  <si>
-    <t>Richmond</t>
-  </si>
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>Collingwood</t>
-  </si>
-  <si>
-    <t>Fremantle</t>
-  </si>
-  <si>
-    <t>Optus Stadium</t>
-  </si>
-  <si>
-    <t>Marvel Stadium</t>
   </si>
   <si>
     <t>Away_Score</t>
@@ -91,10 +49,76 @@
     <t>Home_Team</t>
   </si>
   <si>
+    <t>Port Adelaide</t>
+  </si>
+  <si>
+    <t>Geelong</t>
+  </si>
+  <si>
+    <t>Hawthorn</t>
+  </si>
+  <si>
+    <t>Gold Coast</t>
+  </si>
+  <si>
+    <t>North Melbourne</t>
+  </si>
+  <si>
+    <t>GWS Giants</t>
+  </si>
+  <si>
+    <t>Western Bulldogs</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Marvel Stadium</t>
+  </si>
+  <si>
+    <t>Carlton</t>
+  </si>
+  <si>
+    <t>Essendon</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>St Kilda</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Collingwood</t>
+  </si>
+  <si>
+    <t>Fremantle</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
     <t>Adelaide Oval</t>
   </si>
   <si>
-    <t>TIO Stadium</t>
+    <t>West Coast</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>GMHBA Stadium</t>
+  </si>
+  <si>
+    <t>University of Tasmania Stadium</t>
+  </si>
+  <si>
+    <t>Mars Stadium</t>
+  </si>
+  <si>
+    <t>Optus Stadium</t>
   </si>
 </sst>
 </file>
@@ -525,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2200"/>
+  <dimension ref="A1:H2156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,176 +572,206 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>44389</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="H2" s="5">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>44388</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.57</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>44388</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>44388</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.37</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>44387</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>44387</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3.72</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>44387</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2.19</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>44386</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>44385</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>21</v>
+      <c r="D10" s="12" t="s">
+        <v>26</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
+      <c r="G10" s="5">
+        <v>1.69</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>20</v>
+      <c r="H10" s="5">
+        <v>2.1800000000000002</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>44353</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5">
-        <v>3.13</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>44353</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1.85</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>44352</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>44352</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1.49</v>
-      </c>
-      <c r="H5" s="5">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>44352</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1.37</v>
-      </c>
-      <c r="H6" s="5">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>44351</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1.77</v>
-      </c>
-      <c r="H7" s="5">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -5073,7 +5127,7 @@
       <c r="A446" s="7"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
-      <c r="D446" s="1"/>
+      <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
       <c r="G446" s="5"/>
@@ -5083,7 +5137,7 @@
       <c r="A447" s="7"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
-      <c r="D447" s="1"/>
+      <c r="D447" s="4"/>
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
       <c r="G447" s="5"/>
@@ -5093,7 +5147,7 @@
       <c r="A448" s="7"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
-      <c r="D448" s="1"/>
+      <c r="D448" s="4"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
       <c r="G448" s="5"/>
@@ -5103,7 +5157,7 @@
       <c r="A449" s="7"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
-      <c r="D449" s="1"/>
+      <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
       <c r="G449" s="5"/>
@@ -5113,7 +5167,7 @@
       <c r="A450" s="7"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
-      <c r="D450" s="1"/>
+      <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
       <c r="G450" s="5"/>
@@ -5123,7 +5177,7 @@
       <c r="A451" s="7"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
-      <c r="D451" s="1"/>
+      <c r="D451" s="4"/>
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
       <c r="G451" s="5"/>
@@ -5133,7 +5187,7 @@
       <c r="A452" s="7"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
-      <c r="D452" s="1"/>
+      <c r="D452" s="4"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
       <c r="G452" s="5"/>
@@ -5143,7 +5197,7 @@
       <c r="A453" s="7"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
-      <c r="D453" s="1"/>
+      <c r="D453" s="4"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
       <c r="G453" s="5"/>
@@ -5153,7 +5207,7 @@
       <c r="A454" s="7"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
-      <c r="D454" s="1"/>
+      <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
       <c r="G454" s="5"/>
@@ -5163,7 +5217,7 @@
       <c r="A455" s="7"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
-      <c r="D455" s="1"/>
+      <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
       <c r="G455" s="5"/>
@@ -5173,7 +5227,7 @@
       <c r="A456" s="7"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
-      <c r="D456" s="1"/>
+      <c r="D456" s="4"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
       <c r="G456" s="5"/>
@@ -5183,7 +5237,7 @@
       <c r="A457" s="7"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
-      <c r="D457" s="1"/>
+      <c r="D457" s="4"/>
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
       <c r="G457" s="5"/>
@@ -5193,7 +5247,7 @@
       <c r="A458" s="7"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
-      <c r="D458" s="1"/>
+      <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
       <c r="G458" s="5"/>
@@ -5203,7 +5257,7 @@
       <c r="A459" s="7"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
-      <c r="D459" s="1"/>
+      <c r="D459" s="4"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
       <c r="G459" s="5"/>
@@ -5213,7 +5267,7 @@
       <c r="A460" s="7"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
-      <c r="D460" s="1"/>
+      <c r="D460" s="4"/>
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
       <c r="G460" s="5"/>
@@ -5223,7 +5277,7 @@
       <c r="A461" s="7"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
-      <c r="D461" s="1"/>
+      <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
       <c r="G461" s="5"/>
@@ -5233,7 +5287,7 @@
       <c r="A462" s="7"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
-      <c r="D462" s="1"/>
+      <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
       <c r="G462" s="5"/>
@@ -5243,7 +5297,7 @@
       <c r="A463" s="7"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
-      <c r="D463" s="1"/>
+      <c r="D463" s="4"/>
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
       <c r="G463" s="5"/>
@@ -5253,7 +5307,7 @@
       <c r="A464" s="7"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
-      <c r="D464" s="1"/>
+      <c r="D464" s="4"/>
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
       <c r="G464" s="5"/>
@@ -5263,7 +5317,7 @@
       <c r="A465" s="7"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
-      <c r="D465" s="1"/>
+      <c r="D465" s="4"/>
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
       <c r="G465" s="5"/>
@@ -5273,7 +5327,7 @@
       <c r="A466" s="7"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
-      <c r="D466" s="1"/>
+      <c r="D466" s="4"/>
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
       <c r="G466" s="5"/>
@@ -5283,7 +5337,7 @@
       <c r="A467" s="7"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
-      <c r="D467" s="1"/>
+      <c r="D467" s="4"/>
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
       <c r="G467" s="5"/>
@@ -5293,7 +5347,7 @@
       <c r="A468" s="7"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
-      <c r="D468" s="1"/>
+      <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
       <c r="G468" s="5"/>
@@ -5303,7 +5357,7 @@
       <c r="A469" s="7"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
-      <c r="D469" s="1"/>
+      <c r="D469" s="4"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
       <c r="G469" s="5"/>
@@ -5313,7 +5367,7 @@
       <c r="A470" s="7"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
-      <c r="D470" s="1"/>
+      <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
       <c r="G470" s="5"/>
@@ -5323,7 +5377,7 @@
       <c r="A471" s="7"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
-      <c r="D471" s="1"/>
+      <c r="D471" s="4"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
       <c r="G471" s="5"/>
@@ -5333,7 +5387,7 @@
       <c r="A472" s="7"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
-      <c r="D472" s="1"/>
+      <c r="D472" s="4"/>
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
       <c r="G472" s="5"/>
@@ -5343,7 +5397,7 @@
       <c r="A473" s="7"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
-      <c r="D473" s="1"/>
+      <c r="D473" s="4"/>
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
       <c r="G473" s="5"/>
@@ -5353,7 +5407,7 @@
       <c r="A474" s="7"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
-      <c r="D474" s="1"/>
+      <c r="D474" s="4"/>
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
       <c r="G474" s="5"/>
@@ -5363,7 +5417,7 @@
       <c r="A475" s="7"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
-      <c r="D475" s="1"/>
+      <c r="D475" s="4"/>
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
       <c r="G475" s="5"/>
@@ -5373,7 +5427,7 @@
       <c r="A476" s="7"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
-      <c r="D476" s="1"/>
+      <c r="D476" s="4"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
       <c r="G476" s="5"/>
@@ -5383,7 +5437,7 @@
       <c r="A477" s="7"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
-      <c r="D477" s="1"/>
+      <c r="D477" s="4"/>
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
       <c r="G477" s="5"/>
@@ -5393,7 +5447,7 @@
       <c r="A478" s="7"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
-      <c r="D478" s="1"/>
+      <c r="D478" s="4"/>
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
       <c r="G478" s="5"/>
@@ -5403,7 +5457,7 @@
       <c r="A479" s="7"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
-      <c r="D479" s="1"/>
+      <c r="D479" s="4"/>
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
       <c r="G479" s="5"/>
@@ -5413,7 +5467,7 @@
       <c r="A480" s="7"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
-      <c r="D480" s="1"/>
+      <c r="D480" s="4"/>
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
       <c r="G480" s="5"/>
@@ -5423,7 +5477,7 @@
       <c r="A481" s="7"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
-      <c r="D481" s="1"/>
+      <c r="D481" s="4"/>
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
       <c r="G481" s="5"/>
@@ -5433,7 +5487,7 @@
       <c r="A482" s="7"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
-      <c r="D482" s="1"/>
+      <c r="D482" s="4"/>
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
       <c r="G482" s="5"/>
@@ -5443,7 +5497,7 @@
       <c r="A483" s="7"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
-      <c r="D483" s="1"/>
+      <c r="D483" s="4"/>
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
       <c r="G483" s="5"/>
@@ -5453,7 +5507,7 @@
       <c r="A484" s="7"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
-      <c r="D484" s="1"/>
+      <c r="D484" s="4"/>
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
       <c r="G484" s="5"/>
@@ -5463,7 +5517,7 @@
       <c r="A485" s="7"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
-      <c r="D485" s="1"/>
+      <c r="D485" s="4"/>
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
       <c r="G485" s="5"/>
@@ -5473,7 +5527,7 @@
       <c r="A486" s="7"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
-      <c r="D486" s="1"/>
+      <c r="D486" s="4"/>
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
       <c r="G486" s="5"/>
@@ -5483,7 +5537,7 @@
       <c r="A487" s="7"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
-      <c r="D487" s="1"/>
+      <c r="D487" s="4"/>
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
       <c r="G487" s="5"/>
@@ -5493,7 +5547,7 @@
       <c r="A488" s="7"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
-      <c r="D488" s="1"/>
+      <c r="D488" s="4"/>
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
       <c r="G488" s="5"/>
@@ -5503,7 +5557,7 @@
       <c r="A489" s="7"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
-      <c r="D489" s="1"/>
+      <c r="D489" s="4"/>
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
       <c r="G489" s="5"/>
@@ -9259,490 +9313,490 @@
       <c r="G864" s="5"/>
       <c r="H864" s="5"/>
     </row>
-    <row r="865" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A865" s="7"/>
-      <c r="B865" s="4"/>
-      <c r="C865" s="4"/>
-      <c r="D865" s="4"/>
-      <c r="E865" s="4"/>
-      <c r="F865" s="4"/>
       <c r="G865" s="5"/>
       <c r="H865" s="5"/>
     </row>
-    <row r="866" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A866" s="7"/>
-      <c r="B866" s="4"/>
-      <c r="C866" s="4"/>
-      <c r="D866" s="4"/>
-      <c r="E866" s="4"/>
-      <c r="F866" s="4"/>
       <c r="G866" s="5"/>
       <c r="H866" s="5"/>
     </row>
-    <row r="867" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A867" s="7"/>
-      <c r="B867" s="4"/>
-      <c r="C867" s="4"/>
-      <c r="D867" s="4"/>
-      <c r="E867" s="4"/>
-      <c r="F867" s="4"/>
       <c r="G867" s="5"/>
       <c r="H867" s="5"/>
     </row>
-    <row r="868" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A868" s="7"/>
-      <c r="B868" s="4"/>
-      <c r="C868" s="4"/>
-      <c r="D868" s="4"/>
-      <c r="E868" s="4"/>
-      <c r="F868" s="4"/>
       <c r="G868" s="5"/>
       <c r="H868" s="5"/>
     </row>
-    <row r="869" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A869" s="7"/>
-      <c r="B869" s="4"/>
-      <c r="C869" s="4"/>
-      <c r="D869" s="4"/>
-      <c r="E869" s="4"/>
-      <c r="F869" s="4"/>
       <c r="G869" s="5"/>
       <c r="H869" s="5"/>
     </row>
-    <row r="870" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A870" s="7"/>
-      <c r="B870" s="4"/>
-      <c r="C870" s="4"/>
-      <c r="D870" s="4"/>
-      <c r="E870" s="4"/>
-      <c r="F870" s="4"/>
       <c r="G870" s="5"/>
       <c r="H870" s="5"/>
     </row>
-    <row r="871" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A871" s="7"/>
-      <c r="B871" s="4"/>
-      <c r="C871" s="4"/>
-      <c r="D871" s="4"/>
-      <c r="E871" s="4"/>
-      <c r="F871" s="4"/>
       <c r="G871" s="5"/>
       <c r="H871" s="5"/>
     </row>
-    <row r="872" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A872" s="7"/>
-      <c r="B872" s="4"/>
-      <c r="C872" s="4"/>
-      <c r="D872" s="4"/>
-      <c r="E872" s="4"/>
-      <c r="F872" s="4"/>
       <c r="G872" s="5"/>
       <c r="H872" s="5"/>
     </row>
-    <row r="873" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A873" s="7"/>
-      <c r="B873" s="4"/>
-      <c r="C873" s="4"/>
-      <c r="D873" s="4"/>
-      <c r="E873" s="4"/>
-      <c r="F873" s="4"/>
       <c r="G873" s="5"/>
       <c r="H873" s="5"/>
     </row>
     <row r="874" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A874" s="7"/>
-      <c r="B874" s="4"/>
-      <c r="C874" s="4"/>
-      <c r="D874" s="4"/>
-      <c r="E874" s="4"/>
-      <c r="F874" s="4"/>
-      <c r="G874" s="5"/>
-      <c r="H874" s="5"/>
+      <c r="B874" s="6"/>
+      <c r="C874" s="6"/>
+      <c r="D874" s="6"/>
+      <c r="E874" s="6"/>
+      <c r="F874" s="6"/>
+      <c r="G874" s="8"/>
+      <c r="H874" s="8"/>
     </row>
     <row r="875" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A875" s="7"/>
-      <c r="B875" s="4"/>
-      <c r="C875" s="4"/>
-      <c r="D875" s="4"/>
-      <c r="E875" s="4"/>
-      <c r="F875" s="4"/>
-      <c r="G875" s="5"/>
-      <c r="H875" s="5"/>
+      <c r="B875" s="6"/>
+      <c r="C875" s="6"/>
+      <c r="D875" s="6"/>
+      <c r="E875" s="6"/>
+      <c r="F875" s="6"/>
+      <c r="G875" s="8"/>
+      <c r="H875" s="8"/>
     </row>
     <row r="876" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A876" s="7"/>
-      <c r="B876" s="4"/>
-      <c r="C876" s="4"/>
-      <c r="D876" s="4"/>
-      <c r="E876" s="4"/>
-      <c r="F876" s="4"/>
-      <c r="G876" s="5"/>
-      <c r="H876" s="5"/>
+      <c r="B876" s="6"/>
+      <c r="C876" s="6"/>
+      <c r="D876" s="6"/>
+      <c r="E876" s="6"/>
+      <c r="F876" s="6"/>
+      <c r="G876" s="8"/>
+      <c r="H876" s="8"/>
     </row>
     <row r="877" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A877" s="7"/>
-      <c r="B877" s="4"/>
-      <c r="C877" s="4"/>
-      <c r="D877" s="4"/>
-      <c r="E877" s="4"/>
-      <c r="F877" s="4"/>
-      <c r="G877" s="5"/>
-      <c r="H877" s="5"/>
+      <c r="B877" s="6"/>
+      <c r="C877" s="6"/>
+      <c r="D877" s="6"/>
+      <c r="E877" s="6"/>
+      <c r="F877" s="6"/>
+      <c r="G877" s="8"/>
+      <c r="H877" s="8"/>
     </row>
     <row r="878" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A878" s="7"/>
-      <c r="B878" s="4"/>
-      <c r="C878" s="4"/>
-      <c r="D878" s="4"/>
-      <c r="E878" s="4"/>
-      <c r="F878" s="4"/>
-      <c r="G878" s="5"/>
-      <c r="H878" s="5"/>
+      <c r="B878" s="6"/>
+      <c r="C878" s="6"/>
+      <c r="D878" s="6"/>
+      <c r="E878" s="6"/>
+      <c r="F878" s="6"/>
+      <c r="G878" s="8"/>
+      <c r="H878" s="8"/>
     </row>
     <row r="879" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A879" s="7"/>
-      <c r="B879" s="4"/>
-      <c r="C879" s="4"/>
-      <c r="D879" s="4"/>
-      <c r="E879" s="4"/>
-      <c r="F879" s="4"/>
-      <c r="G879" s="5"/>
-      <c r="H879" s="5"/>
+      <c r="B879" s="6"/>
+      <c r="C879" s="6"/>
+      <c r="D879" s="6"/>
+      <c r="E879" s="6"/>
+      <c r="F879" s="6"/>
+      <c r="G879" s="8"/>
+      <c r="H879" s="8"/>
     </row>
     <row r="880" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A880" s="7"/>
-      <c r="B880" s="4"/>
-      <c r="C880" s="4"/>
-      <c r="D880" s="4"/>
-      <c r="E880" s="4"/>
-      <c r="F880" s="4"/>
-      <c r="G880" s="5"/>
-      <c r="H880" s="5"/>
+      <c r="B880" s="6"/>
+      <c r="C880" s="6"/>
+      <c r="D880" s="6"/>
+      <c r="E880" s="6"/>
+      <c r="F880" s="6"/>
+      <c r="G880" s="8"/>
+      <c r="H880" s="8"/>
     </row>
     <row r="881" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A881" s="7"/>
-      <c r="B881" s="4"/>
-      <c r="C881" s="4"/>
-      <c r="D881" s="4"/>
-      <c r="E881" s="4"/>
-      <c r="F881" s="4"/>
-      <c r="G881" s="5"/>
-      <c r="H881" s="5"/>
+      <c r="B881" s="6"/>
+      <c r="C881" s="6"/>
+      <c r="D881" s="6"/>
+      <c r="E881" s="6"/>
+      <c r="F881" s="6"/>
+      <c r="G881" s="8"/>
+      <c r="H881" s="8"/>
     </row>
     <row r="882" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A882" s="7"/>
-      <c r="B882" s="4"/>
-      <c r="C882" s="4"/>
-      <c r="D882" s="4"/>
-      <c r="E882" s="4"/>
-      <c r="F882" s="4"/>
-      <c r="G882" s="5"/>
-      <c r="H882" s="5"/>
+      <c r="B882" s="6"/>
+      <c r="C882" s="6"/>
+      <c r="D882" s="6"/>
+      <c r="E882" s="6"/>
+      <c r="F882" s="6"/>
+      <c r="G882" s="8"/>
+      <c r="H882" s="8"/>
     </row>
     <row r="883" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A883" s="7"/>
-      <c r="B883" s="4"/>
-      <c r="C883" s="4"/>
-      <c r="D883" s="4"/>
-      <c r="E883" s="4"/>
-      <c r="F883" s="4"/>
-      <c r="G883" s="5"/>
-      <c r="H883" s="5"/>
+      <c r="B883" s="6"/>
+      <c r="C883" s="6"/>
+      <c r="D883" s="6"/>
+      <c r="E883" s="6"/>
+      <c r="F883" s="6"/>
+      <c r="G883" s="8"/>
+      <c r="H883" s="8"/>
     </row>
     <row r="884" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A884" s="7"/>
-      <c r="B884" s="4"/>
-      <c r="C884" s="4"/>
-      <c r="D884" s="4"/>
-      <c r="E884" s="4"/>
-      <c r="F884" s="4"/>
-      <c r="G884" s="5"/>
-      <c r="H884" s="5"/>
+      <c r="B884" s="6"/>
+      <c r="C884" s="6"/>
+      <c r="D884" s="6"/>
+      <c r="E884" s="6"/>
+      <c r="F884" s="6"/>
+      <c r="G884" s="8"/>
+      <c r="H884" s="8"/>
     </row>
     <row r="885" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A885" s="7"/>
-      <c r="B885" s="4"/>
-      <c r="C885" s="4"/>
-      <c r="D885" s="4"/>
-      <c r="E885" s="4"/>
-      <c r="F885" s="4"/>
-      <c r="G885" s="5"/>
-      <c r="H885" s="5"/>
+      <c r="B885" s="6"/>
+      <c r="C885" s="6"/>
+      <c r="D885" s="6"/>
+      <c r="E885" s="6"/>
+      <c r="F885" s="6"/>
+      <c r="G885" s="8"/>
+      <c r="H885" s="8"/>
     </row>
     <row r="886" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A886" s="7"/>
-      <c r="B886" s="4"/>
-      <c r="C886" s="4"/>
-      <c r="D886" s="4"/>
-      <c r="E886" s="4"/>
-      <c r="F886" s="4"/>
-      <c r="G886" s="5"/>
-      <c r="H886" s="5"/>
+      <c r="B886" s="6"/>
+      <c r="C886" s="6"/>
+      <c r="D886" s="6"/>
+      <c r="E886" s="6"/>
+      <c r="F886" s="6"/>
+      <c r="G886" s="8"/>
+      <c r="H886" s="8"/>
     </row>
     <row r="887" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A887" s="7"/>
-      <c r="B887" s="4"/>
-      <c r="C887" s="4"/>
-      <c r="D887" s="4"/>
-      <c r="E887" s="4"/>
-      <c r="F887" s="4"/>
-      <c r="G887" s="5"/>
-      <c r="H887" s="5"/>
+      <c r="B887" s="6"/>
+      <c r="C887" s="6"/>
+      <c r="D887" s="6"/>
+      <c r="E887" s="6"/>
+      <c r="F887" s="6"/>
+      <c r="G887" s="8"/>
+      <c r="H887" s="8"/>
     </row>
     <row r="888" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A888" s="7"/>
-      <c r="B888" s="4"/>
-      <c r="C888" s="4"/>
-      <c r="D888" s="4"/>
-      <c r="E888" s="4"/>
-      <c r="F888" s="4"/>
-      <c r="G888" s="5"/>
-      <c r="H888" s="5"/>
+      <c r="B888" s="6"/>
+      <c r="C888" s="6"/>
+      <c r="D888" s="6"/>
+      <c r="E888" s="6"/>
+      <c r="F888" s="6"/>
+      <c r="G888" s="8"/>
+      <c r="H888" s="8"/>
     </row>
     <row r="889" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A889" s="7"/>
-      <c r="B889" s="4"/>
-      <c r="C889" s="4"/>
-      <c r="D889" s="4"/>
-      <c r="E889" s="4"/>
-      <c r="F889" s="4"/>
-      <c r="G889" s="5"/>
-      <c r="H889" s="5"/>
+      <c r="B889" s="6"/>
+      <c r="C889" s="6"/>
+      <c r="D889" s="6"/>
+      <c r="E889" s="6"/>
+      <c r="F889" s="6"/>
+      <c r="G889" s="8"/>
+      <c r="H889" s="8"/>
     </row>
     <row r="890" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A890" s="7"/>
-      <c r="B890" s="4"/>
-      <c r="C890" s="4"/>
-      <c r="D890" s="4"/>
-      <c r="E890" s="4"/>
-      <c r="F890" s="4"/>
-      <c r="G890" s="5"/>
-      <c r="H890" s="5"/>
+      <c r="B890" s="6"/>
+      <c r="C890" s="6"/>
+      <c r="D890" s="6"/>
+      <c r="E890" s="6"/>
+      <c r="F890" s="6"/>
+      <c r="G890" s="8"/>
+      <c r="H890" s="8"/>
     </row>
     <row r="891" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A891" s="7"/>
-      <c r="B891" s="4"/>
-      <c r="C891" s="4"/>
-      <c r="D891" s="4"/>
-      <c r="E891" s="4"/>
-      <c r="F891" s="4"/>
-      <c r="G891" s="5"/>
-      <c r="H891" s="5"/>
+      <c r="B891" s="6"/>
+      <c r="C891" s="6"/>
+      <c r="D891" s="6"/>
+      <c r="E891" s="6"/>
+      <c r="F891" s="6"/>
+      <c r="G891" s="8"/>
+      <c r="H891" s="8"/>
     </row>
     <row r="892" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A892" s="7"/>
-      <c r="B892" s="4"/>
-      <c r="C892" s="4"/>
-      <c r="D892" s="4"/>
-      <c r="E892" s="4"/>
-      <c r="F892" s="4"/>
-      <c r="G892" s="5"/>
-      <c r="H892" s="5"/>
+      <c r="B892" s="6"/>
+      <c r="C892" s="6"/>
+      <c r="D892" s="6"/>
+      <c r="E892" s="6"/>
+      <c r="F892" s="6"/>
+      <c r="G892" s="8"/>
+      <c r="H892" s="8"/>
     </row>
     <row r="893" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A893" s="7"/>
-      <c r="B893" s="4"/>
-      <c r="C893" s="4"/>
-      <c r="D893" s="4"/>
-      <c r="E893" s="4"/>
-      <c r="F893" s="4"/>
-      <c r="G893" s="5"/>
-      <c r="H893" s="5"/>
+      <c r="B893" s="6"/>
+      <c r="C893" s="6"/>
+      <c r="D893" s="6"/>
+      <c r="E893" s="6"/>
+      <c r="F893" s="6"/>
+      <c r="G893" s="8"/>
+      <c r="H893" s="8"/>
     </row>
     <row r="894" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A894" s="7"/>
-      <c r="B894" s="4"/>
-      <c r="C894" s="4"/>
-      <c r="D894" s="4"/>
-      <c r="E894" s="4"/>
-      <c r="F894" s="4"/>
-      <c r="G894" s="5"/>
-      <c r="H894" s="5"/>
+      <c r="B894" s="6"/>
+      <c r="C894" s="6"/>
+      <c r="D894" s="6"/>
+      <c r="E894" s="6"/>
+      <c r="F894" s="6"/>
+      <c r="G894" s="8"/>
+      <c r="H894" s="8"/>
     </row>
     <row r="895" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A895" s="7"/>
-      <c r="B895" s="4"/>
-      <c r="C895" s="4"/>
-      <c r="D895" s="4"/>
-      <c r="E895" s="4"/>
-      <c r="F895" s="4"/>
-      <c r="G895" s="5"/>
-      <c r="H895" s="5"/>
+      <c r="B895" s="6"/>
+      <c r="C895" s="6"/>
+      <c r="D895" s="6"/>
+      <c r="E895" s="6"/>
+      <c r="F895" s="6"/>
+      <c r="G895" s="8"/>
+      <c r="H895" s="8"/>
     </row>
     <row r="896" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A896" s="7"/>
-      <c r="B896" s="4"/>
-      <c r="C896" s="4"/>
-      <c r="D896" s="4"/>
-      <c r="E896" s="4"/>
-      <c r="F896" s="4"/>
-      <c r="G896" s="5"/>
-      <c r="H896" s="5"/>
+      <c r="B896" s="6"/>
+      <c r="C896" s="6"/>
+      <c r="D896" s="6"/>
+      <c r="E896" s="6"/>
+      <c r="F896" s="6"/>
+      <c r="G896" s="8"/>
+      <c r="H896" s="8"/>
     </row>
     <row r="897" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A897" s="7"/>
-      <c r="B897" s="4"/>
-      <c r="C897" s="4"/>
-      <c r="D897" s="4"/>
-      <c r="E897" s="4"/>
-      <c r="F897" s="4"/>
-      <c r="G897" s="5"/>
-      <c r="H897" s="5"/>
+      <c r="B897" s="6"/>
+      <c r="C897" s="6"/>
+      <c r="D897" s="6"/>
+      <c r="E897" s="6"/>
+      <c r="F897" s="6"/>
+      <c r="G897" s="8"/>
+      <c r="H897" s="8"/>
     </row>
     <row r="898" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A898" s="7"/>
-      <c r="B898" s="4"/>
-      <c r="C898" s="4"/>
-      <c r="D898" s="4"/>
-      <c r="E898" s="4"/>
-      <c r="F898" s="4"/>
-      <c r="G898" s="5"/>
-      <c r="H898" s="5"/>
+      <c r="B898" s="6"/>
+      <c r="C898" s="6"/>
+      <c r="D898" s="6"/>
+      <c r="E898" s="6"/>
+      <c r="F898" s="6"/>
+      <c r="G898" s="8"/>
+      <c r="H898" s="8"/>
     </row>
     <row r="899" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A899" s="7"/>
-      <c r="B899" s="4"/>
-      <c r="C899" s="4"/>
-      <c r="D899" s="4"/>
-      <c r="E899" s="4"/>
-      <c r="F899" s="4"/>
-      <c r="G899" s="5"/>
-      <c r="H899" s="5"/>
+      <c r="B899" s="6"/>
+      <c r="C899" s="6"/>
+      <c r="D899" s="6"/>
+      <c r="E899" s="6"/>
+      <c r="F899" s="6"/>
+      <c r="G899" s="8"/>
+      <c r="H899" s="8"/>
     </row>
     <row r="900" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A900" s="7"/>
-      <c r="B900" s="4"/>
-      <c r="C900" s="4"/>
-      <c r="D900" s="4"/>
-      <c r="E900" s="4"/>
-      <c r="F900" s="4"/>
-      <c r="G900" s="5"/>
-      <c r="H900" s="5"/>
+      <c r="B900" s="6"/>
+      <c r="C900" s="6"/>
+      <c r="D900" s="6"/>
+      <c r="E900" s="6"/>
+      <c r="F900" s="6"/>
+      <c r="G900" s="8"/>
+      <c r="H900" s="8"/>
     </row>
     <row r="901" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A901" s="7"/>
-      <c r="B901" s="4"/>
-      <c r="C901" s="4"/>
-      <c r="D901" s="4"/>
-      <c r="E901" s="4"/>
-      <c r="F901" s="4"/>
-      <c r="G901" s="5"/>
-      <c r="H901" s="5"/>
+      <c r="B901" s="6"/>
+      <c r="C901" s="6"/>
+      <c r="D901" s="6"/>
+      <c r="E901" s="6"/>
+      <c r="F901" s="6"/>
+      <c r="G901" s="8"/>
+      <c r="H901" s="8"/>
     </row>
     <row r="902" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A902" s="7"/>
-      <c r="B902" s="4"/>
-      <c r="C902" s="4"/>
-      <c r="D902" s="4"/>
-      <c r="E902" s="4"/>
-      <c r="F902" s="4"/>
-      <c r="G902" s="5"/>
-      <c r="H902" s="5"/>
+      <c r="B902" s="6"/>
+      <c r="C902" s="6"/>
+      <c r="D902" s="6"/>
+      <c r="E902" s="6"/>
+      <c r="F902" s="6"/>
+      <c r="G902" s="8"/>
+      <c r="H902" s="8"/>
     </row>
     <row r="903" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A903" s="7"/>
-      <c r="B903" s="4"/>
-      <c r="C903" s="4"/>
-      <c r="D903" s="4"/>
-      <c r="E903" s="4"/>
-      <c r="F903" s="4"/>
-      <c r="G903" s="5"/>
-      <c r="H903" s="5"/>
+      <c r="B903" s="6"/>
+      <c r="C903" s="6"/>
+      <c r="D903" s="6"/>
+      <c r="E903" s="6"/>
+      <c r="F903" s="6"/>
+      <c r="G903" s="8"/>
+      <c r="H903" s="8"/>
     </row>
     <row r="904" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A904" s="7"/>
-      <c r="B904" s="4"/>
-      <c r="C904" s="4"/>
-      <c r="D904" s="4"/>
-      <c r="E904" s="4"/>
-      <c r="F904" s="4"/>
-      <c r="G904" s="5"/>
-      <c r="H904" s="5"/>
+      <c r="B904" s="6"/>
+      <c r="C904" s="6"/>
+      <c r="D904" s="6"/>
+      <c r="E904" s="6"/>
+      <c r="F904" s="6"/>
+      <c r="G904" s="8"/>
+      <c r="H904" s="8"/>
     </row>
     <row r="905" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A905" s="7"/>
-      <c r="B905" s="4"/>
-      <c r="C905" s="4"/>
-      <c r="D905" s="4"/>
-      <c r="E905" s="4"/>
-      <c r="F905" s="4"/>
-      <c r="G905" s="5"/>
-      <c r="H905" s="5"/>
+      <c r="B905" s="6"/>
+      <c r="C905" s="6"/>
+      <c r="D905" s="6"/>
+      <c r="E905" s="6"/>
+      <c r="F905" s="6"/>
+      <c r="G905" s="8"/>
+      <c r="H905" s="8"/>
     </row>
     <row r="906" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A906" s="7"/>
-      <c r="B906" s="4"/>
-      <c r="C906" s="4"/>
-      <c r="D906" s="4"/>
-      <c r="E906" s="4"/>
-      <c r="F906" s="4"/>
-      <c r="G906" s="5"/>
-      <c r="H906" s="5"/>
+      <c r="B906" s="6"/>
+      <c r="C906" s="6"/>
+      <c r="D906" s="6"/>
+      <c r="E906" s="6"/>
+      <c r="F906" s="6"/>
+      <c r="G906" s="8"/>
+      <c r="H906" s="8"/>
     </row>
     <row r="907" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A907" s="7"/>
-      <c r="B907" s="4"/>
-      <c r="C907" s="4"/>
-      <c r="D907" s="4"/>
-      <c r="E907" s="4"/>
-      <c r="F907" s="4"/>
-      <c r="G907" s="5"/>
-      <c r="H907" s="5"/>
+      <c r="B907" s="6"/>
+      <c r="C907" s="6"/>
+      <c r="D907" s="6"/>
+      <c r="E907" s="6"/>
+      <c r="F907" s="6"/>
+      <c r="G907" s="8"/>
+      <c r="H907" s="8"/>
     </row>
     <row r="908" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A908" s="7"/>
-      <c r="B908" s="4"/>
-      <c r="C908" s="4"/>
-      <c r="D908" s="4"/>
-      <c r="E908" s="4"/>
-      <c r="F908" s="4"/>
-      <c r="G908" s="5"/>
-      <c r="H908" s="5"/>
-    </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B908" s="6"/>
+      <c r="C908" s="6"/>
+      <c r="D908" s="6"/>
+      <c r="E908" s="6"/>
+      <c r="F908" s="6"/>
+      <c r="G908" s="8"/>
+      <c r="H908" s="8"/>
+    </row>
+    <row r="909" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A909" s="7"/>
-      <c r="G909" s="5"/>
-      <c r="H909" s="5"/>
-    </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B909" s="6"/>
+      <c r="C909" s="6"/>
+      <c r="D909" s="6"/>
+      <c r="E909" s="6"/>
+      <c r="F909" s="6"/>
+      <c r="G909" s="8"/>
+      <c r="H909" s="8"/>
+    </row>
+    <row r="910" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A910" s="7"/>
-      <c r="G910" s="5"/>
-      <c r="H910" s="5"/>
-    </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B910" s="6"/>
+      <c r="C910" s="6"/>
+      <c r="D910" s="6"/>
+      <c r="E910" s="6"/>
+      <c r="F910" s="6"/>
+      <c r="G910" s="8"/>
+      <c r="H910" s="8"/>
+    </row>
+    <row r="911" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A911" s="7"/>
-      <c r="G911" s="5"/>
-      <c r="H911" s="5"/>
-    </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B911" s="6"/>
+      <c r="C911" s="6"/>
+      <c r="D911" s="6"/>
+      <c r="E911" s="6"/>
+      <c r="F911" s="6"/>
+      <c r="G911" s="8"/>
+      <c r="H911" s="8"/>
+    </row>
+    <row r="912" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A912" s="7"/>
-      <c r="G912" s="5"/>
-      <c r="H912" s="5"/>
-    </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B912" s="6"/>
+      <c r="C912" s="6"/>
+      <c r="D912" s="6"/>
+      <c r="E912" s="6"/>
+      <c r="F912" s="6"/>
+      <c r="G912" s="8"/>
+      <c r="H912" s="8"/>
+    </row>
+    <row r="913" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A913" s="7"/>
-      <c r="G913" s="5"/>
-      <c r="H913" s="5"/>
-    </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B913" s="6"/>
+      <c r="C913" s="6"/>
+      <c r="D913" s="6"/>
+      <c r="E913" s="6"/>
+      <c r="F913" s="6"/>
+      <c r="G913" s="8"/>
+      <c r="H913" s="8"/>
+    </row>
+    <row r="914" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A914" s="7"/>
-      <c r="G914" s="5"/>
-      <c r="H914" s="5"/>
-    </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B914" s="6"/>
+      <c r="C914" s="6"/>
+      <c r="D914" s="6"/>
+      <c r="E914" s="6"/>
+      <c r="F914" s="6"/>
+      <c r="G914" s="8"/>
+      <c r="H914" s="8"/>
+    </row>
+    <row r="915" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A915" s="7"/>
-      <c r="G915" s="5"/>
-      <c r="H915" s="5"/>
-    </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B915" s="6"/>
+      <c r="C915" s="6"/>
+      <c r="D915" s="6"/>
+      <c r="E915" s="6"/>
+      <c r="F915" s="6"/>
+      <c r="G915" s="8"/>
+      <c r="H915" s="8"/>
+    </row>
+    <row r="916" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A916" s="7"/>
-      <c r="G916" s="5"/>
-      <c r="H916" s="5"/>
-    </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B916" s="6"/>
+      <c r="C916" s="6"/>
+      <c r="D916" s="6"/>
+      <c r="E916" s="6"/>
+      <c r="F916" s="6"/>
+      <c r="G916" s="8"/>
+      <c r="H916" s="8"/>
+    </row>
+    <row r="917" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A917" s="7"/>
-      <c r="G917" s="5"/>
-      <c r="H917" s="5"/>
+      <c r="B917" s="6"/>
+      <c r="C917" s="6"/>
+      <c r="D917" s="6"/>
+      <c r="E917" s="6"/>
+      <c r="F917" s="6"/>
+      <c r="G917" s="8"/>
+      <c r="H917" s="8"/>
     </row>
     <row r="918" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A918" s="7"/>
@@ -14694,7 +14748,7 @@
       <c r="G1412" s="8"/>
       <c r="H1412" s="8"/>
     </row>
-    <row r="1413" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1413" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1413" s="7"/>
       <c r="B1413" s="6"/>
       <c r="C1413" s="6"/>
@@ -14704,7 +14758,7 @@
       <c r="G1413" s="8"/>
       <c r="H1413" s="8"/>
     </row>
-    <row r="1414" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1414" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1414" s="7"/>
       <c r="B1414" s="6"/>
       <c r="C1414" s="6"/>
@@ -14714,7 +14768,7 @@
       <c r="G1414" s="8"/>
       <c r="H1414" s="8"/>
     </row>
-    <row r="1415" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1415" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1415" s="7"/>
       <c r="B1415" s="6"/>
       <c r="C1415" s="6"/>
@@ -14724,7 +14778,7 @@
       <c r="G1415" s="8"/>
       <c r="H1415" s="8"/>
     </row>
-    <row r="1416" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1416" s="7"/>
       <c r="B1416" s="6"/>
       <c r="C1416" s="6"/>
@@ -14734,7 +14788,7 @@
       <c r="G1416" s="8"/>
       <c r="H1416" s="8"/>
     </row>
-    <row r="1417" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1417" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1417" s="7"/>
       <c r="B1417" s="6"/>
       <c r="C1417" s="6"/>
@@ -14744,7 +14798,7 @@
       <c r="G1417" s="8"/>
       <c r="H1417" s="8"/>
     </row>
-    <row r="1418" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1418" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1418" s="7"/>
       <c r="B1418" s="6"/>
       <c r="C1418" s="6"/>
@@ -14754,7 +14808,7 @@
       <c r="G1418" s="8"/>
       <c r="H1418" s="8"/>
     </row>
-    <row r="1419" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1419" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1419" s="7"/>
       <c r="B1419" s="6"/>
       <c r="C1419" s="6"/>
@@ -14764,7 +14818,7 @@
       <c r="G1419" s="8"/>
       <c r="H1419" s="8"/>
     </row>
-    <row r="1420" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1420" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1420" s="7"/>
       <c r="B1420" s="6"/>
       <c r="C1420" s="6"/>
@@ -14774,7 +14828,7 @@
       <c r="G1420" s="8"/>
       <c r="H1420" s="8"/>
     </row>
-    <row r="1421" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1421" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1421" s="7"/>
       <c r="B1421" s="6"/>
       <c r="C1421" s="6"/>
@@ -15134,7 +15188,7 @@
       <c r="G1456" s="8"/>
       <c r="H1456" s="8"/>
     </row>
-    <row r="1457" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1457" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1457" s="7"/>
       <c r="B1457" s="6"/>
       <c r="C1457" s="6"/>
@@ -15144,7 +15198,7 @@
       <c r="G1457" s="8"/>
       <c r="H1457" s="8"/>
     </row>
-    <row r="1458" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1458" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1458" s="7"/>
       <c r="B1458" s="6"/>
       <c r="C1458" s="6"/>
@@ -15154,7 +15208,7 @@
       <c r="G1458" s="8"/>
       <c r="H1458" s="8"/>
     </row>
-    <row r="1459" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1459" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1459" s="7"/>
       <c r="B1459" s="6"/>
       <c r="C1459" s="6"/>
@@ -15164,7 +15218,7 @@
       <c r="G1459" s="8"/>
       <c r="H1459" s="8"/>
     </row>
-    <row r="1460" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1460" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1460" s="7"/>
       <c r="B1460" s="6"/>
       <c r="C1460" s="6"/>
@@ -15174,7 +15228,7 @@
       <c r="G1460" s="8"/>
       <c r="H1460" s="8"/>
     </row>
-    <row r="1461" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1461" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1461" s="7"/>
       <c r="B1461" s="6"/>
       <c r="C1461" s="6"/>
@@ -15184,7 +15238,7 @@
       <c r="G1461" s="8"/>
       <c r="H1461" s="8"/>
     </row>
-    <row r="1462" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1462" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1462" s="7"/>
       <c r="B1462" s="6"/>
       <c r="C1462" s="6"/>
@@ -15194,7 +15248,7 @@
       <c r="G1462" s="8"/>
       <c r="H1462" s="8"/>
     </row>
-    <row r="1463" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1463" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1463" s="7"/>
       <c r="B1463" s="6"/>
       <c r="C1463" s="6"/>
@@ -15204,7 +15258,7 @@
       <c r="G1463" s="8"/>
       <c r="H1463" s="8"/>
     </row>
-    <row r="1464" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1464" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1464" s="7"/>
       <c r="B1464" s="6"/>
       <c r="C1464" s="6"/>
@@ -15214,7 +15268,7 @@
       <c r="G1464" s="8"/>
       <c r="H1464" s="8"/>
     </row>
-    <row r="1465" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1465" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1465" s="7"/>
       <c r="B1465" s="6"/>
       <c r="C1465" s="6"/>
@@ -15325,444 +15379,444 @@
       <c r="H1475" s="8"/>
     </row>
     <row r="1476" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1476" s="7"/>
-      <c r="B1476" s="6"/>
-      <c r="C1476" s="6"/>
-      <c r="D1476" s="6"/>
-      <c r="E1476" s="6"/>
-      <c r="F1476" s="6"/>
-      <c r="G1476" s="8"/>
-      <c r="H1476" s="8"/>
+      <c r="A1476" s="3"/>
+      <c r="B1476" s="4"/>
+      <c r="C1476" s="4"/>
+      <c r="D1476" s="4"/>
+      <c r="E1476" s="4"/>
+      <c r="F1476" s="4"/>
+      <c r="G1476" s="5"/>
+      <c r="H1476" s="5"/>
     </row>
     <row r="1477" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1477" s="7"/>
-      <c r="B1477" s="6"/>
-      <c r="C1477" s="6"/>
-      <c r="D1477" s="6"/>
-      <c r="E1477" s="6"/>
-      <c r="F1477" s="6"/>
-      <c r="G1477" s="8"/>
-      <c r="H1477" s="8"/>
+      <c r="A1477" s="3"/>
+      <c r="B1477" s="4"/>
+      <c r="C1477" s="4"/>
+      <c r="D1477" s="4"/>
+      <c r="E1477" s="4"/>
+      <c r="F1477" s="4"/>
+      <c r="G1477" s="5"/>
+      <c r="H1477" s="5"/>
     </row>
     <row r="1478" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1478" s="7"/>
-      <c r="B1478" s="6"/>
-      <c r="C1478" s="6"/>
-      <c r="D1478" s="6"/>
-      <c r="E1478" s="6"/>
-      <c r="F1478" s="6"/>
-      <c r="G1478" s="8"/>
-      <c r="H1478" s="8"/>
+      <c r="A1478" s="3"/>
+      <c r="B1478" s="4"/>
+      <c r="C1478" s="4"/>
+      <c r="D1478" s="4"/>
+      <c r="E1478" s="4"/>
+      <c r="F1478" s="4"/>
+      <c r="G1478" s="5"/>
+      <c r="H1478" s="5"/>
     </row>
     <row r="1479" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1479" s="7"/>
-      <c r="B1479" s="6"/>
-      <c r="C1479" s="6"/>
-      <c r="D1479" s="6"/>
-      <c r="E1479" s="6"/>
-      <c r="F1479" s="6"/>
-      <c r="G1479" s="8"/>
-      <c r="H1479" s="8"/>
+      <c r="A1479" s="3"/>
+      <c r="B1479" s="4"/>
+      <c r="C1479" s="4"/>
+      <c r="D1479" s="4"/>
+      <c r="E1479" s="4"/>
+      <c r="F1479" s="4"/>
+      <c r="G1479" s="5"/>
+      <c r="H1479" s="5"/>
     </row>
     <row r="1480" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1480" s="7"/>
-      <c r="B1480" s="6"/>
-      <c r="C1480" s="6"/>
-      <c r="D1480" s="6"/>
-      <c r="E1480" s="6"/>
-      <c r="F1480" s="6"/>
-      <c r="G1480" s="8"/>
-      <c r="H1480" s="8"/>
+      <c r="A1480" s="3"/>
+      <c r="B1480" s="4"/>
+      <c r="C1480" s="4"/>
+      <c r="D1480" s="4"/>
+      <c r="E1480" s="4"/>
+      <c r="F1480" s="4"/>
+      <c r="G1480" s="5"/>
+      <c r="H1480" s="5"/>
     </row>
     <row r="1481" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1481" s="7"/>
-      <c r="B1481" s="6"/>
-      <c r="C1481" s="6"/>
-      <c r="D1481" s="6"/>
-      <c r="E1481" s="6"/>
-      <c r="F1481" s="6"/>
-      <c r="G1481" s="8"/>
-      <c r="H1481" s="8"/>
+      <c r="A1481" s="3"/>
+      <c r="B1481" s="4"/>
+      <c r="C1481" s="4"/>
+      <c r="D1481" s="4"/>
+      <c r="E1481" s="4"/>
+      <c r="F1481" s="4"/>
+      <c r="G1481" s="5"/>
+      <c r="H1481" s="5"/>
     </row>
     <row r="1482" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1482" s="7"/>
-      <c r="B1482" s="6"/>
-      <c r="C1482" s="6"/>
-      <c r="D1482" s="6"/>
-      <c r="E1482" s="6"/>
-      <c r="F1482" s="6"/>
-      <c r="G1482" s="8"/>
-      <c r="H1482" s="8"/>
+      <c r="A1482" s="3"/>
+      <c r="B1482" s="4"/>
+      <c r="C1482" s="4"/>
+      <c r="D1482" s="4"/>
+      <c r="E1482" s="4"/>
+      <c r="F1482" s="4"/>
+      <c r="G1482" s="5"/>
+      <c r="H1482" s="5"/>
     </row>
     <row r="1483" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1483" s="7"/>
-      <c r="B1483" s="6"/>
-      <c r="C1483" s="6"/>
-      <c r="D1483" s="6"/>
-      <c r="E1483" s="6"/>
-      <c r="F1483" s="6"/>
-      <c r="G1483" s="8"/>
-      <c r="H1483" s="8"/>
+      <c r="A1483" s="3"/>
+      <c r="B1483" s="4"/>
+      <c r="C1483" s="4"/>
+      <c r="D1483" s="4"/>
+      <c r="E1483" s="4"/>
+      <c r="F1483" s="4"/>
+      <c r="G1483" s="5"/>
+      <c r="H1483" s="5"/>
     </row>
     <row r="1484" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1484" s="7"/>
-      <c r="B1484" s="6"/>
-      <c r="C1484" s="6"/>
-      <c r="D1484" s="6"/>
-      <c r="E1484" s="6"/>
-      <c r="F1484" s="6"/>
-      <c r="G1484" s="8"/>
-      <c r="H1484" s="8"/>
+      <c r="A1484" s="3"/>
+      <c r="B1484" s="4"/>
+      <c r="C1484" s="4"/>
+      <c r="D1484" s="4"/>
+      <c r="E1484" s="4"/>
+      <c r="F1484" s="4"/>
+      <c r="G1484" s="5"/>
+      <c r="H1484" s="5"/>
     </row>
     <row r="1485" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1485" s="7"/>
-      <c r="B1485" s="6"/>
-      <c r="C1485" s="6"/>
-      <c r="D1485" s="6"/>
-      <c r="E1485" s="6"/>
-      <c r="F1485" s="6"/>
-      <c r="G1485" s="8"/>
-      <c r="H1485" s="8"/>
+      <c r="A1485" s="3"/>
+      <c r="B1485" s="4"/>
+      <c r="C1485" s="4"/>
+      <c r="D1485" s="4"/>
+      <c r="E1485" s="4"/>
+      <c r="F1485" s="4"/>
+      <c r="G1485" s="5"/>
+      <c r="H1485" s="5"/>
     </row>
     <row r="1486" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1486" s="7"/>
-      <c r="B1486" s="6"/>
-      <c r="C1486" s="6"/>
-      <c r="D1486" s="6"/>
-      <c r="E1486" s="6"/>
-      <c r="F1486" s="6"/>
-      <c r="G1486" s="8"/>
-      <c r="H1486" s="8"/>
+      <c r="A1486" s="3"/>
+      <c r="B1486" s="4"/>
+      <c r="C1486" s="4"/>
+      <c r="D1486" s="4"/>
+      <c r="E1486" s="4"/>
+      <c r="F1486" s="4"/>
+      <c r="G1486" s="5"/>
+      <c r="H1486" s="5"/>
     </row>
     <row r="1487" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1487" s="7"/>
-      <c r="B1487" s="6"/>
-      <c r="C1487" s="6"/>
-      <c r="D1487" s="6"/>
-      <c r="E1487" s="6"/>
-      <c r="F1487" s="6"/>
-      <c r="G1487" s="8"/>
-      <c r="H1487" s="8"/>
+      <c r="A1487" s="3"/>
+      <c r="B1487" s="4"/>
+      <c r="C1487" s="4"/>
+      <c r="D1487" s="4"/>
+      <c r="E1487" s="4"/>
+      <c r="F1487" s="4"/>
+      <c r="G1487" s="5"/>
+      <c r="H1487" s="5"/>
     </row>
     <row r="1488" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1488" s="7"/>
-      <c r="B1488" s="6"/>
-      <c r="C1488" s="6"/>
-      <c r="D1488" s="6"/>
-      <c r="E1488" s="6"/>
-      <c r="F1488" s="6"/>
-      <c r="G1488" s="8"/>
-      <c r="H1488" s="8"/>
+      <c r="A1488" s="3"/>
+      <c r="B1488" s="4"/>
+      <c r="C1488" s="4"/>
+      <c r="D1488" s="4"/>
+      <c r="E1488" s="4"/>
+      <c r="F1488" s="4"/>
+      <c r="G1488" s="5"/>
+      <c r="H1488" s="5"/>
     </row>
     <row r="1489" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1489" s="7"/>
-      <c r="B1489" s="6"/>
-      <c r="C1489" s="6"/>
-      <c r="D1489" s="6"/>
-      <c r="E1489" s="6"/>
-      <c r="F1489" s="6"/>
-      <c r="G1489" s="8"/>
-      <c r="H1489" s="8"/>
+      <c r="A1489" s="3"/>
+      <c r="B1489" s="4"/>
+      <c r="C1489" s="4"/>
+      <c r="D1489" s="4"/>
+      <c r="E1489" s="4"/>
+      <c r="F1489" s="4"/>
+      <c r="G1489" s="5"/>
+      <c r="H1489" s="5"/>
     </row>
     <row r="1490" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1490" s="7"/>
-      <c r="B1490" s="6"/>
-      <c r="C1490" s="6"/>
-      <c r="D1490" s="6"/>
-      <c r="E1490" s="6"/>
-      <c r="F1490" s="6"/>
-      <c r="G1490" s="8"/>
-      <c r="H1490" s="8"/>
+      <c r="A1490" s="3"/>
+      <c r="B1490" s="4"/>
+      <c r="C1490" s="4"/>
+      <c r="D1490" s="4"/>
+      <c r="E1490" s="4"/>
+      <c r="F1490" s="4"/>
+      <c r="G1490" s="5"/>
+      <c r="H1490" s="5"/>
     </row>
     <row r="1491" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1491" s="7"/>
-      <c r="B1491" s="6"/>
-      <c r="C1491" s="6"/>
-      <c r="D1491" s="6"/>
-      <c r="E1491" s="6"/>
-      <c r="F1491" s="6"/>
-      <c r="G1491" s="8"/>
-      <c r="H1491" s="8"/>
+      <c r="A1491" s="3"/>
+      <c r="B1491" s="4"/>
+      <c r="C1491" s="4"/>
+      <c r="D1491" s="4"/>
+      <c r="E1491" s="4"/>
+      <c r="F1491" s="4"/>
+      <c r="G1491" s="5"/>
+      <c r="H1491" s="5"/>
     </row>
     <row r="1492" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1492" s="7"/>
-      <c r="B1492" s="6"/>
-      <c r="C1492" s="6"/>
-      <c r="D1492" s="6"/>
-      <c r="E1492" s="6"/>
-      <c r="F1492" s="6"/>
-      <c r="G1492" s="8"/>
-      <c r="H1492" s="8"/>
+      <c r="A1492" s="3"/>
+      <c r="B1492" s="4"/>
+      <c r="C1492" s="4"/>
+      <c r="D1492" s="4"/>
+      <c r="E1492" s="4"/>
+      <c r="F1492" s="4"/>
+      <c r="G1492" s="5"/>
+      <c r="H1492" s="5"/>
     </row>
     <row r="1493" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1493" s="7"/>
-      <c r="B1493" s="6"/>
-      <c r="C1493" s="6"/>
-      <c r="D1493" s="6"/>
-      <c r="E1493" s="6"/>
-      <c r="F1493" s="6"/>
-      <c r="G1493" s="8"/>
-      <c r="H1493" s="8"/>
+      <c r="A1493" s="3"/>
+      <c r="B1493" s="4"/>
+      <c r="C1493" s="4"/>
+      <c r="D1493" s="4"/>
+      <c r="E1493" s="4"/>
+      <c r="F1493" s="4"/>
+      <c r="G1493" s="5"/>
+      <c r="H1493" s="5"/>
     </row>
     <row r="1494" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1494" s="7"/>
-      <c r="B1494" s="6"/>
-      <c r="C1494" s="6"/>
-      <c r="D1494" s="6"/>
-      <c r="E1494" s="6"/>
-      <c r="F1494" s="6"/>
-      <c r="G1494" s="8"/>
-      <c r="H1494" s="8"/>
+      <c r="A1494" s="3"/>
+      <c r="B1494" s="4"/>
+      <c r="C1494" s="4"/>
+      <c r="D1494" s="4"/>
+      <c r="E1494" s="4"/>
+      <c r="F1494" s="4"/>
+      <c r="G1494" s="5"/>
+      <c r="H1494" s="5"/>
     </row>
     <row r="1495" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1495" s="7"/>
-      <c r="B1495" s="6"/>
-      <c r="C1495" s="6"/>
-      <c r="D1495" s="6"/>
-      <c r="E1495" s="6"/>
-      <c r="F1495" s="6"/>
-      <c r="G1495" s="8"/>
-      <c r="H1495" s="8"/>
+      <c r="A1495" s="3"/>
+      <c r="B1495" s="4"/>
+      <c r="C1495" s="4"/>
+      <c r="D1495" s="4"/>
+      <c r="E1495" s="4"/>
+      <c r="F1495" s="4"/>
+      <c r="G1495" s="5"/>
+      <c r="H1495" s="5"/>
     </row>
     <row r="1496" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1496" s="7"/>
-      <c r="B1496" s="6"/>
-      <c r="C1496" s="6"/>
-      <c r="D1496" s="6"/>
-      <c r="E1496" s="6"/>
-      <c r="F1496" s="6"/>
-      <c r="G1496" s="8"/>
-      <c r="H1496" s="8"/>
+      <c r="A1496" s="3"/>
+      <c r="B1496" s="4"/>
+      <c r="C1496" s="4"/>
+      <c r="D1496" s="4"/>
+      <c r="E1496" s="4"/>
+      <c r="F1496" s="4"/>
+      <c r="G1496" s="5"/>
+      <c r="H1496" s="5"/>
     </row>
     <row r="1497" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1497" s="7"/>
-      <c r="B1497" s="6"/>
-      <c r="C1497" s="6"/>
-      <c r="D1497" s="6"/>
-      <c r="E1497" s="6"/>
-      <c r="F1497" s="6"/>
-      <c r="G1497" s="8"/>
-      <c r="H1497" s="8"/>
+      <c r="A1497" s="3"/>
+      <c r="B1497" s="4"/>
+      <c r="C1497" s="4"/>
+      <c r="D1497" s="4"/>
+      <c r="E1497" s="4"/>
+      <c r="F1497" s="4"/>
+      <c r="G1497" s="5"/>
+      <c r="H1497" s="5"/>
     </row>
     <row r="1498" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1498" s="7"/>
-      <c r="B1498" s="6"/>
-      <c r="C1498" s="6"/>
-      <c r="D1498" s="6"/>
-      <c r="E1498" s="6"/>
-      <c r="F1498" s="6"/>
-      <c r="G1498" s="8"/>
-      <c r="H1498" s="8"/>
+      <c r="A1498" s="3"/>
+      <c r="B1498" s="4"/>
+      <c r="C1498" s="4"/>
+      <c r="D1498" s="4"/>
+      <c r="E1498" s="4"/>
+      <c r="F1498" s="4"/>
+      <c r="G1498" s="5"/>
+      <c r="H1498" s="5"/>
     </row>
     <row r="1499" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1499" s="7"/>
-      <c r="B1499" s="6"/>
-      <c r="C1499" s="6"/>
-      <c r="D1499" s="6"/>
-      <c r="E1499" s="6"/>
-      <c r="F1499" s="6"/>
-      <c r="G1499" s="8"/>
-      <c r="H1499" s="8"/>
+      <c r="A1499" s="3"/>
+      <c r="B1499" s="4"/>
+      <c r="C1499" s="4"/>
+      <c r="D1499" s="4"/>
+      <c r="E1499" s="4"/>
+      <c r="F1499" s="4"/>
+      <c r="G1499" s="5"/>
+      <c r="H1499" s="5"/>
     </row>
     <row r="1500" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1500" s="7"/>
-      <c r="B1500" s="6"/>
-      <c r="C1500" s="6"/>
-      <c r="D1500" s="6"/>
-      <c r="E1500" s="6"/>
-      <c r="F1500" s="6"/>
-      <c r="G1500" s="8"/>
-      <c r="H1500" s="8"/>
+      <c r="A1500" s="3"/>
+      <c r="B1500" s="4"/>
+      <c r="C1500" s="4"/>
+      <c r="D1500" s="4"/>
+      <c r="E1500" s="4"/>
+      <c r="F1500" s="4"/>
+      <c r="G1500" s="5"/>
+      <c r="H1500" s="5"/>
     </row>
     <row r="1501" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1501" s="7"/>
-      <c r="B1501" s="6"/>
-      <c r="C1501" s="6"/>
-      <c r="D1501" s="6"/>
-      <c r="E1501" s="6"/>
-      <c r="F1501" s="6"/>
-      <c r="G1501" s="8"/>
-      <c r="H1501" s="8"/>
+      <c r="A1501" s="3"/>
+      <c r="B1501" s="4"/>
+      <c r="C1501" s="4"/>
+      <c r="D1501" s="4"/>
+      <c r="E1501" s="4"/>
+      <c r="F1501" s="4"/>
+      <c r="G1501" s="5"/>
+      <c r="H1501" s="5"/>
     </row>
     <row r="1502" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1502" s="7"/>
-      <c r="B1502" s="6"/>
-      <c r="C1502" s="6"/>
-      <c r="D1502" s="6"/>
-      <c r="E1502" s="6"/>
-      <c r="F1502" s="6"/>
-      <c r="G1502" s="8"/>
-      <c r="H1502" s="8"/>
+      <c r="A1502" s="3"/>
+      <c r="B1502" s="4"/>
+      <c r="C1502" s="4"/>
+      <c r="D1502" s="4"/>
+      <c r="E1502" s="4"/>
+      <c r="F1502" s="4"/>
+      <c r="G1502" s="5"/>
+      <c r="H1502" s="5"/>
     </row>
     <row r="1503" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1503" s="7"/>
-      <c r="B1503" s="6"/>
-      <c r="C1503" s="6"/>
-      <c r="D1503" s="6"/>
-      <c r="E1503" s="6"/>
-      <c r="F1503" s="6"/>
-      <c r="G1503" s="8"/>
-      <c r="H1503" s="8"/>
+      <c r="A1503" s="3"/>
+      <c r="B1503" s="4"/>
+      <c r="C1503" s="4"/>
+      <c r="D1503" s="4"/>
+      <c r="E1503" s="4"/>
+      <c r="F1503" s="4"/>
+      <c r="G1503" s="5"/>
+      <c r="H1503" s="5"/>
     </row>
     <row r="1504" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1504" s="7"/>
-      <c r="B1504" s="6"/>
-      <c r="C1504" s="6"/>
-      <c r="D1504" s="6"/>
-      <c r="E1504" s="6"/>
-      <c r="F1504" s="6"/>
-      <c r="G1504" s="8"/>
-      <c r="H1504" s="8"/>
+      <c r="A1504" s="3"/>
+      <c r="B1504" s="4"/>
+      <c r="C1504" s="4"/>
+      <c r="D1504" s="4"/>
+      <c r="E1504" s="4"/>
+      <c r="F1504" s="4"/>
+      <c r="G1504" s="5"/>
+      <c r="H1504" s="5"/>
     </row>
     <row r="1505" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1505" s="7"/>
-      <c r="B1505" s="6"/>
-      <c r="C1505" s="6"/>
-      <c r="D1505" s="6"/>
-      <c r="E1505" s="6"/>
-      <c r="F1505" s="6"/>
-      <c r="G1505" s="8"/>
-      <c r="H1505" s="8"/>
+      <c r="A1505" s="3"/>
+      <c r="B1505" s="4"/>
+      <c r="C1505" s="4"/>
+      <c r="D1505" s="4"/>
+      <c r="E1505" s="4"/>
+      <c r="F1505" s="4"/>
+      <c r="G1505" s="5"/>
+      <c r="H1505" s="5"/>
     </row>
     <row r="1506" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1506" s="7"/>
-      <c r="B1506" s="6"/>
-      <c r="C1506" s="6"/>
-      <c r="D1506" s="6"/>
-      <c r="E1506" s="6"/>
-      <c r="F1506" s="6"/>
-      <c r="G1506" s="8"/>
-      <c r="H1506" s="8"/>
+      <c r="A1506" s="3"/>
+      <c r="B1506" s="4"/>
+      <c r="C1506" s="4"/>
+      <c r="D1506" s="4"/>
+      <c r="E1506" s="4"/>
+      <c r="F1506" s="4"/>
+      <c r="G1506" s="5"/>
+      <c r="H1506" s="5"/>
     </row>
     <row r="1507" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1507" s="7"/>
-      <c r="B1507" s="6"/>
-      <c r="C1507" s="6"/>
-      <c r="D1507" s="6"/>
-      <c r="E1507" s="6"/>
-      <c r="F1507" s="6"/>
-      <c r="G1507" s="8"/>
-      <c r="H1507" s="8"/>
+      <c r="A1507" s="3"/>
+      <c r="B1507" s="4"/>
+      <c r="C1507" s="4"/>
+      <c r="D1507" s="4"/>
+      <c r="E1507" s="4"/>
+      <c r="F1507" s="4"/>
+      <c r="G1507" s="5"/>
+      <c r="H1507" s="5"/>
     </row>
     <row r="1508" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1508" s="7"/>
-      <c r="B1508" s="6"/>
-      <c r="C1508" s="6"/>
-      <c r="D1508" s="6"/>
-      <c r="E1508" s="6"/>
-      <c r="F1508" s="6"/>
-      <c r="G1508" s="8"/>
-      <c r="H1508" s="8"/>
+      <c r="A1508" s="3"/>
+      <c r="B1508" s="4"/>
+      <c r="C1508" s="4"/>
+      <c r="D1508" s="4"/>
+      <c r="E1508" s="4"/>
+      <c r="F1508" s="4"/>
+      <c r="G1508" s="5"/>
+      <c r="H1508" s="5"/>
     </row>
     <row r="1509" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1509" s="7"/>
-      <c r="B1509" s="6"/>
-      <c r="C1509" s="6"/>
-      <c r="D1509" s="6"/>
-      <c r="E1509" s="6"/>
-      <c r="F1509" s="6"/>
-      <c r="G1509" s="8"/>
-      <c r="H1509" s="8"/>
+      <c r="A1509" s="3"/>
+      <c r="B1509" s="4"/>
+      <c r="C1509" s="4"/>
+      <c r="D1509" s="4"/>
+      <c r="E1509" s="4"/>
+      <c r="F1509" s="4"/>
+      <c r="G1509" s="5"/>
+      <c r="H1509" s="5"/>
     </row>
     <row r="1510" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1510" s="7"/>
-      <c r="B1510" s="6"/>
-      <c r="C1510" s="6"/>
-      <c r="D1510" s="6"/>
-      <c r="E1510" s="6"/>
-      <c r="F1510" s="6"/>
-      <c r="G1510" s="8"/>
-      <c r="H1510" s="8"/>
+      <c r="A1510" s="3"/>
+      <c r="B1510" s="4"/>
+      <c r="C1510" s="4"/>
+      <c r="D1510" s="4"/>
+      <c r="E1510" s="4"/>
+      <c r="F1510" s="4"/>
+      <c r="G1510" s="5"/>
+      <c r="H1510" s="5"/>
     </row>
     <row r="1511" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1511" s="7"/>
-      <c r="B1511" s="6"/>
-      <c r="C1511" s="6"/>
-      <c r="D1511" s="6"/>
-      <c r="E1511" s="6"/>
-      <c r="F1511" s="6"/>
-      <c r="G1511" s="8"/>
-      <c r="H1511" s="8"/>
+      <c r="A1511" s="3"/>
+      <c r="B1511" s="4"/>
+      <c r="C1511" s="4"/>
+      <c r="D1511" s="4"/>
+      <c r="E1511" s="4"/>
+      <c r="F1511" s="4"/>
+      <c r="G1511" s="5"/>
+      <c r="H1511" s="5"/>
     </row>
     <row r="1512" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1512" s="7"/>
-      <c r="B1512" s="6"/>
-      <c r="C1512" s="6"/>
-      <c r="D1512" s="6"/>
-      <c r="E1512" s="6"/>
-      <c r="F1512" s="6"/>
-      <c r="G1512" s="8"/>
-      <c r="H1512" s="8"/>
+      <c r="A1512" s="3"/>
+      <c r="B1512" s="4"/>
+      <c r="C1512" s="4"/>
+      <c r="D1512" s="4"/>
+      <c r="E1512" s="4"/>
+      <c r="F1512" s="4"/>
+      <c r="G1512" s="5"/>
+      <c r="H1512" s="5"/>
     </row>
     <row r="1513" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1513" s="7"/>
-      <c r="B1513" s="6"/>
-      <c r="C1513" s="6"/>
-      <c r="D1513" s="6"/>
-      <c r="E1513" s="6"/>
-      <c r="F1513" s="6"/>
-      <c r="G1513" s="8"/>
-      <c r="H1513" s="8"/>
+      <c r="A1513" s="3"/>
+      <c r="B1513" s="4"/>
+      <c r="C1513" s="4"/>
+      <c r="D1513" s="4"/>
+      <c r="E1513" s="4"/>
+      <c r="F1513" s="4"/>
+      <c r="G1513" s="5"/>
+      <c r="H1513" s="5"/>
     </row>
     <row r="1514" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1514" s="7"/>
-      <c r="B1514" s="6"/>
-      <c r="C1514" s="6"/>
-      <c r="D1514" s="6"/>
-      <c r="E1514" s="6"/>
-      <c r="F1514" s="6"/>
-      <c r="G1514" s="8"/>
-      <c r="H1514" s="8"/>
+      <c r="A1514" s="3"/>
+      <c r="B1514" s="4"/>
+      <c r="C1514" s="4"/>
+      <c r="D1514" s="4"/>
+      <c r="E1514" s="4"/>
+      <c r="F1514" s="4"/>
+      <c r="G1514" s="5"/>
+      <c r="H1514" s="5"/>
     </row>
     <row r="1515" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1515" s="7"/>
-      <c r="B1515" s="6"/>
-      <c r="C1515" s="6"/>
-      <c r="D1515" s="6"/>
-      <c r="E1515" s="6"/>
-      <c r="F1515" s="6"/>
-      <c r="G1515" s="8"/>
-      <c r="H1515" s="8"/>
+      <c r="A1515" s="3"/>
+      <c r="B1515" s="4"/>
+      <c r="C1515" s="4"/>
+      <c r="D1515" s="4"/>
+      <c r="E1515" s="4"/>
+      <c r="F1515" s="4"/>
+      <c r="G1515" s="5"/>
+      <c r="H1515" s="5"/>
     </row>
     <row r="1516" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1516" s="7"/>
-      <c r="B1516" s="6"/>
-      <c r="C1516" s="6"/>
-      <c r="D1516" s="6"/>
-      <c r="E1516" s="6"/>
-      <c r="F1516" s="6"/>
-      <c r="G1516" s="8"/>
-      <c r="H1516" s="8"/>
+      <c r="A1516" s="3"/>
+      <c r="B1516" s="4"/>
+      <c r="C1516" s="4"/>
+      <c r="D1516" s="4"/>
+      <c r="E1516" s="4"/>
+      <c r="F1516" s="4"/>
+      <c r="G1516" s="5"/>
+      <c r="H1516" s="5"/>
     </row>
     <row r="1517" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1517" s="7"/>
-      <c r="B1517" s="6"/>
-      <c r="C1517" s="6"/>
-      <c r="D1517" s="6"/>
-      <c r="E1517" s="6"/>
-      <c r="F1517" s="6"/>
-      <c r="G1517" s="8"/>
-      <c r="H1517" s="8"/>
+      <c r="A1517" s="3"/>
+      <c r="B1517" s="4"/>
+      <c r="C1517" s="4"/>
+      <c r="D1517" s="4"/>
+      <c r="E1517" s="4"/>
+      <c r="F1517" s="4"/>
+      <c r="G1517" s="5"/>
+      <c r="H1517" s="5"/>
     </row>
     <row r="1518" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1518" s="7"/>
-      <c r="B1518" s="6"/>
-      <c r="C1518" s="6"/>
-      <c r="D1518" s="6"/>
-      <c r="E1518" s="6"/>
-      <c r="F1518" s="6"/>
-      <c r="G1518" s="8"/>
-      <c r="H1518" s="8"/>
+      <c r="A1518" s="3"/>
+      <c r="B1518" s="4"/>
+      <c r="C1518" s="4"/>
+      <c r="D1518" s="4"/>
+      <c r="E1518" s="4"/>
+      <c r="F1518" s="4"/>
+      <c r="G1518" s="5"/>
+      <c r="H1518" s="5"/>
     </row>
     <row r="1519" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1519" s="7"/>
-      <c r="B1519" s="6"/>
-      <c r="C1519" s="6"/>
-      <c r="D1519" s="6"/>
-      <c r="E1519" s="6"/>
-      <c r="F1519" s="6"/>
-      <c r="G1519" s="8"/>
-      <c r="H1519" s="8"/>
+      <c r="A1519" s="3"/>
+      <c r="B1519" s="4"/>
+      <c r="C1519" s="4"/>
+      <c r="D1519" s="4"/>
+      <c r="E1519" s="4"/>
+      <c r="F1519" s="4"/>
+      <c r="G1519" s="5"/>
+      <c r="H1519" s="5"/>
     </row>
     <row r="1520" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1520" s="3"/>
@@ -17339,7 +17393,7 @@
       <c r="B1677" s="4"/>
       <c r="C1677" s="4"/>
       <c r="D1677" s="4"/>
-      <c r="E1677" s="4"/>
+      <c r="E1677" s="6"/>
       <c r="F1677" s="4"/>
       <c r="G1677" s="5"/>
       <c r="H1677" s="5"/>
@@ -17394,443 +17448,223 @@
       <c r="G1682" s="5"/>
       <c r="H1682" s="5"/>
     </row>
-    <row r="1683" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1683" s="3"/>
-      <c r="B1683" s="4"/>
-      <c r="C1683" s="4"/>
-      <c r="D1683" s="4"/>
-      <c r="E1683" s="4"/>
-      <c r="F1683" s="4"/>
       <c r="G1683" s="5"/>
       <c r="H1683" s="5"/>
     </row>
-    <row r="1684" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1684" s="3"/>
-      <c r="B1684" s="4"/>
-      <c r="C1684" s="4"/>
-      <c r="D1684" s="4"/>
-      <c r="E1684" s="4"/>
-      <c r="F1684" s="4"/>
       <c r="G1684" s="5"/>
       <c r="H1684" s="5"/>
     </row>
-    <row r="1685" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1685" s="3"/>
-      <c r="B1685" s="4"/>
-      <c r="C1685" s="4"/>
-      <c r="D1685" s="4"/>
-      <c r="E1685" s="4"/>
-      <c r="F1685" s="4"/>
       <c r="G1685" s="5"/>
       <c r="H1685" s="5"/>
     </row>
-    <row r="1686" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1686" s="3"/>
-      <c r="B1686" s="4"/>
-      <c r="C1686" s="4"/>
-      <c r="D1686" s="4"/>
-      <c r="E1686" s="4"/>
-      <c r="F1686" s="4"/>
       <c r="G1686" s="5"/>
       <c r="H1686" s="5"/>
     </row>
-    <row r="1687" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1687" s="3"/>
-      <c r="B1687" s="4"/>
-      <c r="C1687" s="4"/>
-      <c r="D1687" s="4"/>
-      <c r="E1687" s="4"/>
-      <c r="F1687" s="4"/>
       <c r="G1687" s="5"/>
       <c r="H1687" s="5"/>
     </row>
-    <row r="1688" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1688" s="3"/>
-      <c r="B1688" s="4"/>
-      <c r="C1688" s="4"/>
-      <c r="D1688" s="4"/>
-      <c r="E1688" s="4"/>
-      <c r="F1688" s="4"/>
       <c r="G1688" s="5"/>
       <c r="H1688" s="5"/>
     </row>
-    <row r="1689" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1689" s="3"/>
-      <c r="B1689" s="4"/>
-      <c r="C1689" s="4"/>
-      <c r="D1689" s="4"/>
-      <c r="E1689" s="4"/>
-      <c r="F1689" s="4"/>
       <c r="G1689" s="5"/>
       <c r="H1689" s="5"/>
     </row>
-    <row r="1690" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1690" s="3"/>
-      <c r="B1690" s="4"/>
-      <c r="C1690" s="4"/>
-      <c r="D1690" s="4"/>
-      <c r="E1690" s="4"/>
-      <c r="F1690" s="4"/>
       <c r="G1690" s="5"/>
       <c r="H1690" s="5"/>
     </row>
-    <row r="1691" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1691" s="3"/>
-      <c r="B1691" s="4"/>
-      <c r="C1691" s="4"/>
-      <c r="D1691" s="4"/>
-      <c r="E1691" s="4"/>
-      <c r="F1691" s="4"/>
       <c r="G1691" s="5"/>
       <c r="H1691" s="5"/>
     </row>
-    <row r="1692" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1692" s="3"/>
-      <c r="B1692" s="4"/>
-      <c r="C1692" s="4"/>
-      <c r="D1692" s="4"/>
-      <c r="E1692" s="4"/>
-      <c r="F1692" s="4"/>
       <c r="G1692" s="5"/>
       <c r="H1692" s="5"/>
     </row>
-    <row r="1693" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1693" s="3"/>
-      <c r="B1693" s="4"/>
-      <c r="C1693" s="4"/>
-      <c r="D1693" s="4"/>
-      <c r="E1693" s="4"/>
-      <c r="F1693" s="4"/>
       <c r="G1693" s="5"/>
       <c r="H1693" s="5"/>
     </row>
-    <row r="1694" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1694" s="3"/>
-      <c r="B1694" s="4"/>
-      <c r="C1694" s="4"/>
-      <c r="D1694" s="4"/>
-      <c r="E1694" s="4"/>
-      <c r="F1694" s="4"/>
       <c r="G1694" s="5"/>
       <c r="H1694" s="5"/>
     </row>
-    <row r="1695" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1695" s="3"/>
-      <c r="B1695" s="4"/>
-      <c r="C1695" s="4"/>
-      <c r="D1695" s="4"/>
-      <c r="E1695" s="4"/>
-      <c r="F1695" s="4"/>
       <c r="G1695" s="5"/>
       <c r="H1695" s="5"/>
     </row>
-    <row r="1696" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1696" s="3"/>
-      <c r="B1696" s="4"/>
-      <c r="C1696" s="4"/>
-      <c r="D1696" s="4"/>
-      <c r="E1696" s="4"/>
-      <c r="F1696" s="4"/>
       <c r="G1696" s="5"/>
       <c r="H1696" s="5"/>
     </row>
-    <row r="1697" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1697" s="3"/>
-      <c r="B1697" s="4"/>
-      <c r="C1697" s="4"/>
-      <c r="D1697" s="4"/>
-      <c r="E1697" s="4"/>
-      <c r="F1697" s="4"/>
       <c r="G1697" s="5"/>
       <c r="H1697" s="5"/>
     </row>
-    <row r="1698" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1698" s="3"/>
-      <c r="B1698" s="4"/>
-      <c r="C1698" s="4"/>
-      <c r="D1698" s="4"/>
-      <c r="E1698" s="4"/>
-      <c r="F1698" s="4"/>
       <c r="G1698" s="5"/>
       <c r="H1698" s="5"/>
     </row>
-    <row r="1699" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1699" s="3"/>
-      <c r="B1699" s="4"/>
-      <c r="C1699" s="4"/>
-      <c r="D1699" s="4"/>
-      <c r="E1699" s="4"/>
-      <c r="F1699" s="4"/>
       <c r="G1699" s="5"/>
       <c r="H1699" s="5"/>
     </row>
-    <row r="1700" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1700" s="3"/>
-      <c r="B1700" s="4"/>
-      <c r="C1700" s="4"/>
-      <c r="D1700" s="4"/>
-      <c r="E1700" s="4"/>
-      <c r="F1700" s="4"/>
       <c r="G1700" s="5"/>
       <c r="H1700" s="5"/>
     </row>
-    <row r="1701" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1701" s="3"/>
-      <c r="B1701" s="4"/>
-      <c r="C1701" s="4"/>
-      <c r="D1701" s="4"/>
-      <c r="E1701" s="4"/>
-      <c r="F1701" s="4"/>
       <c r="G1701" s="5"/>
       <c r="H1701" s="5"/>
     </row>
-    <row r="1702" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1702" s="3"/>
-      <c r="B1702" s="4"/>
-      <c r="C1702" s="4"/>
-      <c r="D1702" s="4"/>
-      <c r="E1702" s="4"/>
-      <c r="F1702" s="4"/>
       <c r="G1702" s="5"/>
       <c r="H1702" s="5"/>
     </row>
-    <row r="1703" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1703" s="3"/>
-      <c r="B1703" s="4"/>
-      <c r="C1703" s="4"/>
-      <c r="D1703" s="4"/>
-      <c r="E1703" s="4"/>
-      <c r="F1703" s="4"/>
       <c r="G1703" s="5"/>
       <c r="H1703" s="5"/>
     </row>
-    <row r="1704" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1704" s="3"/>
-      <c r="B1704" s="4"/>
-      <c r="C1704" s="4"/>
-      <c r="D1704" s="4"/>
-      <c r="E1704" s="4"/>
-      <c r="F1704" s="4"/>
       <c r="G1704" s="5"/>
       <c r="H1704" s="5"/>
     </row>
-    <row r="1705" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1705" s="3"/>
-      <c r="B1705" s="4"/>
-      <c r="C1705" s="4"/>
-      <c r="D1705" s="4"/>
-      <c r="E1705" s="4"/>
-      <c r="F1705" s="4"/>
       <c r="G1705" s="5"/>
       <c r="H1705" s="5"/>
     </row>
-    <row r="1706" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1706" s="3"/>
-      <c r="B1706" s="4"/>
-      <c r="C1706" s="4"/>
-      <c r="D1706" s="4"/>
-      <c r="E1706" s="4"/>
-      <c r="F1706" s="4"/>
       <c r="G1706" s="5"/>
       <c r="H1706" s="5"/>
     </row>
-    <row r="1707" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1707" s="3"/>
-      <c r="B1707" s="4"/>
-      <c r="C1707" s="4"/>
-      <c r="D1707" s="4"/>
-      <c r="E1707" s="4"/>
-      <c r="F1707" s="4"/>
       <c r="G1707" s="5"/>
       <c r="H1707" s="5"/>
     </row>
-    <row r="1708" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1708" s="3"/>
-      <c r="B1708" s="4"/>
-      <c r="C1708" s="4"/>
-      <c r="D1708" s="4"/>
-      <c r="E1708" s="4"/>
-      <c r="F1708" s="4"/>
       <c r="G1708" s="5"/>
       <c r="H1708" s="5"/>
     </row>
-    <row r="1709" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1709" s="3"/>
-      <c r="B1709" s="4"/>
-      <c r="C1709" s="4"/>
-      <c r="D1709" s="4"/>
-      <c r="E1709" s="4"/>
-      <c r="F1709" s="4"/>
       <c r="G1709" s="5"/>
       <c r="H1709" s="5"/>
     </row>
-    <row r="1710" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1710" s="3"/>
-      <c r="B1710" s="4"/>
-      <c r="C1710" s="4"/>
-      <c r="D1710" s="4"/>
-      <c r="E1710" s="4"/>
-      <c r="F1710" s="4"/>
       <c r="G1710" s="5"/>
       <c r="H1710" s="5"/>
     </row>
-    <row r="1711" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1711" s="3"/>
-      <c r="B1711" s="4"/>
-      <c r="C1711" s="4"/>
-      <c r="D1711" s="4"/>
-      <c r="E1711" s="4"/>
-      <c r="F1711" s="4"/>
       <c r="G1711" s="5"/>
       <c r="H1711" s="5"/>
     </row>
-    <row r="1712" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1712" s="3"/>
-      <c r="B1712" s="4"/>
-      <c r="C1712" s="4"/>
-      <c r="D1712" s="4"/>
-      <c r="E1712" s="4"/>
-      <c r="F1712" s="4"/>
       <c r="G1712" s="5"/>
       <c r="H1712" s="5"/>
     </row>
-    <row r="1713" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1713" s="3"/>
-      <c r="B1713" s="4"/>
-      <c r="C1713" s="4"/>
-      <c r="D1713" s="4"/>
-      <c r="E1713" s="4"/>
-      <c r="F1713" s="4"/>
       <c r="G1713" s="5"/>
       <c r="H1713" s="5"/>
     </row>
-    <row r="1714" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1714" s="3"/>
-      <c r="B1714" s="4"/>
-      <c r="C1714" s="4"/>
-      <c r="D1714" s="4"/>
-      <c r="E1714" s="4"/>
-      <c r="F1714" s="4"/>
       <c r="G1714" s="5"/>
       <c r="H1714" s="5"/>
     </row>
-    <row r="1715" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1715" s="3"/>
-      <c r="B1715" s="4"/>
-      <c r="C1715" s="4"/>
-      <c r="D1715" s="4"/>
-      <c r="E1715" s="4"/>
-      <c r="F1715" s="4"/>
       <c r="G1715" s="5"/>
       <c r="H1715" s="5"/>
     </row>
-    <row r="1716" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1716" s="3"/>
-      <c r="B1716" s="4"/>
-      <c r="C1716" s="4"/>
-      <c r="D1716" s="4"/>
-      <c r="E1716" s="4"/>
-      <c r="F1716" s="4"/>
       <c r="G1716" s="5"/>
       <c r="H1716" s="5"/>
     </row>
-    <row r="1717" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1717" s="3"/>
-      <c r="B1717" s="4"/>
-      <c r="C1717" s="4"/>
-      <c r="D1717" s="4"/>
-      <c r="E1717" s="4"/>
-      <c r="F1717" s="4"/>
       <c r="G1717" s="5"/>
       <c r="H1717" s="5"/>
     </row>
-    <row r="1718" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1718" s="3"/>
-      <c r="B1718" s="4"/>
-      <c r="C1718" s="4"/>
-      <c r="D1718" s="4"/>
-      <c r="E1718" s="4"/>
-      <c r="F1718" s="4"/>
       <c r="G1718" s="5"/>
       <c r="H1718" s="5"/>
     </row>
-    <row r="1719" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1719" s="3"/>
-      <c r="B1719" s="4"/>
-      <c r="C1719" s="4"/>
-      <c r="D1719" s="4"/>
-      <c r="E1719" s="4"/>
-      <c r="F1719" s="4"/>
       <c r="G1719" s="5"/>
       <c r="H1719" s="5"/>
     </row>
-    <row r="1720" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1720" s="3"/>
-      <c r="B1720" s="4"/>
-      <c r="C1720" s="4"/>
-      <c r="D1720" s="4"/>
-      <c r="E1720" s="4"/>
-      <c r="F1720" s="4"/>
       <c r="G1720" s="5"/>
       <c r="H1720" s="5"/>
     </row>
-    <row r="1721" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1721" s="3"/>
-      <c r="B1721" s="4"/>
-      <c r="C1721" s="4"/>
-      <c r="D1721" s="4"/>
-      <c r="E1721" s="6"/>
-      <c r="F1721" s="4"/>
       <c r="G1721" s="5"/>
       <c r="H1721" s="5"/>
     </row>
-    <row r="1722" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1722" s="3"/>
-      <c r="B1722" s="4"/>
-      <c r="C1722" s="4"/>
-      <c r="D1722" s="4"/>
-      <c r="E1722" s="4"/>
-      <c r="F1722" s="4"/>
       <c r="G1722" s="5"/>
       <c r="H1722" s="5"/>
     </row>
-    <row r="1723" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1723" s="3"/>
-      <c r="B1723" s="4"/>
-      <c r="C1723" s="4"/>
-      <c r="D1723" s="4"/>
-      <c r="E1723" s="4"/>
-      <c r="F1723" s="4"/>
       <c r="G1723" s="5"/>
       <c r="H1723" s="5"/>
     </row>
-    <row r="1724" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1724" s="3"/>
-      <c r="B1724" s="4"/>
-      <c r="C1724" s="4"/>
-      <c r="D1724" s="4"/>
-      <c r="E1724" s="4"/>
-      <c r="F1724" s="4"/>
       <c r="G1724" s="5"/>
       <c r="H1724" s="5"/>
     </row>
-    <row r="1725" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1725" s="3"/>
-      <c r="B1725" s="4"/>
-      <c r="C1725" s="4"/>
-      <c r="D1725" s="4"/>
-      <c r="E1725" s="4"/>
-      <c r="F1725" s="4"/>
       <c r="G1725" s="5"/>
       <c r="H1725" s="5"/>
     </row>
-    <row r="1726" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1726" s="3"/>
-      <c r="B1726" s="4"/>
-      <c r="C1726" s="4"/>
-      <c r="D1726" s="4"/>
-      <c r="E1726" s="4"/>
-      <c r="F1726" s="4"/>
       <c r="G1726" s="5"/>
       <c r="H1726" s="5"/>
     </row>
@@ -19984,229 +19818,9 @@
       <c r="G2156" s="5"/>
       <c r="H2156" s="5"/>
     </row>
-    <row r="2157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2157" s="3"/>
-      <c r="G2157" s="5"/>
-      <c r="H2157" s="5"/>
-    </row>
-    <row r="2158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2158" s="3"/>
-      <c r="G2158" s="5"/>
-      <c r="H2158" s="5"/>
-    </row>
-    <row r="2159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2159" s="3"/>
-      <c r="G2159" s="5"/>
-      <c r="H2159" s="5"/>
-    </row>
-    <row r="2160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2160" s="3"/>
-      <c r="G2160" s="5"/>
-      <c r="H2160" s="5"/>
-    </row>
-    <row r="2161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2161" s="3"/>
-      <c r="G2161" s="5"/>
-      <c r="H2161" s="5"/>
-    </row>
-    <row r="2162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2162" s="3"/>
-      <c r="G2162" s="5"/>
-      <c r="H2162" s="5"/>
-    </row>
-    <row r="2163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2163" s="3"/>
-      <c r="G2163" s="5"/>
-      <c r="H2163" s="5"/>
-    </row>
-    <row r="2164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2164" s="3"/>
-      <c r="G2164" s="5"/>
-      <c r="H2164" s="5"/>
-    </row>
-    <row r="2165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2165" s="3"/>
-      <c r="G2165" s="5"/>
-      <c r="H2165" s="5"/>
-    </row>
-    <row r="2166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2166" s="3"/>
-      <c r="G2166" s="5"/>
-      <c r="H2166" s="5"/>
-    </row>
-    <row r="2167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2167" s="3"/>
-      <c r="G2167" s="5"/>
-      <c r="H2167" s="5"/>
-    </row>
-    <row r="2168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2168" s="3"/>
-      <c r="G2168" s="5"/>
-      <c r="H2168" s="5"/>
-    </row>
-    <row r="2169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2169" s="3"/>
-      <c r="G2169" s="5"/>
-      <c r="H2169" s="5"/>
-    </row>
-    <row r="2170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2170" s="3"/>
-      <c r="G2170" s="5"/>
-      <c r="H2170" s="5"/>
-    </row>
-    <row r="2171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2171" s="3"/>
-      <c r="G2171" s="5"/>
-      <c r="H2171" s="5"/>
-    </row>
-    <row r="2172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2172" s="3"/>
-      <c r="G2172" s="5"/>
-      <c r="H2172" s="5"/>
-    </row>
-    <row r="2173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2173" s="3"/>
-      <c r="G2173" s="5"/>
-      <c r="H2173" s="5"/>
-    </row>
-    <row r="2174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2174" s="3"/>
-      <c r="G2174" s="5"/>
-      <c r="H2174" s="5"/>
-    </row>
-    <row r="2175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2175" s="3"/>
-      <c r="G2175" s="5"/>
-      <c r="H2175" s="5"/>
-    </row>
-    <row r="2176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2176" s="3"/>
-      <c r="G2176" s="5"/>
-      <c r="H2176" s="5"/>
-    </row>
-    <row r="2177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2177" s="3"/>
-      <c r="G2177" s="5"/>
-      <c r="H2177" s="5"/>
-    </row>
-    <row r="2178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2178" s="3"/>
-      <c r="G2178" s="5"/>
-      <c r="H2178" s="5"/>
-    </row>
-    <row r="2179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2179" s="3"/>
-      <c r="G2179" s="5"/>
-      <c r="H2179" s="5"/>
-    </row>
-    <row r="2180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2180" s="3"/>
-      <c r="G2180" s="5"/>
-      <c r="H2180" s="5"/>
-    </row>
-    <row r="2181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2181" s="3"/>
-      <c r="G2181" s="5"/>
-      <c r="H2181" s="5"/>
-    </row>
-    <row r="2182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2182" s="3"/>
-      <c r="G2182" s="5"/>
-      <c r="H2182" s="5"/>
-    </row>
-    <row r="2183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2183" s="3"/>
-      <c r="G2183" s="5"/>
-      <c r="H2183" s="5"/>
-    </row>
-    <row r="2184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2184" s="3"/>
-      <c r="G2184" s="5"/>
-      <c r="H2184" s="5"/>
-    </row>
-    <row r="2185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2185" s="3"/>
-      <c r="G2185" s="5"/>
-      <c r="H2185" s="5"/>
-    </row>
-    <row r="2186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2186" s="3"/>
-      <c r="G2186" s="5"/>
-      <c r="H2186" s="5"/>
-    </row>
-    <row r="2187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2187" s="3"/>
-      <c r="G2187" s="5"/>
-      <c r="H2187" s="5"/>
-    </row>
-    <row r="2188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2188" s="3"/>
-      <c r="G2188" s="5"/>
-      <c r="H2188" s="5"/>
-    </row>
-    <row r="2189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2189" s="3"/>
-      <c r="G2189" s="5"/>
-      <c r="H2189" s="5"/>
-    </row>
-    <row r="2190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2190" s="3"/>
-      <c r="G2190" s="5"/>
-      <c r="H2190" s="5"/>
-    </row>
-    <row r="2191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2191" s="3"/>
-      <c r="G2191" s="5"/>
-      <c r="H2191" s="5"/>
-    </row>
-    <row r="2192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2192" s="3"/>
-      <c r="G2192" s="5"/>
-      <c r="H2192" s="5"/>
-    </row>
-    <row r="2193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2193" s="3"/>
-      <c r="G2193" s="5"/>
-      <c r="H2193" s="5"/>
-    </row>
-    <row r="2194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2194" s="3"/>
-      <c r="G2194" s="5"/>
-      <c r="H2194" s="5"/>
-    </row>
-    <row r="2195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2195" s="3"/>
-      <c r="G2195" s="5"/>
-      <c r="H2195" s="5"/>
-    </row>
-    <row r="2196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2196" s="3"/>
-      <c r="G2196" s="5"/>
-      <c r="H2196" s="5"/>
-    </row>
-    <row r="2197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2197" s="3"/>
-      <c r="G2197" s="5"/>
-      <c r="H2197" s="5"/>
-    </row>
-    <row r="2198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2198" s="3"/>
-      <c r="G2198" s="5"/>
-      <c r="H2198" s="5"/>
-    </row>
-    <row r="2199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2199" s="3"/>
-      <c r="G2199" s="5"/>
-      <c r="H2199" s="5"/>
-    </row>
-    <row r="2200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2200" s="3"/>
-      <c r="G2200" s="5"/>
-      <c r="H2200" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H382">
-    <sortCondition descending="1" ref="A1:A382"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H338">
+    <sortCondition descending="1" ref="A1:A338"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_samples/next-week.xlsx
+++ b/data_samples/next-week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1743F7EE-7FBD-44F1-B84F-071EB8F498E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997FE503-B0E0-43C1-BE85-871F64170A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12980" yWindow="8340" windowWidth="19440" windowHeight="8900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -109,16 +109,13 @@
     <t>Adelaide</t>
   </si>
   <si>
-    <t>GMHBA Stadium</t>
-  </si>
-  <si>
-    <t>University of Tasmania Stadium</t>
-  </si>
-  <si>
     <t>Mars Stadium</t>
   </si>
   <si>
     <t>Optus Stadium</t>
+  </si>
+  <si>
+    <t>Metricon Stadium</t>
   </si>
 </sst>
 </file>
@@ -549,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2156"/>
+  <dimension ref="A1:H2132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,182 +592,191 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44389</v>
+        <v>44395</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
+      <c r="D2" s="12" t="s">
+        <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="5">
-        <v>1.18</v>
+        <v>2.15</v>
       </c>
       <c r="H2" s="5">
-        <v>4.95</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <v>44388</v>
+        <v>44395</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="5">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="H3" s="5">
-        <v>2.42</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>44388</v>
+        <v>44395</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="5">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H4" s="5">
-        <v>3.56</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>44388</v>
+        <v>44394</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>44394</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="H6" s="5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>44394</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>44394</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>31</v>
+      <c r="D8" s="12" t="s">
+        <v>29</v>
       </c>
-      <c r="G5" s="5">
-        <v>1.37</v>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <v>2.5499999999999998</v>
       </c>
-      <c r="H5" s="5">
-        <v>3.3</v>
+      <c r="H8" s="5">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>44387</v>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>44393</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>2.71</v>
       </c>
-      <c r="G6" s="5">
-        <v>1.22</v>
+      <c r="H9" s="5">
+        <v>1.47</v>
       </c>
-      <c r="H6" s="5">
-        <v>4.3</v>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>44392</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>44387</v>
+      <c r="B10" t="s">
+        <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5">
-        <v>3.72</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>44387</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="D10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="5">
-        <v>2.19</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>44386</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1.28</v>
-      </c>
-      <c r="H9" s="5">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>44385</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5">
-        <v>1.69</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H10" s="5">
-        <v>2.1800000000000002</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4887,7 +4893,7 @@
       <c r="A422" s="7"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
-      <c r="D422" s="1"/>
+      <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
       <c r="G422" s="5"/>
@@ -4897,7 +4903,7 @@
       <c r="A423" s="7"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
-      <c r="D423" s="1"/>
+      <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
       <c r="G423" s="5"/>
@@ -4907,7 +4913,7 @@
       <c r="A424" s="7"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
-      <c r="D424" s="1"/>
+      <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
       <c r="G424" s="5"/>
@@ -4917,7 +4923,7 @@
       <c r="A425" s="7"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
-      <c r="D425" s="1"/>
+      <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
       <c r="G425" s="5"/>
@@ -4927,7 +4933,7 @@
       <c r="A426" s="7"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
-      <c r="D426" s="1"/>
+      <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
       <c r="G426" s="5"/>
@@ -4937,7 +4943,7 @@
       <c r="A427" s="7"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
-      <c r="D427" s="1"/>
+      <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="5"/>
@@ -4947,7 +4953,7 @@
       <c r="A428" s="7"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
-      <c r="D428" s="1"/>
+      <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
       <c r="G428" s="5"/>
@@ -4957,7 +4963,7 @@
       <c r="A429" s="7"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
-      <c r="D429" s="1"/>
+      <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
       <c r="G429" s="5"/>
@@ -4967,7 +4973,7 @@
       <c r="A430" s="7"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
-      <c r="D430" s="1"/>
+      <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
       <c r="G430" s="5"/>
@@ -4977,7 +4983,7 @@
       <c r="A431" s="7"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
-      <c r="D431" s="1"/>
+      <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
       <c r="G431" s="5"/>
@@ -4987,7 +4993,7 @@
       <c r="A432" s="7"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
-      <c r="D432" s="1"/>
+      <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
       <c r="G432" s="5"/>
@@ -4997,7 +5003,7 @@
       <c r="A433" s="7"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
-      <c r="D433" s="1"/>
+      <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
       <c r="G433" s="5"/>
@@ -5007,7 +5013,7 @@
       <c r="A434" s="7"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
-      <c r="D434" s="1"/>
+      <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
       <c r="G434" s="5"/>
@@ -5017,7 +5023,7 @@
       <c r="A435" s="7"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
-      <c r="D435" s="1"/>
+      <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
       <c r="G435" s="5"/>
@@ -5027,7 +5033,7 @@
       <c r="A436" s="7"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
-      <c r="D436" s="1"/>
+      <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
       <c r="G436" s="5"/>
@@ -5037,7 +5043,7 @@
       <c r="A437" s="7"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
-      <c r="D437" s="1"/>
+      <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
       <c r="G437" s="5"/>
@@ -5047,7 +5053,7 @@
       <c r="A438" s="7"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
-      <c r="D438" s="1"/>
+      <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
       <c r="G438" s="5"/>
@@ -5057,7 +5063,7 @@
       <c r="A439" s="7"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
-      <c r="D439" s="1"/>
+      <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
       <c r="G439" s="5"/>
@@ -5067,7 +5073,7 @@
       <c r="A440" s="7"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
-      <c r="D440" s="1"/>
+      <c r="D440" s="4"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
       <c r="G440" s="5"/>
@@ -5077,7 +5083,7 @@
       <c r="A441" s="7"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
-      <c r="D441" s="1"/>
+      <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
       <c r="G441" s="5"/>
@@ -5087,7 +5093,7 @@
       <c r="A442" s="7"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
-      <c r="D442" s="1"/>
+      <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
       <c r="G442" s="5"/>
@@ -5097,7 +5103,7 @@
       <c r="A443" s="7"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
-      <c r="D443" s="1"/>
+      <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
       <c r="G443" s="5"/>
@@ -5107,7 +5113,7 @@
       <c r="A444" s="7"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
-      <c r="D444" s="1"/>
+      <c r="D444" s="4"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
       <c r="G444" s="5"/>
@@ -5117,7 +5123,7 @@
       <c r="A445" s="7"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
-      <c r="D445" s="1"/>
+      <c r="D445" s="4"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
       <c r="G445" s="5"/>
@@ -9073,290 +9079,290 @@
       <c r="G840" s="5"/>
       <c r="H840" s="5"/>
     </row>
-    <row r="841" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841" s="7"/>
-      <c r="B841" s="4"/>
-      <c r="C841" s="4"/>
-      <c r="D841" s="4"/>
-      <c r="E841" s="4"/>
-      <c r="F841" s="4"/>
       <c r="G841" s="5"/>
       <c r="H841" s="5"/>
     </row>
-    <row r="842" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842" s="7"/>
-      <c r="B842" s="4"/>
-      <c r="C842" s="4"/>
-      <c r="D842" s="4"/>
-      <c r="E842" s="4"/>
-      <c r="F842" s="4"/>
       <c r="G842" s="5"/>
       <c r="H842" s="5"/>
     </row>
-    <row r="843" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843" s="7"/>
-      <c r="B843" s="4"/>
-      <c r="C843" s="4"/>
-      <c r="D843" s="4"/>
-      <c r="E843" s="4"/>
-      <c r="F843" s="4"/>
       <c r="G843" s="5"/>
       <c r="H843" s="5"/>
     </row>
-    <row r="844" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844" s="7"/>
-      <c r="B844" s="4"/>
-      <c r="C844" s="4"/>
-      <c r="D844" s="4"/>
-      <c r="E844" s="4"/>
-      <c r="F844" s="4"/>
       <c r="G844" s="5"/>
       <c r="H844" s="5"/>
     </row>
-    <row r="845" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845" s="7"/>
-      <c r="B845" s="4"/>
-      <c r="C845" s="4"/>
-      <c r="D845" s="4"/>
-      <c r="E845" s="4"/>
-      <c r="F845" s="4"/>
       <c r="G845" s="5"/>
       <c r="H845" s="5"/>
     </row>
-    <row r="846" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846" s="7"/>
-      <c r="B846" s="4"/>
-      <c r="C846" s="4"/>
-      <c r="D846" s="4"/>
-      <c r="E846" s="4"/>
-      <c r="F846" s="4"/>
       <c r="G846" s="5"/>
       <c r="H846" s="5"/>
     </row>
-    <row r="847" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847" s="7"/>
-      <c r="B847" s="4"/>
-      <c r="C847" s="4"/>
-      <c r="D847" s="4"/>
-      <c r="E847" s="4"/>
-      <c r="F847" s="4"/>
       <c r="G847" s="5"/>
       <c r="H847" s="5"/>
     </row>
-    <row r="848" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848" s="7"/>
-      <c r="B848" s="4"/>
-      <c r="C848" s="4"/>
-      <c r="D848" s="4"/>
-      <c r="E848" s="4"/>
-      <c r="F848" s="4"/>
       <c r="G848" s="5"/>
       <c r="H848" s="5"/>
     </row>
-    <row r="849" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849" s="7"/>
-      <c r="B849" s="4"/>
-      <c r="C849" s="4"/>
-      <c r="D849" s="4"/>
-      <c r="E849" s="4"/>
-      <c r="F849" s="4"/>
       <c r="G849" s="5"/>
       <c r="H849" s="5"/>
     </row>
     <row r="850" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A850" s="7"/>
-      <c r="B850" s="4"/>
-      <c r="C850" s="4"/>
-      <c r="D850" s="4"/>
-      <c r="E850" s="4"/>
-      <c r="F850" s="4"/>
-      <c r="G850" s="5"/>
-      <c r="H850" s="5"/>
+      <c r="B850" s="6"/>
+      <c r="C850" s="6"/>
+      <c r="D850" s="6"/>
+      <c r="E850" s="6"/>
+      <c r="F850" s="6"/>
+      <c r="G850" s="8"/>
+      <c r="H850" s="8"/>
     </row>
     <row r="851" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A851" s="7"/>
-      <c r="B851" s="4"/>
-      <c r="C851" s="4"/>
-      <c r="D851" s="4"/>
-      <c r="E851" s="4"/>
-      <c r="F851" s="4"/>
-      <c r="G851" s="5"/>
-      <c r="H851" s="5"/>
+      <c r="B851" s="6"/>
+      <c r="C851" s="6"/>
+      <c r="D851" s="6"/>
+      <c r="E851" s="6"/>
+      <c r="F851" s="6"/>
+      <c r="G851" s="8"/>
+      <c r="H851" s="8"/>
     </row>
     <row r="852" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A852" s="7"/>
-      <c r="B852" s="4"/>
-      <c r="C852" s="4"/>
-      <c r="D852" s="4"/>
-      <c r="E852" s="4"/>
-      <c r="F852" s="4"/>
-      <c r="G852" s="5"/>
-      <c r="H852" s="5"/>
+      <c r="B852" s="6"/>
+      <c r="C852" s="6"/>
+      <c r="D852" s="6"/>
+      <c r="E852" s="6"/>
+      <c r="F852" s="6"/>
+      <c r="G852" s="8"/>
+      <c r="H852" s="8"/>
     </row>
     <row r="853" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A853" s="7"/>
-      <c r="B853" s="4"/>
-      <c r="C853" s="4"/>
-      <c r="D853" s="4"/>
-      <c r="E853" s="4"/>
-      <c r="F853" s="4"/>
-      <c r="G853" s="5"/>
-      <c r="H853" s="5"/>
+      <c r="B853" s="6"/>
+      <c r="C853" s="6"/>
+      <c r="D853" s="6"/>
+      <c r="E853" s="6"/>
+      <c r="F853" s="6"/>
+      <c r="G853" s="8"/>
+      <c r="H853" s="8"/>
     </row>
     <row r="854" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A854" s="7"/>
-      <c r="B854" s="4"/>
-      <c r="C854" s="4"/>
-      <c r="D854" s="4"/>
-      <c r="E854" s="4"/>
-      <c r="F854" s="4"/>
-      <c r="G854" s="5"/>
-      <c r="H854" s="5"/>
+      <c r="B854" s="6"/>
+      <c r="C854" s="6"/>
+      <c r="D854" s="6"/>
+      <c r="E854" s="6"/>
+      <c r="F854" s="6"/>
+      <c r="G854" s="8"/>
+      <c r="H854" s="8"/>
     </row>
     <row r="855" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A855" s="7"/>
-      <c r="B855" s="4"/>
-      <c r="C855" s="4"/>
-      <c r="D855" s="4"/>
-      <c r="E855" s="4"/>
-      <c r="F855" s="4"/>
-      <c r="G855" s="5"/>
-      <c r="H855" s="5"/>
+      <c r="B855" s="6"/>
+      <c r="C855" s="6"/>
+      <c r="D855" s="6"/>
+      <c r="E855" s="6"/>
+      <c r="F855" s="6"/>
+      <c r="G855" s="8"/>
+      <c r="H855" s="8"/>
     </row>
     <row r="856" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A856" s="7"/>
-      <c r="B856" s="4"/>
-      <c r="C856" s="4"/>
-      <c r="D856" s="4"/>
-      <c r="E856" s="4"/>
-      <c r="F856" s="4"/>
-      <c r="G856" s="5"/>
-      <c r="H856" s="5"/>
+      <c r="B856" s="6"/>
+      <c r="C856" s="6"/>
+      <c r="D856" s="6"/>
+      <c r="E856" s="6"/>
+      <c r="F856" s="6"/>
+      <c r="G856" s="8"/>
+      <c r="H856" s="8"/>
     </row>
     <row r="857" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A857" s="7"/>
-      <c r="B857" s="4"/>
-      <c r="C857" s="4"/>
-      <c r="D857" s="4"/>
-      <c r="E857" s="4"/>
-      <c r="F857" s="4"/>
-      <c r="G857" s="5"/>
-      <c r="H857" s="5"/>
+      <c r="B857" s="6"/>
+      <c r="C857" s="6"/>
+      <c r="D857" s="6"/>
+      <c r="E857" s="6"/>
+      <c r="F857" s="6"/>
+      <c r="G857" s="8"/>
+      <c r="H857" s="8"/>
     </row>
     <row r="858" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A858" s="7"/>
-      <c r="B858" s="4"/>
-      <c r="C858" s="4"/>
-      <c r="D858" s="4"/>
-      <c r="E858" s="4"/>
-      <c r="F858" s="4"/>
-      <c r="G858" s="5"/>
-      <c r="H858" s="5"/>
+      <c r="B858" s="6"/>
+      <c r="C858" s="6"/>
+      <c r="D858" s="6"/>
+      <c r="E858" s="6"/>
+      <c r="F858" s="6"/>
+      <c r="G858" s="8"/>
+      <c r="H858" s="8"/>
     </row>
     <row r="859" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A859" s="7"/>
-      <c r="B859" s="4"/>
-      <c r="C859" s="4"/>
-      <c r="D859" s="4"/>
-      <c r="E859" s="4"/>
-      <c r="F859" s="4"/>
-      <c r="G859" s="5"/>
-      <c r="H859" s="5"/>
+      <c r="B859" s="6"/>
+      <c r="C859" s="6"/>
+      <c r="D859" s="6"/>
+      <c r="E859" s="6"/>
+      <c r="F859" s="6"/>
+      <c r="G859" s="8"/>
+      <c r="H859" s="8"/>
     </row>
     <row r="860" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A860" s="7"/>
-      <c r="B860" s="4"/>
-      <c r="C860" s="4"/>
-      <c r="D860" s="4"/>
-      <c r="E860" s="4"/>
-      <c r="F860" s="4"/>
-      <c r="G860" s="5"/>
-      <c r="H860" s="5"/>
+      <c r="B860" s="6"/>
+      <c r="C860" s="6"/>
+      <c r="D860" s="6"/>
+      <c r="E860" s="6"/>
+      <c r="F860" s="6"/>
+      <c r="G860" s="8"/>
+      <c r="H860" s="8"/>
     </row>
     <row r="861" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A861" s="7"/>
-      <c r="B861" s="4"/>
-      <c r="C861" s="4"/>
-      <c r="D861" s="4"/>
-      <c r="E861" s="4"/>
-      <c r="F861" s="4"/>
-      <c r="G861" s="5"/>
-      <c r="H861" s="5"/>
+      <c r="B861" s="6"/>
+      <c r="C861" s="6"/>
+      <c r="D861" s="6"/>
+      <c r="E861" s="6"/>
+      <c r="F861" s="6"/>
+      <c r="G861" s="8"/>
+      <c r="H861" s="8"/>
     </row>
     <row r="862" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A862" s="7"/>
-      <c r="B862" s="4"/>
-      <c r="C862" s="4"/>
-      <c r="D862" s="4"/>
-      <c r="E862" s="4"/>
-      <c r="F862" s="4"/>
-      <c r="G862" s="5"/>
-      <c r="H862" s="5"/>
+      <c r="B862" s="6"/>
+      <c r="C862" s="6"/>
+      <c r="D862" s="6"/>
+      <c r="E862" s="6"/>
+      <c r="F862" s="6"/>
+      <c r="G862" s="8"/>
+      <c r="H862" s="8"/>
     </row>
     <row r="863" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A863" s="7"/>
-      <c r="B863" s="4"/>
-      <c r="C863" s="4"/>
-      <c r="D863" s="4"/>
-      <c r="E863" s="4"/>
-      <c r="F863" s="4"/>
-      <c r="G863" s="5"/>
-      <c r="H863" s="5"/>
+      <c r="B863" s="6"/>
+      <c r="C863" s="6"/>
+      <c r="D863" s="6"/>
+      <c r="E863" s="6"/>
+      <c r="F863" s="6"/>
+      <c r="G863" s="8"/>
+      <c r="H863" s="8"/>
     </row>
     <row r="864" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A864" s="7"/>
-      <c r="B864" s="4"/>
-      <c r="C864" s="4"/>
-      <c r="D864" s="4"/>
-      <c r="E864" s="4"/>
-      <c r="F864" s="4"/>
-      <c r="G864" s="5"/>
-      <c r="H864" s="5"/>
-    </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B864" s="6"/>
+      <c r="C864" s="6"/>
+      <c r="D864" s="6"/>
+      <c r="E864" s="6"/>
+      <c r="F864" s="6"/>
+      <c r="G864" s="8"/>
+      <c r="H864" s="8"/>
+    </row>
+    <row r="865" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A865" s="7"/>
-      <c r="G865" s="5"/>
-      <c r="H865" s="5"/>
-    </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B865" s="6"/>
+      <c r="C865" s="6"/>
+      <c r="D865" s="6"/>
+      <c r="E865" s="6"/>
+      <c r="F865" s="6"/>
+      <c r="G865" s="8"/>
+      <c r="H865" s="8"/>
+    </row>
+    <row r="866" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A866" s="7"/>
-      <c r="G866" s="5"/>
-      <c r="H866" s="5"/>
-    </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B866" s="6"/>
+      <c r="C866" s="6"/>
+      <c r="D866" s="6"/>
+      <c r="E866" s="6"/>
+      <c r="F866" s="6"/>
+      <c r="G866" s="8"/>
+      <c r="H866" s="8"/>
+    </row>
+    <row r="867" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A867" s="7"/>
-      <c r="G867" s="5"/>
-      <c r="H867" s="5"/>
-    </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B867" s="6"/>
+      <c r="C867" s="6"/>
+      <c r="D867" s="6"/>
+      <c r="E867" s="6"/>
+      <c r="F867" s="6"/>
+      <c r="G867" s="8"/>
+      <c r="H867" s="8"/>
+    </row>
+    <row r="868" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A868" s="7"/>
-      <c r="G868" s="5"/>
-      <c r="H868" s="5"/>
-    </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B868" s="6"/>
+      <c r="C868" s="6"/>
+      <c r="D868" s="6"/>
+      <c r="E868" s="6"/>
+      <c r="F868" s="6"/>
+      <c r="G868" s="8"/>
+      <c r="H868" s="8"/>
+    </row>
+    <row r="869" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A869" s="7"/>
-      <c r="G869" s="5"/>
-      <c r="H869" s="5"/>
-    </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B869" s="6"/>
+      <c r="C869" s="6"/>
+      <c r="D869" s="6"/>
+      <c r="E869" s="6"/>
+      <c r="F869" s="6"/>
+      <c r="G869" s="8"/>
+      <c r="H869" s="8"/>
+    </row>
+    <row r="870" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A870" s="7"/>
-      <c r="G870" s="5"/>
-      <c r="H870" s="5"/>
-    </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B870" s="6"/>
+      <c r="C870" s="6"/>
+      <c r="D870" s="6"/>
+      <c r="E870" s="6"/>
+      <c r="F870" s="6"/>
+      <c r="G870" s="8"/>
+      <c r="H870" s="8"/>
+    </row>
+    <row r="871" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A871" s="7"/>
-      <c r="G871" s="5"/>
-      <c r="H871" s="5"/>
-    </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B871" s="6"/>
+      <c r="C871" s="6"/>
+      <c r="D871" s="6"/>
+      <c r="E871" s="6"/>
+      <c r="F871" s="6"/>
+      <c r="G871" s="8"/>
+      <c r="H871" s="8"/>
+    </row>
+    <row r="872" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A872" s="7"/>
-      <c r="G872" s="5"/>
-      <c r="H872" s="5"/>
-    </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B872" s="6"/>
+      <c r="C872" s="6"/>
+      <c r="D872" s="6"/>
+      <c r="E872" s="6"/>
+      <c r="F872" s="6"/>
+      <c r="G872" s="8"/>
+      <c r="H872" s="8"/>
+    </row>
+    <row r="873" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A873" s="7"/>
-      <c r="G873" s="5"/>
-      <c r="H873" s="5"/>
+      <c r="B873" s="6"/>
+      <c r="C873" s="6"/>
+      <c r="D873" s="6"/>
+      <c r="E873" s="6"/>
+      <c r="F873" s="6"/>
+      <c r="G873" s="8"/>
+      <c r="H873" s="8"/>
     </row>
     <row r="874" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A874" s="7"/>
@@ -14508,7 +14514,7 @@
       <c r="G1388" s="8"/>
       <c r="H1388" s="8"/>
     </row>
-    <row r="1389" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1389" s="7"/>
       <c r="B1389" s="6"/>
       <c r="C1389" s="6"/>
@@ -14518,7 +14524,7 @@
       <c r="G1389" s="8"/>
       <c r="H1389" s="8"/>
     </row>
-    <row r="1390" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1390" s="7"/>
       <c r="B1390" s="6"/>
       <c r="C1390" s="6"/>
@@ -14528,7 +14534,7 @@
       <c r="G1390" s="8"/>
       <c r="H1390" s="8"/>
     </row>
-    <row r="1391" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1391" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1391" s="7"/>
       <c r="B1391" s="6"/>
       <c r="C1391" s="6"/>
@@ -14538,7 +14544,7 @@
       <c r="G1391" s="8"/>
       <c r="H1391" s="8"/>
     </row>
-    <row r="1392" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1392" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1392" s="7"/>
       <c r="B1392" s="6"/>
       <c r="C1392" s="6"/>
@@ -14548,7 +14554,7 @@
       <c r="G1392" s="8"/>
       <c r="H1392" s="8"/>
     </row>
-    <row r="1393" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1393" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1393" s="7"/>
       <c r="B1393" s="6"/>
       <c r="C1393" s="6"/>
@@ -14558,7 +14564,7 @@
       <c r="G1393" s="8"/>
       <c r="H1393" s="8"/>
     </row>
-    <row r="1394" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1394" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1394" s="7"/>
       <c r="B1394" s="6"/>
       <c r="C1394" s="6"/>
@@ -14568,7 +14574,7 @@
       <c r="G1394" s="8"/>
       <c r="H1394" s="8"/>
     </row>
-    <row r="1395" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1395" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1395" s="7"/>
       <c r="B1395" s="6"/>
       <c r="C1395" s="6"/>
@@ -14578,7 +14584,7 @@
       <c r="G1395" s="8"/>
       <c r="H1395" s="8"/>
     </row>
-    <row r="1396" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1396" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1396" s="7"/>
       <c r="B1396" s="6"/>
       <c r="C1396" s="6"/>
@@ -14588,7 +14594,7 @@
       <c r="G1396" s="8"/>
       <c r="H1396" s="8"/>
     </row>
-    <row r="1397" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1397" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1397" s="7"/>
       <c r="B1397" s="6"/>
       <c r="C1397" s="6"/>
@@ -14748,7 +14754,7 @@
       <c r="G1412" s="8"/>
       <c r="H1412" s="8"/>
     </row>
-    <row r="1413" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1413" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1413" s="7"/>
       <c r="B1413" s="6"/>
       <c r="C1413" s="6"/>
@@ -14758,7 +14764,7 @@
       <c r="G1413" s="8"/>
       <c r="H1413" s="8"/>
     </row>
-    <row r="1414" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1414" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1414" s="7"/>
       <c r="B1414" s="6"/>
       <c r="C1414" s="6"/>
@@ -14768,7 +14774,7 @@
       <c r="G1414" s="8"/>
       <c r="H1414" s="8"/>
     </row>
-    <row r="1415" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1415" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1415" s="7"/>
       <c r="B1415" s="6"/>
       <c r="C1415" s="6"/>
@@ -14778,7 +14784,7 @@
       <c r="G1415" s="8"/>
       <c r="H1415" s="8"/>
     </row>
-    <row r="1416" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1416" s="7"/>
       <c r="B1416" s="6"/>
       <c r="C1416" s="6"/>
@@ -14788,7 +14794,7 @@
       <c r="G1416" s="8"/>
       <c r="H1416" s="8"/>
     </row>
-    <row r="1417" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1417" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1417" s="7"/>
       <c r="B1417" s="6"/>
       <c r="C1417" s="6"/>
@@ -14798,7 +14804,7 @@
       <c r="G1417" s="8"/>
       <c r="H1417" s="8"/>
     </row>
-    <row r="1418" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1418" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1418" s="7"/>
       <c r="B1418" s="6"/>
       <c r="C1418" s="6"/>
@@ -14808,7 +14814,7 @@
       <c r="G1418" s="8"/>
       <c r="H1418" s="8"/>
     </row>
-    <row r="1419" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1419" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1419" s="7"/>
       <c r="B1419" s="6"/>
       <c r="C1419" s="6"/>
@@ -14818,7 +14824,7 @@
       <c r="G1419" s="8"/>
       <c r="H1419" s="8"/>
     </row>
-    <row r="1420" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1420" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1420" s="7"/>
       <c r="B1420" s="6"/>
       <c r="C1420" s="6"/>
@@ -14828,7 +14834,7 @@
       <c r="G1420" s="8"/>
       <c r="H1420" s="8"/>
     </row>
-    <row r="1421" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1421" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1421" s="7"/>
       <c r="B1421" s="6"/>
       <c r="C1421" s="6"/>
@@ -15139,244 +15145,244 @@
       <c r="H1451" s="8"/>
     </row>
     <row r="1452" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1452" s="7"/>
-      <c r="B1452" s="6"/>
-      <c r="C1452" s="6"/>
-      <c r="D1452" s="6"/>
-      <c r="E1452" s="6"/>
-      <c r="F1452" s="6"/>
-      <c r="G1452" s="8"/>
-      <c r="H1452" s="8"/>
+      <c r="A1452" s="3"/>
+      <c r="B1452" s="4"/>
+      <c r="C1452" s="4"/>
+      <c r="D1452" s="4"/>
+      <c r="E1452" s="4"/>
+      <c r="F1452" s="4"/>
+      <c r="G1452" s="5"/>
+      <c r="H1452" s="5"/>
     </row>
     <row r="1453" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1453" s="7"/>
-      <c r="B1453" s="6"/>
-      <c r="C1453" s="6"/>
-      <c r="D1453" s="6"/>
-      <c r="E1453" s="6"/>
-      <c r="F1453" s="6"/>
-      <c r="G1453" s="8"/>
-      <c r="H1453" s="8"/>
+      <c r="A1453" s="3"/>
+      <c r="B1453" s="4"/>
+      <c r="C1453" s="4"/>
+      <c r="D1453" s="4"/>
+      <c r="E1453" s="4"/>
+      <c r="F1453" s="4"/>
+      <c r="G1453" s="5"/>
+      <c r="H1453" s="5"/>
     </row>
     <row r="1454" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1454" s="7"/>
-      <c r="B1454" s="6"/>
-      <c r="C1454" s="6"/>
-      <c r="D1454" s="6"/>
-      <c r="E1454" s="6"/>
-      <c r="F1454" s="6"/>
-      <c r="G1454" s="8"/>
-      <c r="H1454" s="8"/>
+      <c r="A1454" s="3"/>
+      <c r="B1454" s="4"/>
+      <c r="C1454" s="4"/>
+      <c r="D1454" s="4"/>
+      <c r="E1454" s="4"/>
+      <c r="F1454" s="4"/>
+      <c r="G1454" s="5"/>
+      <c r="H1454" s="5"/>
     </row>
     <row r="1455" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1455" s="7"/>
-      <c r="B1455" s="6"/>
-      <c r="C1455" s="6"/>
-      <c r="D1455" s="6"/>
-      <c r="E1455" s="6"/>
-      <c r="F1455" s="6"/>
-      <c r="G1455" s="8"/>
-      <c r="H1455" s="8"/>
+      <c r="A1455" s="3"/>
+      <c r="B1455" s="4"/>
+      <c r="C1455" s="4"/>
+      <c r="D1455" s="4"/>
+      <c r="E1455" s="4"/>
+      <c r="F1455" s="4"/>
+      <c r="G1455" s="5"/>
+      <c r="H1455" s="5"/>
     </row>
     <row r="1456" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1456" s="7"/>
-      <c r="B1456" s="6"/>
-      <c r="C1456" s="6"/>
-      <c r="D1456" s="6"/>
-      <c r="E1456" s="6"/>
-      <c r="F1456" s="6"/>
-      <c r="G1456" s="8"/>
-      <c r="H1456" s="8"/>
+      <c r="A1456" s="3"/>
+      <c r="B1456" s="4"/>
+      <c r="C1456" s="4"/>
+      <c r="D1456" s="4"/>
+      <c r="E1456" s="4"/>
+      <c r="F1456" s="4"/>
+      <c r="G1456" s="5"/>
+      <c r="H1456" s="5"/>
     </row>
     <row r="1457" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1457" s="7"/>
-      <c r="B1457" s="6"/>
-      <c r="C1457" s="6"/>
-      <c r="D1457" s="6"/>
-      <c r="E1457" s="6"/>
-      <c r="F1457" s="6"/>
-      <c r="G1457" s="8"/>
-      <c r="H1457" s="8"/>
+      <c r="A1457" s="3"/>
+      <c r="B1457" s="4"/>
+      <c r="C1457" s="4"/>
+      <c r="D1457" s="4"/>
+      <c r="E1457" s="4"/>
+      <c r="F1457" s="4"/>
+      <c r="G1457" s="5"/>
+      <c r="H1457" s="5"/>
     </row>
     <row r="1458" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1458" s="7"/>
-      <c r="B1458" s="6"/>
-      <c r="C1458" s="6"/>
-      <c r="D1458" s="6"/>
-      <c r="E1458" s="6"/>
-      <c r="F1458" s="6"/>
-      <c r="G1458" s="8"/>
-      <c r="H1458" s="8"/>
+      <c r="A1458" s="3"/>
+      <c r="B1458" s="4"/>
+      <c r="C1458" s="4"/>
+      <c r="D1458" s="4"/>
+      <c r="E1458" s="4"/>
+      <c r="F1458" s="4"/>
+      <c r="G1458" s="5"/>
+      <c r="H1458" s="5"/>
     </row>
     <row r="1459" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1459" s="7"/>
-      <c r="B1459" s="6"/>
-      <c r="C1459" s="6"/>
-      <c r="D1459" s="6"/>
-      <c r="E1459" s="6"/>
-      <c r="F1459" s="6"/>
-      <c r="G1459" s="8"/>
-      <c r="H1459" s="8"/>
+      <c r="A1459" s="3"/>
+      <c r="B1459" s="4"/>
+      <c r="C1459" s="4"/>
+      <c r="D1459" s="4"/>
+      <c r="E1459" s="4"/>
+      <c r="F1459" s="4"/>
+      <c r="G1459" s="5"/>
+      <c r="H1459" s="5"/>
     </row>
     <row r="1460" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1460" s="7"/>
-      <c r="B1460" s="6"/>
-      <c r="C1460" s="6"/>
-      <c r="D1460" s="6"/>
-      <c r="E1460" s="6"/>
-      <c r="F1460" s="6"/>
-      <c r="G1460" s="8"/>
-      <c r="H1460" s="8"/>
+      <c r="A1460" s="3"/>
+      <c r="B1460" s="4"/>
+      <c r="C1460" s="4"/>
+      <c r="D1460" s="4"/>
+      <c r="E1460" s="4"/>
+      <c r="F1460" s="4"/>
+      <c r="G1460" s="5"/>
+      <c r="H1460" s="5"/>
     </row>
     <row r="1461" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1461" s="7"/>
-      <c r="B1461" s="6"/>
-      <c r="C1461" s="6"/>
-      <c r="D1461" s="6"/>
-      <c r="E1461" s="6"/>
-      <c r="F1461" s="6"/>
-      <c r="G1461" s="8"/>
-      <c r="H1461" s="8"/>
+      <c r="A1461" s="3"/>
+      <c r="B1461" s="4"/>
+      <c r="C1461" s="4"/>
+      <c r="D1461" s="4"/>
+      <c r="E1461" s="4"/>
+      <c r="F1461" s="4"/>
+      <c r="G1461" s="5"/>
+      <c r="H1461" s="5"/>
     </row>
     <row r="1462" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1462" s="7"/>
-      <c r="B1462" s="6"/>
-      <c r="C1462" s="6"/>
-      <c r="D1462" s="6"/>
-      <c r="E1462" s="6"/>
-      <c r="F1462" s="6"/>
-      <c r="G1462" s="8"/>
-      <c r="H1462" s="8"/>
+      <c r="A1462" s="3"/>
+      <c r="B1462" s="4"/>
+      <c r="C1462" s="4"/>
+      <c r="D1462" s="4"/>
+      <c r="E1462" s="4"/>
+      <c r="F1462" s="4"/>
+      <c r="G1462" s="5"/>
+      <c r="H1462" s="5"/>
     </row>
     <row r="1463" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1463" s="7"/>
-      <c r="B1463" s="6"/>
-      <c r="C1463" s="6"/>
-      <c r="D1463" s="6"/>
-      <c r="E1463" s="6"/>
-      <c r="F1463" s="6"/>
-      <c r="G1463" s="8"/>
-      <c r="H1463" s="8"/>
+      <c r="A1463" s="3"/>
+      <c r="B1463" s="4"/>
+      <c r="C1463" s="4"/>
+      <c r="D1463" s="4"/>
+      <c r="E1463" s="4"/>
+      <c r="F1463" s="4"/>
+      <c r="G1463" s="5"/>
+      <c r="H1463" s="5"/>
     </row>
     <row r="1464" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1464" s="7"/>
-      <c r="B1464" s="6"/>
-      <c r="C1464" s="6"/>
-      <c r="D1464" s="6"/>
-      <c r="E1464" s="6"/>
-      <c r="F1464" s="6"/>
-      <c r="G1464" s="8"/>
-      <c r="H1464" s="8"/>
+      <c r="A1464" s="3"/>
+      <c r="B1464" s="4"/>
+      <c r="C1464" s="4"/>
+      <c r="D1464" s="4"/>
+      <c r="E1464" s="4"/>
+      <c r="F1464" s="4"/>
+      <c r="G1464" s="5"/>
+      <c r="H1464" s="5"/>
     </row>
     <row r="1465" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1465" s="7"/>
-      <c r="B1465" s="6"/>
-      <c r="C1465" s="6"/>
-      <c r="D1465" s="6"/>
-      <c r="E1465" s="6"/>
-      <c r="F1465" s="6"/>
-      <c r="G1465" s="8"/>
-      <c r="H1465" s="8"/>
+      <c r="A1465" s="3"/>
+      <c r="B1465" s="4"/>
+      <c r="C1465" s="4"/>
+      <c r="D1465" s="4"/>
+      <c r="E1465" s="4"/>
+      <c r="F1465" s="4"/>
+      <c r="G1465" s="5"/>
+      <c r="H1465" s="5"/>
     </row>
     <row r="1466" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1466" s="7"/>
-      <c r="B1466" s="6"/>
-      <c r="C1466" s="6"/>
-      <c r="D1466" s="6"/>
-      <c r="E1466" s="6"/>
-      <c r="F1466" s="6"/>
-      <c r="G1466" s="8"/>
-      <c r="H1466" s="8"/>
+      <c r="A1466" s="3"/>
+      <c r="B1466" s="4"/>
+      <c r="C1466" s="4"/>
+      <c r="D1466" s="4"/>
+      <c r="E1466" s="4"/>
+      <c r="F1466" s="4"/>
+      <c r="G1466" s="5"/>
+      <c r="H1466" s="5"/>
     </row>
     <row r="1467" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1467" s="7"/>
-      <c r="B1467" s="6"/>
-      <c r="C1467" s="6"/>
-      <c r="D1467" s="6"/>
-      <c r="E1467" s="6"/>
-      <c r="F1467" s="6"/>
-      <c r="G1467" s="8"/>
-      <c r="H1467" s="8"/>
+      <c r="A1467" s="3"/>
+      <c r="B1467" s="4"/>
+      <c r="C1467" s="4"/>
+      <c r="D1467" s="4"/>
+      <c r="E1467" s="4"/>
+      <c r="F1467" s="4"/>
+      <c r="G1467" s="5"/>
+      <c r="H1467" s="5"/>
     </row>
     <row r="1468" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1468" s="7"/>
-      <c r="B1468" s="6"/>
-      <c r="C1468" s="6"/>
-      <c r="D1468" s="6"/>
-      <c r="E1468" s="6"/>
-      <c r="F1468" s="6"/>
-      <c r="G1468" s="8"/>
-      <c r="H1468" s="8"/>
+      <c r="A1468" s="3"/>
+      <c r="B1468" s="4"/>
+      <c r="C1468" s="4"/>
+      <c r="D1468" s="4"/>
+      <c r="E1468" s="4"/>
+      <c r="F1468" s="4"/>
+      <c r="G1468" s="5"/>
+      <c r="H1468" s="5"/>
     </row>
     <row r="1469" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1469" s="7"/>
-      <c r="B1469" s="6"/>
-      <c r="C1469" s="6"/>
-      <c r="D1469" s="6"/>
-      <c r="E1469" s="6"/>
-      <c r="F1469" s="6"/>
-      <c r="G1469" s="8"/>
-      <c r="H1469" s="8"/>
+      <c r="A1469" s="3"/>
+      <c r="B1469" s="4"/>
+      <c r="C1469" s="4"/>
+      <c r="D1469" s="4"/>
+      <c r="E1469" s="4"/>
+      <c r="F1469" s="4"/>
+      <c r="G1469" s="5"/>
+      <c r="H1469" s="5"/>
     </row>
     <row r="1470" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1470" s="7"/>
-      <c r="B1470" s="6"/>
-      <c r="C1470" s="6"/>
-      <c r="D1470" s="6"/>
-      <c r="E1470" s="6"/>
-      <c r="F1470" s="6"/>
-      <c r="G1470" s="8"/>
-      <c r="H1470" s="8"/>
+      <c r="A1470" s="3"/>
+      <c r="B1470" s="4"/>
+      <c r="C1470" s="4"/>
+      <c r="D1470" s="4"/>
+      <c r="E1470" s="4"/>
+      <c r="F1470" s="4"/>
+      <c r="G1470" s="5"/>
+      <c r="H1470" s="5"/>
     </row>
     <row r="1471" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1471" s="7"/>
-      <c r="B1471" s="6"/>
-      <c r="C1471" s="6"/>
-      <c r="D1471" s="6"/>
-      <c r="E1471" s="6"/>
-      <c r="F1471" s="6"/>
-      <c r="G1471" s="8"/>
-      <c r="H1471" s="8"/>
+      <c r="A1471" s="3"/>
+      <c r="B1471" s="4"/>
+      <c r="C1471" s="4"/>
+      <c r="D1471" s="4"/>
+      <c r="E1471" s="4"/>
+      <c r="F1471" s="4"/>
+      <c r="G1471" s="5"/>
+      <c r="H1471" s="5"/>
     </row>
     <row r="1472" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1472" s="7"/>
-      <c r="B1472" s="6"/>
-      <c r="C1472" s="6"/>
-      <c r="D1472" s="6"/>
-      <c r="E1472" s="6"/>
-      <c r="F1472" s="6"/>
-      <c r="G1472" s="8"/>
-      <c r="H1472" s="8"/>
+      <c r="A1472" s="3"/>
+      <c r="B1472" s="4"/>
+      <c r="C1472" s="4"/>
+      <c r="D1472" s="4"/>
+      <c r="E1472" s="4"/>
+      <c r="F1472" s="4"/>
+      <c r="G1472" s="5"/>
+      <c r="H1472" s="5"/>
     </row>
     <row r="1473" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1473" s="7"/>
-      <c r="B1473" s="6"/>
-      <c r="C1473" s="6"/>
-      <c r="D1473" s="6"/>
-      <c r="E1473" s="6"/>
-      <c r="F1473" s="6"/>
-      <c r="G1473" s="8"/>
-      <c r="H1473" s="8"/>
+      <c r="A1473" s="3"/>
+      <c r="B1473" s="4"/>
+      <c r="C1473" s="4"/>
+      <c r="D1473" s="4"/>
+      <c r="E1473" s="4"/>
+      <c r="F1473" s="4"/>
+      <c r="G1473" s="5"/>
+      <c r="H1473" s="5"/>
     </row>
     <row r="1474" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1474" s="7"/>
-      <c r="B1474" s="6"/>
-      <c r="C1474" s="6"/>
-      <c r="D1474" s="6"/>
-      <c r="E1474" s="6"/>
-      <c r="F1474" s="6"/>
-      <c r="G1474" s="8"/>
-      <c r="H1474" s="8"/>
+      <c r="A1474" s="3"/>
+      <c r="B1474" s="4"/>
+      <c r="C1474" s="4"/>
+      <c r="D1474" s="4"/>
+      <c r="E1474" s="4"/>
+      <c r="F1474" s="4"/>
+      <c r="G1474" s="5"/>
+      <c r="H1474" s="5"/>
     </row>
     <row r="1475" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1475" s="7"/>
-      <c r="B1475" s="6"/>
-      <c r="C1475" s="6"/>
-      <c r="D1475" s="6"/>
-      <c r="E1475" s="6"/>
-      <c r="F1475" s="6"/>
-      <c r="G1475" s="8"/>
-      <c r="H1475" s="8"/>
+      <c r="A1475" s="3"/>
+      <c r="B1475" s="4"/>
+      <c r="C1475" s="4"/>
+      <c r="D1475" s="4"/>
+      <c r="E1475" s="4"/>
+      <c r="F1475" s="4"/>
+      <c r="G1475" s="5"/>
+      <c r="H1475" s="5"/>
     </row>
     <row r="1476" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1476" s="3"/>
@@ -17153,7 +17159,7 @@
       <c r="B1653" s="4"/>
       <c r="C1653" s="4"/>
       <c r="D1653" s="4"/>
-      <c r="E1653" s="4"/>
+      <c r="E1653" s="6"/>
       <c r="F1653" s="4"/>
       <c r="G1653" s="5"/>
       <c r="H1653" s="5"/>
@@ -17208,243 +17214,123 @@
       <c r="G1658" s="5"/>
       <c r="H1658" s="5"/>
     </row>
-    <row r="1659" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1659" s="3"/>
-      <c r="B1659" s="4"/>
-      <c r="C1659" s="4"/>
-      <c r="D1659" s="4"/>
-      <c r="E1659" s="4"/>
-      <c r="F1659" s="4"/>
       <c r="G1659" s="5"/>
       <c r="H1659" s="5"/>
     </row>
-    <row r="1660" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1660" s="3"/>
-      <c r="B1660" s="4"/>
-      <c r="C1660" s="4"/>
-      <c r="D1660" s="4"/>
-      <c r="E1660" s="4"/>
-      <c r="F1660" s="4"/>
       <c r="G1660" s="5"/>
       <c r="H1660" s="5"/>
     </row>
-    <row r="1661" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1661" s="3"/>
-      <c r="B1661" s="4"/>
-      <c r="C1661" s="4"/>
-      <c r="D1661" s="4"/>
-      <c r="E1661" s="4"/>
-      <c r="F1661" s="4"/>
       <c r="G1661" s="5"/>
       <c r="H1661" s="5"/>
     </row>
-    <row r="1662" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1662" s="3"/>
-      <c r="B1662" s="4"/>
-      <c r="C1662" s="4"/>
-      <c r="D1662" s="4"/>
-      <c r="E1662" s="4"/>
-      <c r="F1662" s="4"/>
       <c r="G1662" s="5"/>
       <c r="H1662" s="5"/>
     </row>
-    <row r="1663" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1663" s="3"/>
-      <c r="B1663" s="4"/>
-      <c r="C1663" s="4"/>
-      <c r="D1663" s="4"/>
-      <c r="E1663" s="4"/>
-      <c r="F1663" s="4"/>
       <c r="G1663" s="5"/>
       <c r="H1663" s="5"/>
     </row>
-    <row r="1664" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1664" s="3"/>
-      <c r="B1664" s="4"/>
-      <c r="C1664" s="4"/>
-      <c r="D1664" s="4"/>
-      <c r="E1664" s="4"/>
-      <c r="F1664" s="4"/>
       <c r="G1664" s="5"/>
       <c r="H1664" s="5"/>
     </row>
-    <row r="1665" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1665" s="3"/>
-      <c r="B1665" s="4"/>
-      <c r="C1665" s="4"/>
-      <c r="D1665" s="4"/>
-      <c r="E1665" s="4"/>
-      <c r="F1665" s="4"/>
       <c r="G1665" s="5"/>
       <c r="H1665" s="5"/>
     </row>
-    <row r="1666" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1666" s="3"/>
-      <c r="B1666" s="4"/>
-      <c r="C1666" s="4"/>
-      <c r="D1666" s="4"/>
-      <c r="E1666" s="4"/>
-      <c r="F1666" s="4"/>
       <c r="G1666" s="5"/>
       <c r="H1666" s="5"/>
     </row>
-    <row r="1667" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1667" s="3"/>
-      <c r="B1667" s="4"/>
-      <c r="C1667" s="4"/>
-      <c r="D1667" s="4"/>
-      <c r="E1667" s="4"/>
-      <c r="F1667" s="4"/>
       <c r="G1667" s="5"/>
       <c r="H1667" s="5"/>
     </row>
-    <row r="1668" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1668" s="3"/>
-      <c r="B1668" s="4"/>
-      <c r="C1668" s="4"/>
-      <c r="D1668" s="4"/>
-      <c r="E1668" s="4"/>
-      <c r="F1668" s="4"/>
       <c r="G1668" s="5"/>
       <c r="H1668" s="5"/>
     </row>
-    <row r="1669" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1669" s="3"/>
-      <c r="B1669" s="4"/>
-      <c r="C1669" s="4"/>
-      <c r="D1669" s="4"/>
-      <c r="E1669" s="4"/>
-      <c r="F1669" s="4"/>
       <c r="G1669" s="5"/>
       <c r="H1669" s="5"/>
     </row>
-    <row r="1670" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1670" s="3"/>
-      <c r="B1670" s="4"/>
-      <c r="C1670" s="4"/>
-      <c r="D1670" s="4"/>
-      <c r="E1670" s="4"/>
-      <c r="F1670" s="4"/>
       <c r="G1670" s="5"/>
       <c r="H1670" s="5"/>
     </row>
-    <row r="1671" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1671" s="3"/>
-      <c r="B1671" s="4"/>
-      <c r="C1671" s="4"/>
-      <c r="D1671" s="4"/>
-      <c r="E1671" s="4"/>
-      <c r="F1671" s="4"/>
       <c r="G1671" s="5"/>
       <c r="H1671" s="5"/>
     </row>
-    <row r="1672" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1672" s="3"/>
-      <c r="B1672" s="4"/>
-      <c r="C1672" s="4"/>
-      <c r="D1672" s="4"/>
-      <c r="E1672" s="4"/>
-      <c r="F1672" s="4"/>
       <c r="G1672" s="5"/>
       <c r="H1672" s="5"/>
     </row>
-    <row r="1673" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1673" s="3"/>
-      <c r="B1673" s="4"/>
-      <c r="C1673" s="4"/>
-      <c r="D1673" s="4"/>
-      <c r="E1673" s="4"/>
-      <c r="F1673" s="4"/>
       <c r="G1673" s="5"/>
       <c r="H1673" s="5"/>
     </row>
-    <row r="1674" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1674" s="3"/>
-      <c r="B1674" s="4"/>
-      <c r="C1674" s="4"/>
-      <c r="D1674" s="4"/>
-      <c r="E1674" s="4"/>
-      <c r="F1674" s="4"/>
       <c r="G1674" s="5"/>
       <c r="H1674" s="5"/>
     </row>
-    <row r="1675" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1675" s="3"/>
-      <c r="B1675" s="4"/>
-      <c r="C1675" s="4"/>
-      <c r="D1675" s="4"/>
-      <c r="E1675" s="4"/>
-      <c r="F1675" s="4"/>
       <c r="G1675" s="5"/>
       <c r="H1675" s="5"/>
     </row>
-    <row r="1676" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1676" s="3"/>
-      <c r="B1676" s="4"/>
-      <c r="C1676" s="4"/>
-      <c r="D1676" s="4"/>
-      <c r="E1676" s="4"/>
-      <c r="F1676" s="4"/>
       <c r="G1676" s="5"/>
       <c r="H1676" s="5"/>
     </row>
-    <row r="1677" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1677" s="3"/>
-      <c r="B1677" s="4"/>
-      <c r="C1677" s="4"/>
-      <c r="D1677" s="4"/>
-      <c r="E1677" s="6"/>
-      <c r="F1677" s="4"/>
       <c r="G1677" s="5"/>
       <c r="H1677" s="5"/>
     </row>
-    <row r="1678" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1678" s="3"/>
-      <c r="B1678" s="4"/>
-      <c r="C1678" s="4"/>
-      <c r="D1678" s="4"/>
-      <c r="E1678" s="4"/>
-      <c r="F1678" s="4"/>
       <c r="G1678" s="5"/>
       <c r="H1678" s="5"/>
     </row>
-    <row r="1679" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1679" s="3"/>
-      <c r="B1679" s="4"/>
-      <c r="C1679" s="4"/>
-      <c r="D1679" s="4"/>
-      <c r="E1679" s="4"/>
-      <c r="F1679" s="4"/>
       <c r="G1679" s="5"/>
       <c r="H1679" s="5"/>
     </row>
-    <row r="1680" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1680" s="3"/>
-      <c r="B1680" s="4"/>
-      <c r="C1680" s="4"/>
-      <c r="D1680" s="4"/>
-      <c r="E1680" s="4"/>
-      <c r="F1680" s="4"/>
       <c r="G1680" s="5"/>
       <c r="H1680" s="5"/>
     </row>
-    <row r="1681" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1681" s="3"/>
-      <c r="B1681" s="4"/>
-      <c r="C1681" s="4"/>
-      <c r="D1681" s="4"/>
-      <c r="E1681" s="4"/>
-      <c r="F1681" s="4"/>
       <c r="G1681" s="5"/>
       <c r="H1681" s="5"/>
     </row>
-    <row r="1682" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1682" s="3"/>
-      <c r="B1682" s="4"/>
-      <c r="C1682" s="4"/>
-      <c r="D1682" s="4"/>
-      <c r="E1682" s="4"/>
-      <c r="F1682" s="4"/>
       <c r="G1682" s="5"/>
       <c r="H1682" s="5"/>
     </row>
@@ -19698,129 +19584,9 @@
       <c r="G2132" s="5"/>
       <c r="H2132" s="5"/>
     </row>
-    <row r="2133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2133" s="3"/>
-      <c r="G2133" s="5"/>
-      <c r="H2133" s="5"/>
-    </row>
-    <row r="2134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2134" s="3"/>
-      <c r="G2134" s="5"/>
-      <c r="H2134" s="5"/>
-    </row>
-    <row r="2135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2135" s="3"/>
-      <c r="G2135" s="5"/>
-      <c r="H2135" s="5"/>
-    </row>
-    <row r="2136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2136" s="3"/>
-      <c r="G2136" s="5"/>
-      <c r="H2136" s="5"/>
-    </row>
-    <row r="2137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2137" s="3"/>
-      <c r="G2137" s="5"/>
-      <c r="H2137" s="5"/>
-    </row>
-    <row r="2138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2138" s="3"/>
-      <c r="G2138" s="5"/>
-      <c r="H2138" s="5"/>
-    </row>
-    <row r="2139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2139" s="3"/>
-      <c r="G2139" s="5"/>
-      <c r="H2139" s="5"/>
-    </row>
-    <row r="2140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2140" s="3"/>
-      <c r="G2140" s="5"/>
-      <c r="H2140" s="5"/>
-    </row>
-    <row r="2141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2141" s="3"/>
-      <c r="G2141" s="5"/>
-      <c r="H2141" s="5"/>
-    </row>
-    <row r="2142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2142" s="3"/>
-      <c r="G2142" s="5"/>
-      <c r="H2142" s="5"/>
-    </row>
-    <row r="2143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2143" s="3"/>
-      <c r="G2143" s="5"/>
-      <c r="H2143" s="5"/>
-    </row>
-    <row r="2144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2144" s="3"/>
-      <c r="G2144" s="5"/>
-      <c r="H2144" s="5"/>
-    </row>
-    <row r="2145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2145" s="3"/>
-      <c r="G2145" s="5"/>
-      <c r="H2145" s="5"/>
-    </row>
-    <row r="2146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2146" s="3"/>
-      <c r="G2146" s="5"/>
-      <c r="H2146" s="5"/>
-    </row>
-    <row r="2147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2147" s="3"/>
-      <c r="G2147" s="5"/>
-      <c r="H2147" s="5"/>
-    </row>
-    <row r="2148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2148" s="3"/>
-      <c r="G2148" s="5"/>
-      <c r="H2148" s="5"/>
-    </row>
-    <row r="2149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2149" s="3"/>
-      <c r="G2149" s="5"/>
-      <c r="H2149" s="5"/>
-    </row>
-    <row r="2150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2150" s="3"/>
-      <c r="G2150" s="5"/>
-      <c r="H2150" s="5"/>
-    </row>
-    <row r="2151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2151" s="3"/>
-      <c r="G2151" s="5"/>
-      <c r="H2151" s="5"/>
-    </row>
-    <row r="2152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2152" s="3"/>
-      <c r="G2152" s="5"/>
-      <c r="H2152" s="5"/>
-    </row>
-    <row r="2153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2153" s="3"/>
-      <c r="G2153" s="5"/>
-      <c r="H2153" s="5"/>
-    </row>
-    <row r="2154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2154" s="3"/>
-      <c r="G2154" s="5"/>
-      <c r="H2154" s="5"/>
-    </row>
-    <row r="2155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2155" s="3"/>
-      <c r="G2155" s="5"/>
-      <c r="H2155" s="5"/>
-    </row>
-    <row r="2156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2156" s="3"/>
-      <c r="G2156" s="5"/>
-      <c r="H2156" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H338">
-    <sortCondition descending="1" ref="A1:A338"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H314">
+    <sortCondition descending="1" ref="A1:A314"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
